--- a/CdS_Mastodon/lib/toots/xlsx/toots_CdS_6.xlsx
+++ b/CdS_Mastodon/lib/toots/xlsx/toots_CdS_6.xlsx
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2029-4-13</t>
+          <t>2029-04-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18:23:18</t>
+          <t>14:22:20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Quelqu’occupé que vous soyez, Monsieur le baron, je pense que vous aurez le temps ..." à Ladoucette, 1829-04-13, https://constance-de-salm.de/archiv/#/document/9346 #onthisday</t>
+          <t>»Quelqu’occupé que vous soyez, Monsieur le baron, je pense que vous aurez le temps ...« à Ladoucette, 1829-04-13, https://constance-de-salm.de/archiv/#/document/9346 #onthisday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2029-4-13</t>
+          <t>2029-04-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08:08:40</t>
+          <t>19:14:18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Monsieur de Montémont sort d’ici, Monsieur; il n’a pas été reprendre l’article ..." à Sanson de Pongerville, 1836-04-13, https://constance-de-salm.de/archiv/#/document/9730 #onthisday</t>
+          <t>»Monsieur de Montémont sort d’ici, Monsieur; il n’a pas été reprendre l’article ...« à Sanson de Pongerville, 1836-04-13, https://constance-de-salm.de/archiv/#/document/9730 #onthisday</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,17 +517,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2029-4-14</t>
+          <t>2029-04-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17:11:06</t>
+          <t>11:31:58</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Je reçois votre seconde lettre, mon ancienne amie, et j'y réponds à l'instant; je me reproche bien ..." à Salis, 1841-04-14, https://constance-de-salm.de/archiv/#/document/7231 #onthisday</t>
+          <t>»Je reçois votre seconde lettre, mon ancienne amie, et j'y réponds à l'instant; je me reproche bien ...« à Salis, 1841-04-14, https://constance-de-salm.de/archiv/#/document/7231 #onthisday</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -544,17 +544,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2029-4-15</t>
+          <t>2029-04-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13:09:56</t>
+          <t>13:58:42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, le copie de votre excellent article ..." à Bignan, 1842-04-15, https://constance-de-salm.de/archiv/#/document/11254 #onthisday</t>
+          <t>»Voici, Monsieur, le copie de votre excellent article ...« à Bignan, 1842-04-15, https://constance-de-salm.de/archiv/#/document/11254 #onthisday</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2029-4-16</t>
+          <t>2029-04-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11:23:36</t>
+          <t>17:06:43</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Mille remerciments, Monsieur, de votre honorable petit article; ..." à Châtelain, 1834-04-16, https://constance-de-salm.de/archiv/#/document/5563 #onthisday</t>
+          <t>»Mille remerciments, Monsieur, de votre honorable petit article; ...« à Châtelain, 1834-04-16, https://constance-de-salm.de/archiv/#/document/5563 #onthisday</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,17 +598,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2029-4-17</t>
+          <t>2029-04-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15:48:35</t>
+          <t>14:26:27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Permettez, Monsieur le baron, que je vous recommande un jeune littérateur ..." à Humboldt, 1836-04-17, https://constance-de-salm.de/archiv/#/document/9734 #onthisday</t>
+          <t>»Permettez, Monsieur le baron, que je vous recommande un jeune littérateur ...« à Humboldt, 1836-04-17, https://constance-de-salm.de/archiv/#/document/9734 #onthisday</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2029-4-17</t>
+          <t>2029-04-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08:12:28</t>
+          <t>18:50:11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, cher frère, que j’ai reçu ta lettre et que je voulais y répondre ..." à Salm, 1837-04-17, https://constance-de-salm.de/archiv/#/document/10891 #onthisday</t>
+          <t>»Il y a déjà quelque temps, cher frère, que j’ai reçu ta lettre et que je voulais y répondre ...« à Salm, 1837-04-17, https://constance-de-salm.de/archiv/#/document/10891 #onthisday</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -652,17 +652,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2029-4-18</t>
+          <t>2029-04-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16:53:54</t>
+          <t>10:08:10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Il y a déjà longtemps, ma chère amie, que je n’ai jasé avec vous ..." à Francq, 1844-04-18, https://constance-de-salm.de/archiv/#/document/5317 #onthisday</t>
+          <t>»Il y a déjà longtemps, ma chère amie, que je n’ai jasé avec vous ...« à Francq, 1844-04-18, https://constance-de-salm.de/archiv/#/document/5317 #onthisday</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -679,17 +679,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2029-4-20</t>
+          <t>2029-04-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14:49:36</t>
+          <t>16:49:03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"J’ai reçu presqu’au moment de mon arrivée ici, Monsieur, la lettre que vous m’avez adressée ..." à Pougens, 1829-04-20, https://constance-de-salm.de/archiv/#/document/9351 #onthisday</t>
+          <t>»J’ai reçu presqu’au moment de mon arrivée ici, Monsieur, la lettre que vous m’avez adressée ...« à Pougens, 1829-04-20, https://constance-de-salm.de/archiv/#/document/9351 #onthisday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -706,17 +706,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2029-4-20</t>
+          <t>2029-04-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13:26:15</t>
+          <t>13:51:27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelques jours, Madame, j'ai vu Monsieur votre père, et je m'empresse de vous dire qu'il se porte bien ..." à Paganel, 1830-04-20, https://constance-de-salm.de/archiv/#/document/5165 #onthisday</t>
+          <t>»Je suis ici depuis quelques jours, Madame, j'ai vu Monsieur votre père, et je m'empresse de vous dire qu'il se porte bien ...« à Paganel, 1830-04-20, https://constance-de-salm.de/archiv/#/document/5165 #onthisday</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,17 +733,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2029-4-23</t>
+          <t>2029-04-23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19:57:54</t>
+          <t>14:36:18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Vous ne m’écrivez plus, Monsieur, parce que je ne vous ai pas répondu: rien de plus juste ..." à Raboteau, 1825-04-23, https://constance-de-salm.de/archiv/#/document/8947 #onthisday</t>
+          <t>»Vous ne m’écrivez plus, Monsieur, parce que je ne vous ai pas répondu: rien de plus juste ...« à Raboteau, 1825-04-23, https://constance-de-salm.de/archiv/#/document/8947 #onthisday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -760,17 +760,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2029-4-24</t>
+          <t>2029-04-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12:33:07</t>
+          <t>16:29:41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Monsieur Drais me remet votre lettre, ma bien chère amie, je ne perds pas un moment pour vous dire ..." à Salis, 1838-04-24, https://constance-de-salm.de/archiv/#/document/10369 #onthisday</t>
+          <t>»Monsieur Drais me remet votre lettre, ma bien chère amie, je ne perds pas un moment pour vous dire ...« à Salis, 1838-04-24, https://constance-de-salm.de/archiv/#/document/10369 #onthisday</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2029-4-25</t>
+          <t>2029-04-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16:28:15</t>
+          <t>10:12:13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Quoique je sois encore accablée et souffrante plus qu’il ne m’est possible de vous le dire, Monsieur le baron, m’étant enfin décidée ..." à Ladoucette, 1835-04-25, https://constance-de-salm.de/archiv/#/document/9599 #onthisday</t>
+          <t>»Quoique je sois encore accablée et souffrante plus qu’il ne m’est possible de vous le dire, Monsieur le baron, m’étant enfin décidée ...« à Ladoucette, 1835-04-25, https://constance-de-salm.de/archiv/#/document/9599 #onthisday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -814,17 +814,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2029-4-26</t>
+          <t>2029-04-26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16:16:52</t>
+          <t>10:48:39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Je prie Monsieur Drais d'aller ce matin chez Monsieur Jomard, et de lui dire, de ma part que je désirais ..." à Drais, 1841-04-26, https://constance-de-salm.de/archiv/#/document/7420 #onthisday</t>
+          <t>»Je prie Monsieur Drais d'aller ce matin chez Monsieur Jomard, et de lui dire, de ma part que je désirais ...« à Drais, 1841-04-26, https://constance-de-salm.de/archiv/#/document/7420 #onthisday</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -841,17 +841,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2029-4-27</t>
+          <t>2029-04-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13:39:53</t>
+          <t>11:29:18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm reçoit, à l'instant, le billet de Monsieur de Chazet, et elle s'empresse ..." à Chazet, 1841-04-27, https://constance-de-salm.de/archiv/#/document/7234 #onthisday</t>
+          <t>»La Princesse de Salm reçoit, à l'instant, le billet de Monsieur de Chazet, et elle s'empresse ...« à Chazet, 1841-04-27, https://constance-de-salm.de/archiv/#/document/7234 #onthisday</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -868,17 +868,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2029-4-28</t>
+          <t>2029-04-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:39:07</t>
+          <t>14:50:14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"J'allais vous écrire, Monsieur, lorsque j'ai reçu votre lettre, et le numéro de „L'Emancipation“ qui vous y aviez joint ..." à Stassart, 1840-04-28, https://constance-de-salm.de/archiv/#/document/8172 #onthisday</t>
+          <t>»J'allais vous écrire, Monsieur, lorsque j'ai reçu votre lettre, et le numéro de „L'Emancipation“ qui vous y aviez joint ...« à Stassart, 1840-04-28, https://constance-de-salm.de/archiv/#/document/8172 #onthisday</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -895,17 +895,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2029-4-29</t>
+          <t>2029-04-29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18:35:07</t>
+          <t>15:51:51</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, mon cher Félix, ta dernière lettre du 25; tu m'y paraissais un peu triste ..." à Francq, 1844-04-29, https://constance-de-salm.de/archiv/#/document/7602 #onthisday</t>
+          <t>»J'ai reçu hier, mon cher Félix, ta dernière lettre du 25; tu m'y paraissais un peu triste ...« à Francq, 1844-04-29, https://constance-de-salm.de/archiv/#/document/7602 #onthisday</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -922,17 +922,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2029-5-1</t>
+          <t>2029-05-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13:14:01</t>
+          <t>13:41:23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Mon départ vient d’être fixé, Monsieur; ..." à Sanson de Pongerville, 1836-05-01, https://constance-de-salm.de/archiv/#/document/9739 #onthisday</t>
+          <t>»Mon départ vient d’être fixé, Monsieur; ...« à Sanson de Pongerville, 1836-05-01, https://constance-de-salm.de/archiv/#/document/9739 #onthisday</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -949,17 +949,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2029-5-2</t>
+          <t>2029-05-02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10:01:13</t>
+          <t>19:21:38</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis deux jours, Monsieur ..." à Berville, 1831-05-02, https://constance-de-salm.de/archiv/#/document/6353 #onthisday</t>
+          <t>»Je suis ici depuis deux jours, Monsieur ...« à Berville, 1831-05-02, https://constance-de-salm.de/archiv/#/document/6353 #onthisday</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -976,17 +976,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2029-5-3</t>
+          <t>2029-05-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19:19:45</t>
+          <t>12:06:16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"La veille du jour où j’ai quitté Paris, Monsieur, j’ai enfin écrit un mot à Monsieur de Thiessé, et un autre mot à Monsieur Jay ..." à Agoub, 1828-05-03, https://constance-de-salm.de/archiv/#/document/9161 #onthisday</t>
+          <t>»La veille du jour où j’ai quitté Paris, Monsieur, j’ai enfin écrit un mot à Monsieur de Thiessé, et un autre mot à Monsieur Jay ...« à Agoub, 1828-05-03, https://constance-de-salm.de/archiv/#/document/9161 #onthisday</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1003,17 +1003,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2029-5-4</t>
+          <t>2029-05-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14:12:05</t>
+          <t>18:32:36</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Monsieur le baron, c'est moi aujourd'hui qui va [sic] vous donner des nouvelles de Madame la Princesse ..." à Théis, 1839-05-04, https://constance-de-salm.de/archiv/#/document/8029 #onthisday</t>
+          <t>»Monsieur le baron, c'est moi aujourd'hui qui va [sic] vous donner des nouvelles de Madame la Princesse ...« à Théis, 1839-05-04, https://constance-de-salm.de/archiv/#/document/8029 #onthisday</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2029-5-5</t>
+          <t>2029-05-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19:09:25</t>
+          <t>14:10:06</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Je sens le besoin de vous redire, Monsieur le baron, que vous êtes instamment prié de ne pas dire ..." à Ladoucette, 1829-05-05, https://constance-de-salm.de/archiv/#/document/9368 #onthisday</t>
+          <t>»Je sens le besoin de vous redire, Monsieur le baron, que vous êtes instamment prié de ne pas dire ...« à Ladoucette, 1829-05-05, https://constance-de-salm.de/archiv/#/document/9368 #onthisday</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1057,17 +1057,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2029-5-6</t>
+          <t>2029-05-06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12:36:37</t>
+          <t>15:35:27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"Depuis un bien grand nombre d‘années, mon cher cousin, nous nous sommes presque entièrement perdue de vue; ..." à Devise, 1836-05-06, https://constance-de-salm.de/archiv/#/document/9741 #onthisday</t>
+          <t>»Depuis un bien grand nombre d‘années, mon cher cousin, nous nous sommes presque entièrement perdue de vue; ...« à Devise, 1836-05-06, https://constance-de-salm.de/archiv/#/document/9741 #onthisday</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2029-5-7</t>
+          <t>2029-05-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15:33:46</t>
+          <t>15:57:03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Je me suis chargée, Monsieur, de vous envoyer la note ci-jointe de Monsieur de Pongerville ..." à Montferrand, 1836-05-07, https://constance-de-salm.de/archiv/#/document/9742 #onthisday</t>
+          <t>»Je me suis chargée, Monsieur, de vous envoyer la note ci-jointe de Monsieur de Pongerville ...« à Montferrand, 1836-05-07, https://constance-de-salm.de/archiv/#/document/9742 #onthisday</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1111,17 +1111,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2029-5-8</t>
+          <t>2029-05-08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14:12:39</t>
+          <t>16:42:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Je ne vous redirai point, Madame, ce que je viens d‘écrire à Monsieur votre père; ..." à Waldor, 1835-05-08, https://constance-de-salm.de/archiv/#/document/9601 #onthisday</t>
+          <t>»Je ne vous redirai point, Madame, ce que je viens d‘écrire à Monsieur votre père; ...« à Waldor, 1835-05-08, https://constance-de-salm.de/archiv/#/document/9601 #onthisday</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1138,17 +1138,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2029-5-10</t>
+          <t>2029-05-10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14:24:27</t>
+          <t>18:26:30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Depuis plus de deux mois, Madame, je ne crois pas qu’il se soit passé un jour sans que je ne me sois proposé de vous écrire ..." à Vien, 1835-05-10, https://constance-de-salm.de/archiv/#/document/9602 #onthisday</t>
+          <t>»Depuis plus de deux mois, Madame, je ne crois pas qu’il se soit passé un jour sans que je ne me sois proposé de vous écrire ...« à Vien, 1835-05-10, https://constance-de-salm.de/archiv/#/document/9602 #onthisday</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1165,17 +1165,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2029-5-12</t>
+          <t>2029-05-12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19:46:37</t>
+          <t>17:44:11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"J'étais hier si occupée que j'ai oublié de dire à Monsieur Roux de Rochelle que j'ai lundi prochain ..." à Roux de Rochelle, 1841-05-12, https://constance-de-salm.de/archiv/#/document/7412 #onthisday</t>
+          <t>»J'étais hier si occupée que j'ai oublié de dire à Monsieur Roux de Rochelle que j'ai lundi prochain ...« à Roux de Rochelle, 1841-05-12, https://constance-de-salm.de/archiv/#/document/7412 #onthisday</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1192,17 +1192,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2029-5-13</t>
+          <t>2029-05-13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15:24:38</t>
+          <t>08:41:15</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Jusqu’à présent, Monsieur, j’ai été tellement accablée par la douleur, que je n’ai pas eu le courage de reprendre mes correspondances ..." à Jullien de Paris, 1835-05-13, https://constance-de-salm.de/archiv/#/document/9604 #onthisday</t>
+          <t>»Jusqu’à présent, Monsieur, j’ai été tellement accablée par la douleur, que je n’ai pas eu le courage de reprendre mes correspondances ...« à Jullien de Paris, 1835-05-13, https://constance-de-salm.de/archiv/#/document/9604 #onthisday</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,17 +1219,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2029-5-14</t>
+          <t>2029-05-14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15:47:03</t>
+          <t>10:16:56</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Je m’empresse, Monsieur, de vous adresser un exemplaire d’un petit ouvrage ..." à La Suze, 1824-05-14, https://constance-de-salm.de/archiv/#/document/8899 #onthisday</t>
+          <t>»Je m’empresse, Monsieur, de vous adresser un exemplaire d’un petit ouvrage ...« à La Suze, 1824-05-14, https://constance-de-salm.de/archiv/#/document/8899 #onthisday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1246,17 +1246,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2029-5-15</t>
+          <t>2029-05-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11:29:16</t>
+          <t>12:07:37</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Quoique je sois bien souffrante, Monsieur et ami, je veux vous écrire ce petit mot pour affranchir mes esprits ..." à Barbier, 1821-05-15, https://constance-de-salm.de/archiv/#/document/8829 #onthisday</t>
+          <t>»Quoique je sois bien souffrante, Monsieur et ami, je veux vous écrire ce petit mot pour affranchir mes esprits ...« à Barbier, 1821-05-15, https://constance-de-salm.de/archiv/#/document/8829 #onthisday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1273,17 +1273,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2029-5-16</t>
+          <t>2029-05-16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:36:33</t>
+          <t>11:22:02</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Je reçois votre belle et propre lettre, sur mon canapé ..." à Prous, 1821-05-16, https://constance-de-salm.de/archiv/#/document/10651 #onthisday</t>
+          <t>»Je reçois votre belle et propre lettre, sur mon canapé ...« à Prous, 1821-05-16, https://constance-de-salm.de/archiv/#/document/10651 #onthisday</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2029-5-16</t>
+          <t>2029-05-16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12:12:38</t>
+          <t>17:10:45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Je reçois votre belle et propre lettre, sur mon canapé ..." à Prous, 1821-05-16, https://constance-de-salm.de/archiv/#/document/4556 #onthisday</t>
+          <t>»Je reçois votre belle et propre lettre, sur mon canapé ...« à Prous, 1821-05-16, https://constance-de-salm.de/archiv/#/document/4556 #onthisday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1327,17 +1327,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2029-5-17</t>
+          <t>2029-05-17</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18:31:58</t>
+          <t>14:25:42</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Lorsque j'ai reçu votre lettre, Monsieur, j'étais retenue au lit par une indisposition qui jusqu'à présent ..." à Chazet, 1841-05-17, https://constance-de-salm.de/archiv/#/document/7413 #onthisday</t>
+          <t>»Lorsque j'ai reçu votre lettre, Monsieur, j'étais retenue au lit par une indisposition qui jusqu'à présent ...« à Chazet, 1841-05-17, https://constance-de-salm.de/archiv/#/document/7413 #onthisday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1354,17 +1354,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2029-5-18</t>
+          <t>2029-05-18</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18:26:23</t>
+          <t>16:42:28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Je suis encore trop malade, Monsieur, pour qu'il me soit possible de vous écrire de ma main ..." à Bouilly, 1839-05-18, https://constance-de-salm.de/archiv/#/document/8031 #onthisday</t>
+          <t>»Je suis encore trop malade, Monsieur, pour qu'il me soit possible de vous écrire de ma main ...« à Bouilly, 1839-05-18, https://constance-de-salm.de/archiv/#/document/8031 #onthisday</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1381,17 +1381,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2029-5-19</t>
+          <t>2029-05-19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16:25:23</t>
+          <t>19:56:53</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Je suis si occupée, si remplie de mes affaires littéraires et de mon départ ..." à Montémont, 1836-05-19, https://constance-de-salm.de/archiv/#/document/9744 #onthisday</t>
+          <t>»Je suis si occupée, si remplie de mes affaires littéraires et de mon départ ...« à Montémont, 1836-05-19, https://constance-de-salm.de/archiv/#/document/9744 #onthisday</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1408,17 +1408,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2029-5-20</t>
+          <t>2029-05-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>17:49:41</t>
+          <t>15:01:51</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"J'ai été accablée de tracas, de petis maux et d'écritures depuis que j'ai ..." à Prous, 1820-05-20, https://constance-de-salm.de/archiv/#/document/4529 #onthisday</t>
+          <t>»J'ai été accablée de tracas, de petis maux et d'écritures depuis que j'ai ...« à Prous, 1820-05-20, https://constance-de-salm.de/archiv/#/document/4529 #onthisday</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1435,17 +1435,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2029-5-20</t>
+          <t>2029-05-20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18:10:36</t>
+          <t>08:01:02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que je ne vous ai écrit, Monsieur et ancien ami ..." à Raboteau, 1820-05-20, https://constance-de-salm.de/archiv/#/document/4858 #onthisday</t>
+          <t>»Il y a bien longtemps que je ne vous ai écrit, Monsieur et ancien ami ...« à Raboteau, 1820-05-20, https://constance-de-salm.de/archiv/#/document/4858 #onthisday</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1462,17 +1462,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2029-5-21</t>
+          <t>2029-05-21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16:16:07</t>
+          <t>11:09:51</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Depuis plus de trois mois, mon cher voisin, il ne s'est passé ..." à Maison, 1831-05-21, https://constance-de-salm.de/archiv/#/document/6368 #onthisday</t>
+          <t>»Depuis plus de trois mois, mon cher voisin, il ne s'est passé ...« à Maison, 1831-05-21, https://constance-de-salm.de/archiv/#/document/6368 #onthisday</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1489,17 +1489,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2029-5-23</t>
+          <t>2029-05-23</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16:37:40</t>
+          <t>13:42:06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Mille remerciements, Monsieur, et, aussi, mille excuses de la peine que vous avez prise d'écrire les vers ..." à Villenave, 1840-05-23, https://constance-de-salm.de/archiv/#/document/8184 #onthisday</t>
+          <t>»Mille remerciements, Monsieur, et, aussi, mille excuses de la peine que vous avez prise d'écrire les vers ...« à Villenave, 1840-05-23, https://constance-de-salm.de/archiv/#/document/8184 #onthisday</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1516,17 +1516,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2029-5-24</t>
+          <t>2029-05-24</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08:06:31</t>
+          <t>08:43:13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"J’envoie à Monsieur votre père et à Madame votre sœur, Monsieur, un recueil ..." à Villenave, 1836-05-24, https://constance-de-salm.de/archiv/#/document/9748 #onthisday</t>
+          <t>»J’envoie à Monsieur votre père et à Madame votre sœur, Monsieur, un recueil ...« à Villenave, 1836-05-24, https://constance-de-salm.de/archiv/#/document/9748 #onthisday</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1543,17 +1543,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2029-5-25</t>
+          <t>2029-05-25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08:06:27</t>
+          <t>11:51:44</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Je n’entends pas parler de toi, cher frère, tu attends que je te donne de mes nouvelles ..." à Théis, 1838-05-25, https://constance-de-salm.de/archiv/#/document/10902 #onthisday</t>
+          <t>»Je n’entends pas parler de toi, cher frère, tu attends que je te donne de mes nouvelles ...« à Théis, 1838-05-25, https://constance-de-salm.de/archiv/#/document/10902 #onthisday</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1570,17 +1570,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2029-5-26</t>
+          <t>2029-05-26</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:09:01</t>
+          <t>15:48:32</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Ce sera avec beaucoup de plaisir que je vous reverrai, Madame ..." à Dauriat, 1831-05-26, https://constance-de-salm.de/archiv/#/document/6642 #onthisday</t>
+          <t>»Ce sera avec beaucoup de plaisir que je vous reverrai, Madame ...« à Dauriat, 1831-05-26, https://constance-de-salm.de/archiv/#/document/6642 #onthisday</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1597,17 +1597,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2029-5-27</t>
+          <t>2029-05-27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18:56:46</t>
+          <t>15:04:51</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm envoie à Monsieur de Montferrand les deux épreuves de la Biographie ..." à Montferrand, 1836-05-27, https://constance-de-salm.de/archiv/#/document/9754 #onthisday</t>
+          <t>»La Princesse de Salm envoie à Monsieur de Montferrand les deux épreuves de la Biographie ...« à Montferrand, 1836-05-27, https://constance-de-salm.de/archiv/#/document/9754 #onthisday</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1624,17 +1624,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2029-5-27</t>
+          <t>2029-05-27</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11:54:32</t>
+          <t>17:37:44</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Mon petit-fils Félix ne se porte pas très bien, Monsieur et ancien ami; j'ai moi-même bien de la peine à me rétablir ..." à Duval, 1837-05-27, https://constance-de-salm.de/archiv/#/document/7769 #onthisday</t>
+          <t>»Mon petit-fils Félix ne se porte pas très bien, Monsieur et ancien ami; j'ai moi-même bien de la peine à me rétablir ...« à Duval, 1837-05-27, https://constance-de-salm.de/archiv/#/document/7769 #onthisday</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1651,17 +1651,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2029-5-28</t>
+          <t>2029-05-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11:18:04</t>
+          <t>15:35:12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Mon cher voisin, et ancien ami, vous m'avez rendu ma notice une fois pour y corriger une faute d'impression ..." à Ladoucette, 1839-05-28, https://constance-de-salm.de/archiv/#/document/8035 #onthisday</t>
+          <t>»Mon cher voisin, et ancien ami, vous m'avez rendu ma notice une fois pour y corriger une faute d'impression ...« à Ladoucette, 1839-05-28, https://constance-de-salm.de/archiv/#/document/8035 #onthisday</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2029-5-28</t>
+          <t>2029-05-28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11:44:18</t>
+          <t>18:29:19</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Je veux joindre un mot, Madame, à la lettre que Félix vous écrit pour vous dire ..." à Paganel, 1840-05-28, https://constance-de-salm.de/archiv/#/document/8190 #onthisday</t>
+          <t>»Je veux joindre un mot, Madame, à la lettre que Félix vous écrit pour vous dire ...« à Paganel, 1840-05-28, https://constance-de-salm.de/archiv/#/document/8190 #onthisday</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1705,17 +1705,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2029-5-29</t>
+          <t>2029-05-29</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>09:37:51</t>
+          <t>19:16:17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Je viens d’écrire à votre frère, mon cher Duval, et je n’ai pas le courage de revenir avec vous ..." à Duval, 1835-05-29, https://constance-de-salm.de/archiv/#/document/9607 #onthisday</t>
+          <t>»Je viens d’écrire à votre frère, mon cher Duval, et je n’ai pas le courage de revenir avec vous ...« à Duval, 1835-05-29, https://constance-de-salm.de/archiv/#/document/9607 #onthisday</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1732,17 +1732,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2029-5-29</t>
+          <t>2029-05-29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16:21:55</t>
+          <t>09:17:15</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Voulez-vous bien, Monsieur, avoir la complaisance de me renvoyer la notice que je vous ai donnée hier ou plutôt de me la rapporter ..." à Valleran(d), 1839-05-29, https://constance-de-salm.de/archiv/#/document/8036 #onthisday</t>
+          <t>»Voulez-vous bien, Monsieur, avoir la complaisance de me renvoyer la notice que je vous ai donnée hier ou plutôt de me la rapporter ...« à Valleran(d), 1839-05-29, https://constance-de-salm.de/archiv/#/document/8036 #onthisday</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2029-5-30</t>
+          <t>2029-05-30</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17:21:54</t>
+          <t>17:13:12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Je ne sais, Monsieur et Madame, si en lisant ma notice, vous avez remarqué deux de ces fautes d'impression ..." à Sanson de Pongerville, 1839-05-30, https://constance-de-salm.de/archiv/#/document/8039 #onthisday</t>
+          <t>»Je ne sais, Monsieur et Madame, si en lisant ma notice, vous avez remarqué deux de ces fautes d'impression ...« à Sanson de Pongerville, 1839-05-30, https://constance-de-salm.de/archiv/#/document/8039 #onthisday</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1786,17 +1786,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2029-5-31</t>
+          <t>2029-05-31</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09:07:31</t>
+          <t>15:33:39</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Je vous prie, très aimable dame, de bien vouloir remettre à la personne qui vous portera ce billet ..." à Waldor, 1839-05-31, https://constance-de-salm.de/archiv/#/document/8040 #onthisday</t>
+          <t>»Je vous prie, très aimable dame, de bien vouloir remettre à la personne qui vous portera ce billet ...« à Waldor, 1839-05-31, https://constance-de-salm.de/archiv/#/document/8040 #onthisday</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1813,17 +1813,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2029-6-1</t>
+          <t>2029-06-01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12:48:34</t>
+          <t>12:33:16</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"On m'écrit, Monsieur, que vous êtes malade, et quoique je ne me porte guère bien non plus, je veux me rappeler à votre si bon souvenir ..." à Gohier, 1830-06-01, https://constance-de-salm.de/archiv/#/document/5169 #onthisday</t>
+          <t>»On m'écrit, Monsieur, que vous êtes malade, et quoique je ne me porte guère bien non plus, je veux me rappeler à votre si bon souvenir ...« à Gohier, 1830-06-01, https://constance-de-salm.de/archiv/#/document/5169 #onthisday</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1840,17 +1840,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2029-6-1</t>
+          <t>2029-06-01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12:33:06</t>
+          <t>15:29:35</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"On m'écrit, Monsieur, que vous êtes malade, et quoique je ne me porte guère bien non plus, je veux me rappeler à votre si bon souvenir ..." à Gohier, 1830-06-01, https://constance-de-salm.de/archiv/#/document/10483 #onthisday</t>
+          <t>»On m'écrit, Monsieur, que vous êtes malade, et quoique je ne me porte guère bien non plus, je veux me rappeler à votre si bon souvenir ...« à Gohier, 1830-06-01, https://constance-de-salm.de/archiv/#/document/10483 #onthisday</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2029-6-2</t>
+          <t>2029-06-02</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15:04:15</t>
+          <t>18:35:42</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Je m'empresse, Madame, de vous offrir mes „Soixante ans“ que je fais enfin paraître ..." à Vien, 1833-06-02, https://constance-de-salm.de/archiv/#/document/5272 #onthisday</t>
+          <t>»Je m'empresse, Madame, de vous offrir mes „Soixante ans“ que je fais enfin paraître ...« à Vien, 1833-06-02, https://constance-de-salm.de/archiv/#/document/5272 #onthisday</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1894,17 +1894,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2029-6-3</t>
+          <t>2029-06-03</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19:31:37</t>
+          <t>09:45:56</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Plusieurs de mes amis n'ayant pu se trouver à ma dernière réunion je me suis décidée, Monsieur, quioque mon départ soit très prochain ..." à O'Sullivan, 1837-06-03, https://constance-de-salm.de/archiv/#/document/7780 #onthisday</t>
+          <t>»Plusieurs de mes amis n'ayant pu se trouver à ma dernière réunion je me suis décidée, Monsieur, quioque mon départ soit très prochain ...« à O'Sullivan, 1837-06-03, https://constance-de-salm.de/archiv/#/document/7780 #onthisday</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1921,17 +1921,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2029-6-3</t>
+          <t>2029-06-03</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16:01:07</t>
+          <t>11:40:06</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Je viens de recevoir ma notice, Monsieur, je vous remercie de me l'avoir renvoyée, et aussi de m'avoir ..." à Montémont, 1839-06-03, https://constance-de-salm.de/archiv/#/document/8046 #onthisday</t>
+          <t>»Je viens de recevoir ma notice, Monsieur, je vous remercie de me l'avoir renvoyée, et aussi de m'avoir ...« à Montémont, 1839-06-03, https://constance-de-salm.de/archiv/#/document/8046 #onthisday</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1948,17 +1948,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2029-6-5</t>
+          <t>2029-06-05</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>19:21:22</t>
+          <t>13:10:28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre lettre, Madame, et je l'ai lue avec une surprise qu'il me serait difficile de vous faire comprendre ..." à Dauriat, 1834-06-05, https://constance-de-salm.de/archiv/#/document/5536 #onthisday</t>
+          <t>»J'ai reçu hier votre lettre, Madame, et je l'ai lue avec une surprise qu'il me serait difficile de vous faire comprendre ...« à Dauriat, 1834-06-05, https://constance-de-salm.de/archiv/#/document/5536 #onthisday</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1975,17 +1975,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2029-6-6</t>
+          <t>2029-06-06</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>19:50:05</t>
+          <t>19:02:30</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Mon frère est ici pour quelques jours, Monsieur, et ami, il dîne aujourd'hui avec nous ..." à Duval, 1837-06-06, https://constance-de-salm.de/archiv/#/document/10848 #onthisday</t>
+          <t>»Mon frère est ici pour quelques jours, Monsieur, et ami, il dîne aujourd'hui avec nous ...« à Duval, 1837-06-06, https://constance-de-salm.de/archiv/#/document/10848 #onthisday</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2002,17 +2002,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2029-6-7</t>
+          <t>2029-06-07</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16:03:18</t>
+          <t>16:27:33</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Toutes réflexions faites, Monsieur, je vous prie de ne pas annoncer encore à l'Athénée la petite pièce dont je vous ai parlé hier ..." à Paillet, 1834-06-07, https://constance-de-salm.de/archiv/#/document/5571 #onthisday</t>
+          <t>»Toutes réflexions faites, Monsieur, je vous prie de ne pas annoncer encore à l'Athénée la petite pièce dont je vous ai parlé hier ...« à Paillet, 1834-06-07, https://constance-de-salm.de/archiv/#/document/5571 #onthisday</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2029,17 +2029,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2029-6-7</t>
+          <t>2029-06-07</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10:42:29</t>
+          <t>13:02:09</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Après que vous avez été parti hier, Monsieur et ancien ami, j’ai pensé que j'avais oublié ..." à Duval, 1838-06-07, https://constance-de-salm.de/archiv/#/document/10859 #onthisday</t>
+          <t>»Après que vous avez été parti hier, Monsieur et ancien ami, j’ai pensé que j'avais oublié ...« à Duval, 1838-06-07, https://constance-de-salm.de/archiv/#/document/10859 #onthisday</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2056,17 +2056,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2029-6-8</t>
+          <t>2029-06-08</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11:55:58</t>
+          <t>17:56:39</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Votre bonne petite lettre que j'ai reçue ces jours-ci, mon ancienne amie, m'a fait un bien grand plaisir ..." à Salis, 1841-06-08, https://constance-de-salm.de/archiv/#/document/7430 #onthisday</t>
+          <t>»Votre bonne petite lettre que j'ai reçue ces jours-ci, mon ancienne amie, m'a fait un bien grand plaisir ...« à Salis, 1841-06-08, https://constance-de-salm.de/archiv/#/document/7430 #onthisday</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2083,17 +2083,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2029-6-9</t>
+          <t>2029-06-09</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15:03:31</t>
+          <t>14:56:06</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Je n'ai pu, depuis mardi dernier, vous écrire au moins un mot ..." à Waldor, 1837-06-09, https://constance-de-salm.de/archiv/#/document/7781 #onthisday</t>
+          <t>»Je n'ai pu, depuis mardi dernier, vous écrire au moins un mot ...« à Waldor, 1837-06-09, https://constance-de-salm.de/archiv/#/document/7781 #onthisday</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2110,17 +2110,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2029-6-10</t>
+          <t>2029-06-10</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15:09:39</t>
+          <t>11:42:37</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Je n'entends pas parler de toi, cher frère (au moins par toi), tu attends que je t'écrives pour me donner de tes nouvelles ..." à Théis, 1841-06-10, https://constance-de-salm.de/archiv/#/document/7431 #onthisday</t>
+          <t>»Je n'entends pas parler de toi, cher frère (au moins par toi), tu attends que je t'écrives pour me donner de tes nouvelles ...« à Théis, 1841-06-10, https://constance-de-salm.de/archiv/#/document/7431 #onthisday</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2029-6-11</t>
+          <t>2029-06-11</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10:03:58</t>
+          <t>19:37:48</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"J'ai aujourd'hui à dîner trois académiciens ..." à Tissot, 1833-06-11, https://constance-de-salm.de/archiv/#/document/5221 #onthisday</t>
+          <t>»J'ai aujourd'hui à dîner trois académiciens ...« à Tissot, 1833-06-11, https://constance-de-salm.de/archiv/#/document/5221 #onthisday</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2029-6-11</t>
+          <t>2029-06-11</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16:16:45</t>
+          <t>10:06:46</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Après avoir lu ta lettre que j'ai reçue hier, cher frère, je me suis hâtée ..." à Théis, 1838-06-11, https://constance-de-salm.de/archiv/#/document/7918 #onthisday</t>
+          <t>»Après avoir lu ta lettre que j'ai reçue hier, cher frère, je me suis hâtée ...« à Théis, 1838-06-11, https://constance-de-salm.de/archiv/#/document/7918 #onthisday</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2191,17 +2191,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2029-6-12</t>
+          <t>2029-06-12</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>19:51:20</t>
+          <t>11:16:55</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"J'avais hier la tête si remplie de fâcheuses contradictions que je n'ai pas pensé, très aimable dame, à vous parler ..." à Waldor, 1839-06-12, https://constance-de-salm.de/archiv/#/document/8051 #onthisday</t>
+          <t>»J'avais hier la tête si remplie de fâcheuses contradictions que je n'ai pas pensé, très aimable dame, à vous parler ...« à Waldor, 1839-06-12, https://constance-de-salm.de/archiv/#/document/8051 #onthisday</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2218,17 +2218,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2029-6-13</t>
+          <t>2029-06-13</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>17:13:35</t>
+          <t>18:01:21</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Je m'empresse de vous dire, Monsieur et ancien ami, que votre frère Alexandre est venu me voir ..." à Duval, 1838-06-13, https://constance-de-salm.de/archiv/#/document/7919 #onthisday</t>
+          <t>»Je m'empresse de vous dire, Monsieur et ancien ami, que votre frère Alexandre est venu me voir ...« à Duval, 1838-06-13, https://constance-de-salm.de/archiv/#/document/7919 #onthisday</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2245,17 +2245,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2029-6-14</t>
+          <t>2029-06-14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10:08:00</t>
+          <t>10:45:46</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Ne sachant quand j'aurai le plaisir de vous voir, Monsieur et Madame, je vous écris ..." à Sanson de Pongerville, 1838-06-14, https://constance-de-salm.de/archiv/#/document/7922 #onthisday</t>
+          <t>»Ne sachant quand j'aurai le plaisir de vous voir, Monsieur et Madame, je vous écris ...« à Sanson de Pongerville, 1838-06-14, https://constance-de-salm.de/archiv/#/document/7922 #onthisday</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2029-6-16</t>
+          <t>2029-06-16</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>19:25:51</t>
+          <t>19:14:18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Depuis trois mois, mon ancienne amie, j’ai été tellement accablée par la douleur, les regrets, les tristes souvenirs ..." à Salis, 1835-06-16, https://constance-de-salm.de/archiv/#/document/10358 #onthisday</t>
+          <t>»Depuis trois mois, mon ancienne amie, j’ai été tellement accablée par la douleur, les regrets, les tristes souvenirs ...« à Salis, 1835-06-16, https://constance-de-salm.de/archiv/#/document/10358 #onthisday</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2299,17 +2299,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2029-6-17</t>
+          <t>2029-06-17</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14:17:32</t>
+          <t>14:28:31</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, les vers que vous m'avez envoyés ..." à Beuchot, 1838-06-17, https://constance-de-salm.de/archiv/#/document/7923 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, les vers que vous m'avez envoyés ...« à Beuchot, 1838-06-17, https://constance-de-salm.de/archiv/#/document/7923 #onthisday</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2326,17 +2326,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2029-6-18</t>
+          <t>2029-06-18</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16:04:29</t>
+          <t>12:28:40</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Mon petit-fils Constant vous remettra, Monsieur, avec ce billet un ouvrage que je viens de faire paraître ..." à Berville, 1833-06-18, https://constance-de-salm.de/archiv/#/document/5229 #onthisday</t>
+          <t>»Mon petit-fils Constant vous remettra, Monsieur, avec ce billet un ouvrage que je viens de faire paraître ...« à Berville, 1833-06-18, https://constance-de-salm.de/archiv/#/document/5229 #onthisday</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2353,17 +2353,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2029-6-19</t>
+          <t>2029-06-19</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13:34:47</t>
+          <t>18:09:56</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant votre épître, Monsieur, et je ne veux pas attendre à ce soir pour vous dire ..." à Villenave, 1841-06-19, https://constance-de-salm.de/archiv/#/document/7434 #onthisday</t>
+          <t>»Je reçois à l'instant votre épître, Monsieur, et je ne veux pas attendre à ce soir pour vous dire ...« à Villenave, 1841-06-19, https://constance-de-salm.de/archiv/#/document/7434 #onthisday</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2380,17 +2380,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2029-6-20</t>
+          <t>2029-06-20</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>17:52:20</t>
+          <t>10:30:29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Je me reprochais depuis quelque temps, Monsieur le baron, de n’avoir pas encore répondu ..." à Ladoucette, 1829-06-20, https://constance-de-salm.de/archiv/#/document/9395 #onthisday</t>
+          <t>»Je me reprochais depuis quelque temps, Monsieur le baron, de n’avoir pas encore répondu ...« à Ladoucette, 1829-06-20, https://constance-de-salm.de/archiv/#/document/9395 #onthisday</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2407,17 +2407,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2029-6-22</t>
+          <t>2029-06-22</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16:52:31</t>
+          <t>08:24:43</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"J'ai été si souffrante et si occupée depuis que j'ai reçu votre toute aimable lettre, Madame et amie ..." à Salis, 1833-06-22, https://constance-de-salm.de/archiv/#/document/10354 #onthisday</t>
+          <t>»J'ai été si souffrante et si occupée depuis que j'ai reçu votre toute aimable lettre, Madame et amie ...« à Salis, 1833-06-22, https://constance-de-salm.de/archiv/#/document/10354 #onthisday</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2029-6-23</t>
+          <t>2029-06-23</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>19:31:00</t>
+          <t>08:16:38</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm, qui va bientôt partir pour l'Allemagne, engage Monsieur Bonafous à venir la voir ..." à Bonafous, 1840-06-23, https://constance-de-salm.de/archiv/#/document/8205 #onthisday</t>
+          <t>»La Princesse de Salm, qui va bientôt partir pour l'Allemagne, engage Monsieur Bonafous à venir la voir ...« à Bonafous, 1840-06-23, https://constance-de-salm.de/archiv/#/document/8205 #onthisday</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2029-6-24</t>
+          <t>2029-06-24</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>19:13:55</t>
+          <t>10:03:17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Veuillez me dire, Monsieur le baron, si vous avez pleinement réussi dans votre petite négociation? ..." à Ladoucette, 1831-06-24, https://constance-de-salm.de/archiv/#/document/9506 #onthisday</t>
+          <t>»Veuillez me dire, Monsieur le baron, si vous avez pleinement réussi dans votre petite négociation? ...« à Ladoucette, 1831-06-24, https://constance-de-salm.de/archiv/#/document/9506 #onthisday</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2488,17 +2488,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2029-6-24</t>
+          <t>2029-06-24</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>08:17:22</t>
+          <t>16:54:13</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"J’ai reçu au moment de mon départ, Monsieur, la lettre par laquelle vous m’annonciez l’avancement que vous veniez d’obtenir; ..." à Montémont, 1836-06-24, https://constance-de-salm.de/archiv/#/document/9776 #onthisday</t>
+          <t>»J’ai reçu au moment de mon départ, Monsieur, la lettre par laquelle vous m’annonciez l’avancement que vous veniez d’obtenir; ...« à Montémont, 1836-06-24, https://constance-de-salm.de/archiv/#/document/9776 #onthisday</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2515,17 +2515,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2029-6-25</t>
+          <t>2029-06-25</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>09:25:13</t>
+          <t>08:10:11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m’a écrit qu’il vous avait vu, Monsieur et Madame; ..." à Mirault, 1836-06-25, https://constance-de-salm.de/archiv/#/document/9802 #onthisday</t>
+          <t>»Monsieur Drais m’a écrit qu’il vous avait vu, Monsieur et Madame; ...« à Mirault, 1836-06-25, https://constance-de-salm.de/archiv/#/document/9802 #onthisday</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,17 +2542,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2029-6-25</t>
+          <t>2029-06-25</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16:52:12</t>
+          <t>11:34:58</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"J’espérais tous ces jours-ci recevoir la lettre dont vous m’avez parlé à Paris ..." à Jullien de Paris, 1836-06-25, https://constance-de-salm.de/archiv/#/document/9803 #onthisday</t>
+          <t>»J’espérais tous ces jours-ci recevoir la lettre dont vous m’avez parlé à Paris ...« à Jullien de Paris, 1836-06-25, https://constance-de-salm.de/archiv/#/document/9803 #onthisday</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2569,17 +2569,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2029-6-26</t>
+          <t>2029-06-26</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>18:18:08</t>
+          <t>11:56:29</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Madame, que je me propose de vous dire combien j’ai été touchée ..." à Paganel, 1835-06-26, https://constance-de-salm.de/archiv/#/document/9621 #onthisday</t>
+          <t>»Il y a bien longtemps, Madame, que je me propose de vous dire combien j’ai été touchée ...« à Paganel, 1835-06-26, https://constance-de-salm.de/archiv/#/document/9621 #onthisday</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2596,17 +2596,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2029-6-27</t>
+          <t>2029-06-27</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>18:16:12</t>
+          <t>16:46:40</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Depuis que j'ai reçu votre lettre, Madame, j'ai été si souffrante, et en même temps, si occupée d'un ouvrage ..." à Niboyet, 1837-06-27, https://constance-de-salm.de/archiv/#/document/7789 #onthisday</t>
+          <t>»Depuis que j'ai reçu votre lettre, Madame, j'ai été si souffrante, et en même temps, si occupée d'un ouvrage ...« à Niboyet, 1837-06-27, https://constance-de-salm.de/archiv/#/document/7789 #onthisday</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2623,17 +2623,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2029-6-28</t>
+          <t>2029-06-28</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>15:44:01</t>
+          <t>18:38:16</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Vous me croyez toute occupée de mon départ, Monsieur, il est bien vrai que j'y pense ..." à Villenave, 1837-06-28, https://constance-de-salm.de/archiv/#/document/7792 #onthisday</t>
+          <t>»Vous me croyez toute occupée de mon départ, Monsieur, il est bien vrai que j'y pense ...« à Villenave, 1837-06-28, https://constance-de-salm.de/archiv/#/document/7792 #onthisday</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2650,17 +2650,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2029-6-29</t>
+          <t>2029-06-29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>14:14:05</t>
+          <t>08:58:56</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps, Monsieur, que j'ai reçu votre excellent ouvrage sur le Mexique ..." à Beltrami, 1834-06-29, https://constance-de-salm.de/archiv/#/document/5575 #onthisday</t>
+          <t>»Il y a déjà quelque temps, Monsieur, que j'ai reçu votre excellent ouvrage sur le Mexique ...« à Beltrami, 1834-06-29, https://constance-de-salm.de/archiv/#/document/5575 #onthisday</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2677,17 +2677,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2029-6-29</t>
+          <t>2029-06-29</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>18:51:25</t>
+          <t>16:55:51</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Depuis 3 mois, Monsieur, j’ai bien souvent pensé à vous écrire et à adoucir mes peines ..." à Raboteau, 1835-06-29, https://constance-de-salm.de/archiv/#/document/9622 #onthisday</t>
+          <t>»Depuis 3 mois, Monsieur, j’ai bien souvent pensé à vous écrire et à adoucir mes peines ...« à Raboteau, 1835-06-29, https://constance-de-salm.de/archiv/#/document/9622 #onthisday</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2704,17 +2704,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2029-6-30</t>
+          <t>2029-06-30</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>12:26:43</t>
+          <t>16:42:51</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"J'envoie savoir des nouvelles de Madame de Ladoucette, je l'engage à venir me voir ..." à Plancy, 1840-06-30, https://constance-de-salm.de/archiv/#/document/8210 #onthisday</t>
+          <t>»J'envoie savoir des nouvelles de Madame de Ladoucette, je l'engage à venir me voir ...« à Plancy, 1840-06-30, https://constance-de-salm.de/archiv/#/document/8210 #onthisday</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2029-7-1</t>
+          <t>2029-07-01</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>18:41:01</t>
+          <t>18:15:19</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Si par hasard, Monsieur Jomard était libre aujourd'hui, je viens d'arranger ..." à Jomard, 1840-07-01, https://constance-de-salm.de/archiv/#/document/8211 #onthisday</t>
+          <t>»Si par hasard, Monsieur Jomard était libre aujourd'hui, je viens d'arranger ...« à Jomard, 1840-07-01, https://constance-de-salm.de/archiv/#/document/8211 #onthisday</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2029-7-2</t>
+          <t>2029-07-02</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08:26:19</t>
+          <t>08:27:37</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier au soir, Monsieur, vos tablettes romaines, et je m'empresse de vous en remercier ..." à Châtelain, 1839-07-02, https://constance-de-salm.de/archiv/#/document/8063 #onthisday</t>
+          <t>»J'ai reçu hier au soir, Monsieur, vos tablettes romaines, et je m'empresse de vous en remercier ...« à Châtelain, 1839-07-02, https://constance-de-salm.de/archiv/#/document/8063 #onthisday</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2785,17 +2785,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2029-7-2</t>
+          <t>2029-07-02</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>13:35:28</t>
+          <t>19:14:45</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Je suis aujourd'hui si malade, si accablée, qu'il m'est bien impossible de m'occuper de mes préparatifs ..." à Ladoucette, 1839-07-02, https://constance-de-salm.de/archiv/#/document/8062 #onthisday</t>
+          <t>»Je suis aujourd'hui si malade, si accablée, qu'il m'est bien impossible de m'occuper de mes préparatifs ...« à Ladoucette, 1839-07-02, https://constance-de-salm.de/archiv/#/document/8062 #onthisday</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2029-7-3</t>
+          <t>2029-07-03</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10:31:50</t>
+          <t>09:56:11</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Je crois me rappeler que Monsieur de Jussieu m'a dit qu'il n'était point libre le dimanche, le lundi, ni le mardi ..." à Jussieu, 1841-07-03, https://constance-de-salm.de/archiv/#/document/7445 #onthisday</t>
+          <t>»Je crois me rappeler que Monsieur de Jussieu m'a dit qu'il n'était point libre le dimanche, le lundi, ni le mardi ...« à Jussieu, 1841-07-03, https://constance-de-salm.de/archiv/#/document/7445 #onthisday</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2839,17 +2839,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2029-7-4</t>
+          <t>2029-07-04</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:11:47</t>
+          <t>15:45:24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Je n’entends pas parler de toi, cher frère, je ne comprends pas ..." à Théis, 1840-07-04, https://constance-de-salm.de/archiv/#/document/10941 #onthisday</t>
+          <t>»Je n’entends pas parler de toi, cher frère, je ne comprends pas ...« à Théis, 1840-07-04, https://constance-de-salm.de/archiv/#/document/10941 #onthisday</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2029-7-8</t>
+          <t>2029-07-08</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>15:05:12</t>
+          <t>10:43:30</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Votre lettre que j'ai reçu il y a 15 jours, mon ancien [sic] amie, m'a fort touchée, et elle m'aurait fait ..." à Salis, 1840-07-08, https://constance-de-salm.de/archiv/#/document/10373 #onthisday</t>
+          <t>»Votre lettre que j'ai reçu il y a 15 jours, mon ancien [sic] amie, m'a fort touchée, et elle m'aurait fait ...« à Salis, 1840-07-08, https://constance-de-salm.de/archiv/#/document/10373 #onthisday</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2893,17 +2893,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2029-7-9</t>
+          <t>2029-07-09</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>14:16:09</t>
+          <t>13:05:58</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Je veux vous dire moi-même, ma chère amie, que je suis arrivée ici ..." à Leroy de Bacre, 1836-07-09, https://constance-de-salm.de/archiv/#/document/9816 #onthisday</t>
+          <t>»Je veux vous dire moi-même, ma chère amie, que je suis arrivée ici ...« à Leroy de Bacre, 1836-07-09, https://constance-de-salm.de/archiv/#/document/9816 #onthisday</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2920,17 +2920,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2029-7-11</t>
+          <t>2029-07-11</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>12:49:32</t>
+          <t>10:55:32</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Je dois partir à la fin de la semaine prochaine. Je désire beaucoup que Monsieur Ramey puisse venir me voir ..." à Ramey, 1839-07-11, https://constance-de-salm.de/archiv/#/document/8417 #onthisday</t>
+          <t>»Je dois partir à la fin de la semaine prochaine. Je désire beaucoup que Monsieur Ramey puisse venir me voir ...« à Ramey, 1839-07-11, https://constance-de-salm.de/archiv/#/document/8417 #onthisday</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2947,17 +2947,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2029-7-12</t>
+          <t>2029-07-12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>12:02:52</t>
+          <t>12:16:48</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur et véritable ami, une petite lettre pour Monsieur Lesur ..." à Barbier, 1821-07-12, https://constance-de-salm.de/archiv/#/document/4660 #onthisday</t>
+          <t>»Voici, Monsieur et véritable ami, une petite lettre pour Monsieur Lesur ...« à Barbier, 1821-07-12, https://constance-de-salm.de/archiv/#/document/4660 #onthisday</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2974,17 +2974,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2029-7-12</t>
+          <t>2029-07-12</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11:53:11</t>
+          <t>10:49:54</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Que voilà de temps, Monsieur et ancien ami, que je me propose de vous écrire; ..." à Raboteau, 1822-07-12, https://constance-de-salm.de/archiv/#/document/4862 #onthisday</t>
+          <t>»Que voilà de temps, Monsieur et ancien ami, que je me propose de vous écrire; ...« à Raboteau, 1822-07-12, https://constance-de-salm.de/archiv/#/document/4862 #onthisday</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3001,17 +3001,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2029-7-13</t>
+          <t>2029-07-13</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>10:04:10</t>
+          <t>18:45:30</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Mille remerciements de votre note, Monsieur; je regrette beaucoup de ne pas l'avoir eue plus tôt ..." à Boulay de la Meurthe, 1839-07-13, https://constance-de-salm.de/archiv/#/document/8071 #onthisday</t>
+          <t>»Mille remerciements de votre note, Monsieur; je regrette beaucoup de ne pas l'avoir eue plus tôt ...« à Boulay de la Meurthe, 1839-07-13, https://constance-de-salm.de/archiv/#/document/8071 #onthisday</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3028,17 +3028,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2029-7-14</t>
+          <t>2029-07-14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16:14:04</t>
+          <t>08:20:02</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Nous nous sommes bien peu vues cet hiver, Mademoiselle; ..." à Sobry, 1836-07-14, https://constance-de-salm.de/archiv/#/document/9821 #onthisday</t>
+          <t>»Nous nous sommes bien peu vues cet hiver, Mademoiselle; ...« à Sobry, 1836-07-14, https://constance-de-salm.de/archiv/#/document/9821 #onthisday</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2029-7-15</t>
+          <t>2029-07-15</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16:49:27</t>
+          <t>12:04:22</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre lettre numéro 2, Monsieur, et je me hâte de vous répondre ..." à Jullien de Paris, 1836-07-15, https://constance-de-salm.de/archiv/#/document/9823 #onthisday</t>
+          <t>»J’ai reçu hier votre lettre numéro 2, Monsieur, et je me hâte de vous répondre ...« à Jullien de Paris, 1836-07-15, https://constance-de-salm.de/archiv/#/document/9823 #onthisday</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3082,17 +3082,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2029-7-16</t>
+          <t>2029-07-16</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>12:28:37</t>
+          <t>14:31:09</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Me voilà dans tous mes embarras de départ, Monsieur, j'aurai à peine le temps, ce matin ..." à Villenave, 1838-07-16, https://constance-de-salm.de/archiv/#/document/7930 #onthisday</t>
+          <t>»Me voilà dans tous mes embarras de départ, Monsieur, j'aurai à peine le temps, ce matin ...« à Villenave, 1838-07-16, https://constance-de-salm.de/archiv/#/document/7930 #onthisday</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3109,17 +3109,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2029-7-17</t>
+          <t>2029-07-17</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>09:12:24</t>
+          <t>16:53:37</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"J'apprends avec beaucoup de peine, Monsieur, que vous avez été malade ..." à Boucharlat, 1839-07-17, https://constance-de-salm.de/archiv/#/document/8074 #onthisday</t>
+          <t>»J'apprends avec beaucoup de peine, Monsieur, que vous avez été malade ...« à Boucharlat, 1839-07-17, https://constance-de-salm.de/archiv/#/document/8074 #onthisday</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3136,17 +3136,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2029-7-18</t>
+          <t>2029-07-18</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>17:33:28</t>
+          <t>09:56:58</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Mon départ est encore retardé, mon très cher général et beau frère; j'attends demain une lettre de mon mari ..." à Saint-Mars, 1840-07-18, https://constance-de-salm.de/archiv/#/document/8226 #onthisday</t>
+          <t>»Mon départ est encore retardé, mon très cher général et beau frère; j'attends demain une lettre de mon mari ...« à Saint-Mars, 1840-07-18, https://constance-de-salm.de/archiv/#/document/8226 #onthisday</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3163,17 +3163,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2029-7-19</t>
+          <t>2029-07-19</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>08:10:07</t>
+          <t>09:43:05</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Mon mari est encore à Düsseldorf, mon cher voisin ..." à Maison, 1837-07-19, https://constance-de-salm.de/archiv/#/document/7810 #onthisday</t>
+          <t>»Mon mari est encore à Düsseldorf, mon cher voisin ...« à Maison, 1837-07-19, https://constance-de-salm.de/archiv/#/document/7810 #onthisday</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3190,17 +3190,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2029-7-20</t>
+          <t>2029-07-20</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>14:41:23</t>
+          <t>10:32:02</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Vous aurez été bien étonné, mon ancien ami, de n'avoir plus entendu parler de moi; ..." à Andrieux, 1831-07-20, https://constance-de-salm.de/archiv/#/document/6520 #onthisday</t>
+          <t>»Vous aurez été bien étonné, mon ancien ami, de n'avoir plus entendu parler de moi; ...« à Andrieux, 1831-07-20, https://constance-de-salm.de/archiv/#/document/6520 #onthisday</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3217,17 +3217,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2029-7-20</t>
+          <t>2029-07-20</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>19:35:14</t>
+          <t>15:00:16</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Je pars demain matin à 4h, Madame, et je ne veux point quitter Paris sans vous remercier ..." à Babois, 1831-07-20, https://constance-de-salm.de/archiv/#/document/6523 #onthisday</t>
+          <t>»Je pars demain matin à 4h, Madame, et je ne veux point quitter Paris sans vous remercier ...« à Babois, 1831-07-20, https://constance-de-salm.de/archiv/#/document/6523 #onthisday</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3244,17 +3244,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2029-7-22</t>
+          <t>2029-07-22</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>11:07:09</t>
+          <t>16:20:42</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que j'ai reçu votre bonne lettre, ma chère amie ..." à Naigeon, 1838-07-22, https://constance-de-salm.de/archiv/#/document/7937 #onthisday</t>
+          <t>»Il y a bien longtemps que j'ai reçu votre bonne lettre, ma chère amie ...« à Naigeon, 1838-07-22, https://constance-de-salm.de/archiv/#/document/7937 #onthisday</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3271,17 +3271,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2029-7-22</t>
+          <t>2029-07-22</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16:46:20</t>
+          <t>09:04:46</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Je retourne dans deux jours à Dyck, mon ancienne amie, et je ne veux pas quitter Paris sans vous en prévenir ..." à Salis, 1838-07-22, https://constance-de-salm.de/archiv/#/document/10370 #onthisday</t>
+          <t>»Je retourne dans deux jours à Dyck, mon ancienne amie, et je ne veux pas quitter Paris sans vous en prévenir ...« à Salis, 1838-07-22, https://constance-de-salm.de/archiv/#/document/10370 #onthisday</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3298,17 +3298,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2029-7-23</t>
+          <t>2029-07-23</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>08:55:48</t>
+          <t>11:58:43</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Mes 20 ex[emplaires] sont épuisés, Monsieur; c'est-à-dire il ne m'en reste plus qu'un ..." à Villenave, 1841-07-23, https://constance-de-salm.de/archiv/#/document/7454 #onthisday</t>
+          <t>»Mes 20 ex[emplaires] sont épuisés, Monsieur; c'est-à-dire il ne m'en reste plus qu'un ...« à Villenave, 1841-07-23, https://constance-de-salm.de/archiv/#/document/7454 #onthisday</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3325,17 +3325,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2029-7-25</t>
+          <t>2029-07-25</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>08:15:10</t>
+          <t>16:53:49</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de vous, Monsieur, et je m’en inquiète ..." à Pailliet, 1827-07-25, https://constance-de-salm.de/archiv/#/document/11369 #onthisday</t>
+          <t>»Je n’entends point parler de vous, Monsieur, et je m’en inquiète ...« à Pailliet, 1827-07-25, https://constance-de-salm.de/archiv/#/document/11369 #onthisday</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3352,17 +3352,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2029-7-26</t>
+          <t>2029-07-26</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>09:20:55</t>
+          <t>19:57:46</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Je pars dans quelques jours, Madame et ancienne amie, et je ne puis me résoudre à quitter Paris ..." à Gay, 1839-07-26, https://constance-de-salm.de/archiv/#/document/8080 #onthisday</t>
+          <t>»Je pars dans quelques jours, Madame et ancienne amie, et je ne puis me résoudre à quitter Paris ...« à Gay, 1839-07-26, https://constance-de-salm.de/archiv/#/document/8080 #onthisday</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3379,17 +3379,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2029-7-26</t>
+          <t>2029-07-26</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>12:19:10</t>
+          <t>13:30:23</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Je vous prie, Monsieur, de passer ce matin chez Monsieur Depping, et de l'engager, ainsi que Madame, à venir ..." à Drais, 1841-07-26, https://constance-de-salm.de/archiv/#/document/7456 #onthisday</t>
+          <t>»Je vous prie, Monsieur, de passer ce matin chez Monsieur Depping, et de l'engager, ainsi que Madame, à venir ...« à Drais, 1841-07-26, https://constance-de-salm.de/archiv/#/document/7456 #onthisday</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3406,17 +3406,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2029-7-27</t>
+          <t>2029-07-27</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>08:32:45</t>
+          <t>17:10:01</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Je veux t'apprendre, cher frère, que je suis ici depuis huit à dix jours ..." à Théis, 1837-07-27, https://constance-de-salm.de/archiv/#/document/7814 #onthisday</t>
+          <t>»Je veux t'apprendre, cher frère, que je suis ici depuis huit à dix jours ...« à Théis, 1837-07-27, https://constance-de-salm.de/archiv/#/document/7814 #onthisday</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3433,17 +3433,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2029-7-29</t>
+          <t>2029-07-29</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>09:10:30</t>
+          <t>10:12:21</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Je reçois, à l'instant, votre bonne et excellente lettre, très aimable dame, et je veux vous répondre ..." à Waldor, 1841-07-29, https://constance-de-salm.de/archiv/#/document/7453 #onthisday</t>
+          <t>»Je reçois, à l'instant, votre bonne et excellente lettre, très aimable dame, et je veux vous répondre ...« à Waldor, 1841-07-29, https://constance-de-salm.de/archiv/#/document/7453 #onthisday</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2029-7-30</t>
+          <t>2029-07-30</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>12:06:05</t>
+          <t>12:44:18</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Je ne suis de retour à Dyck que depuis deux jours, Monsieur, j'y ai trouvé la lettre par laquelle vous m'annoncez ..." à Trosdorff, 1840-07-30, https://constance-de-salm.de/archiv/#/document/8232 #onthisday</t>
+          <t>»Je ne suis de retour à Dyck que depuis deux jours, Monsieur, j'y ai trouvé la lettre par laquelle vous m'annoncez ...« à Trosdorff, 1840-07-30, https://constance-de-salm.de/archiv/#/document/8232 #onthisday</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3487,17 +3487,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2029-7-31</t>
+          <t>2029-07-31</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>15:50:16</t>
+          <t>14:02:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"J'ai reçu, il y a déjà quelques jours, Monsieur, votre toute aimable lettre, mais je suis accablée de tant d'embarras ..." à Sanson de Pongerville, 1841-07-31, https://constance-de-salm.de/archiv/#/document/7458 #onthisday</t>
+          <t>»J'ai reçu, il y a déjà quelques jours, Monsieur, votre toute aimable lettre, mais je suis accablée de tant d'embarras ...« à Sanson de Pongerville, 1841-07-31, https://constance-de-salm.de/archiv/#/document/7458 #onthisday</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3514,17 +3514,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2029-8-1</t>
+          <t>2029-08-01</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>08:44:31</t>
+          <t>11:09:32</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>"Monsieur Funcke, qui a été à Aix la Chapelle, il y a quelque temps, ma bien chère voisine et amie, y a rencontré ..." à Hompesch, 1836-08-01, https://constance-de-salm.de/archiv/#/document/9827 #onthisday</t>
+          <t>»Monsieur Funcke, qui a été à Aix la Chapelle, il y a quelque temps, ma bien chère voisine et amie, y a rencontré ...« à Hompesch, 1836-08-01, https://constance-de-salm.de/archiv/#/document/9827 #onthisday</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3541,17 +3541,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2029-8-2</t>
+          <t>2029-08-02</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>18:08:48</t>
+          <t>09:48:38</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>"Je viens d'écrire à Madame votre fille, Monsieur, et je veux aussi jaser un moment avec vous ..." à Villenave, 1832-08-02, https://constance-de-salm.de/archiv/#/document/5415 #onthisday</t>
+          <t>»Je viens d'écrire à Madame votre fille, Monsieur, et je veux aussi jaser un moment avec vous ...« à Villenave, 1832-08-02, https://constance-de-salm.de/archiv/#/document/5415 #onthisday</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3568,17 +3568,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2029-8-3</t>
+          <t>2029-08-03</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>18:36:24</t>
+          <t>11:14:24</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>"Je n’entends point parler de vous, Monsieur et ancien ami: que devenez-vous donc? ..." à Duval, 1828-08-03, https://constance-de-salm.de/archiv/#/document/9216 #onthisday</t>
+          <t>»Je n’entends point parler de vous, Monsieur et ancien ami: que devenez-vous donc? ...« à Duval, 1828-08-03, https://constance-de-salm.de/archiv/#/document/9216 #onthisday</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3595,17 +3595,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2029-8-4</t>
+          <t>2029-08-04</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>12:25:33</t>
+          <t>18:11:03</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier votre lettre, Monsieur, je ne sais si vous êtes encore à Paris ..." à Châtelain, 1840-08-04, https://constance-de-salm.de/archiv/#/document/8233 #onthisday</t>
+          <t>»J'ai reçu hier votre lettre, Monsieur, je ne sais si vous êtes encore à Paris ...« à Châtelain, 1840-08-04, https://constance-de-salm.de/archiv/#/document/8233 #onthisday</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3622,17 +3622,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2029-8-5</t>
+          <t>2029-08-05</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>08:55:52</t>
+          <t>08:38:25</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>"Monsieur Jullien m'a écrit, Monsieur, qu'il vous avait vu et qu'il vous avait donné de mes nouvelles ..." à Châtelain, 1837-08-05, https://constance-de-salm.de/archiv/#/document/7817 #onthisday</t>
+          <t>»Monsieur Jullien m'a écrit, Monsieur, qu'il vous avait vu et qu'il vous avait donné de mes nouvelles ...« à Châtelain, 1837-08-05, https://constance-de-salm.de/archiv/#/document/7817 #onthisday</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3649,17 +3649,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2029-8-6</t>
+          <t>2029-08-06</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>09:17:56</t>
+          <t>18:39:23</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>"On me dit, ma chère cousine, que vous avez été en France et qu'on ne sait si vous êtes de retour ..." à Novakowsky, 1840-08-06, https://constance-de-salm.de/archiv/#/document/8234 #onthisday</t>
+          <t>»On me dit, ma chère cousine, que vous avez été en France et qu'on ne sait si vous êtes de retour ...« à Novakowsky, 1840-08-06, https://constance-de-salm.de/archiv/#/document/8234 #onthisday</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3676,17 +3676,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2029-8-7</t>
+          <t>2029-08-07</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>14:34:02</t>
+          <t>16:06:34</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, Monsieur, une lettre de Monsieur de la Doucette qui m'a un peu surprise ..." à Montémont, 1837-08-07, https://constance-de-salm.de/archiv/#/document/7819 #onthisday</t>
+          <t>»J'ai reçu hier, Monsieur, une lettre de Monsieur de la Doucette qui m'a un peu surprise ...« à Montémont, 1837-08-07, https://constance-de-salm.de/archiv/#/document/7819 #onthisday</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3703,17 +3703,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2029-8-8</t>
+          <t>2029-08-08</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>11:11:31</t>
+          <t>19:01:21</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Je vous ai vus si souvent, pendant ma longue maladie, Monsieur et Madame, que je veux vous annoncer moi-même ..." à Audiffret, 1839-08-08, https://constance-de-salm.de/archiv/#/document/8085 #onthisday</t>
+          <t>»Je vous ai vus si souvent, pendant ma longue maladie, Monsieur et Madame, que je veux vous annoncer moi-même ...« à Audiffret, 1839-08-08, https://constance-de-salm.de/archiv/#/document/8085 #onthisday</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3730,17 +3730,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2029-8-9</t>
+          <t>2029-08-09</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>13:38:39</t>
+          <t>08:31:32</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur, que vous appreniez par moi-même, qu'après cinq jours de route, qui m'ont ..." à Villenave, 1839-08-09, https://constance-de-salm.de/archiv/#/document/8089 #onthisday</t>
+          <t>»Je veux, Monsieur, que vous appreniez par moi-même, qu'après cinq jours de route, qui m'ont ...« à Villenave, 1839-08-09, https://constance-de-salm.de/archiv/#/document/8089 #onthisday</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3757,17 +3757,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2029-8-10</t>
+          <t>2029-08-10</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>17:03:26</t>
+          <t>11:46:33</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, je viens de revoir ma dernière épreuve, et mon premier soin, ma première pensée, est de répondre ..." à Villenave, 1841-08-10, https://constance-de-salm.de/archiv/#/document/7459 #onthisday</t>
+          <t>»Enfin, Monsieur, je viens de revoir ma dernière épreuve, et mon premier soin, ma première pensée, est de répondre ...« à Villenave, 1841-08-10, https://constance-de-salm.de/archiv/#/document/7459 #onthisday</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3784,17 +3784,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2029-8-11</t>
+          <t>2029-08-11</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>18:24:37</t>
+          <t>11:43:49</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que nous n'avons entendu parler l'une de l'autre, mon ancienne amie ..." à Salis, 1839-08-11, https://constance-de-salm.de/archiv/#/document/8090 #onthisday</t>
+          <t>»Il y a bien longtemps que nous n'avons entendu parler l'une de l'autre, mon ancienne amie ...« à Salis, 1839-08-11, https://constance-de-salm.de/archiv/#/document/8090 #onthisday</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3811,17 +3811,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2029-8-13</t>
+          <t>2029-08-13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>10:44:50</t>
+          <t>13:54:42</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>"Cher ami, je t’ai écrit hier ; mais j’ai encore plusieurs choses à t’apprendre aujourd’hui ; ..." à Salm-Reifferscheidt-Dyck, 1844-08-13, https://constance-de-salm.de/archiv/#/document/5369 #onthisday</t>
+          <t>»Cher ami, je t’ai écrit hier ; mais j’ai encore plusieurs choses à t’apprendre aujourd’hui ; ...« à Salm-Reifferscheidt-Dyck, 1844-08-13, https://constance-de-salm.de/archiv/#/document/5369 #onthisday</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3838,17 +3838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2029-8-14</t>
+          <t>2029-08-14</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>08:56:56</t>
+          <t>18:34:41</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur le baron, me rappeler à votre souvenir en vous envoyant un ouvrage ..." à Humboldt, 1833-08-14, https://constance-de-salm.de/archiv/#/document/5244 #onthisday</t>
+          <t>»Je veux, Monsieur le baron, me rappeler à votre souvenir en vous envoyant un ouvrage ...« à Humboldt, 1833-08-14, https://constance-de-salm.de/archiv/#/document/5244 #onthisday</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3865,17 +3865,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2029-8-15</t>
+          <t>2029-08-15</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>19:19:07</t>
+          <t>09:21:55</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>"Mon petit-fils Félix, qui est avec moi, Monsieur, a reçu votre lettre qui lui a été renvoyée de Paris ..." à Dournel de Bonnival, 1839-08-15, https://constance-de-salm.de/archiv/#/document/8092 #onthisday</t>
+          <t>»Mon petit-fils Félix, qui est avec moi, Monsieur, a reçu votre lettre qui lui a été renvoyée de Paris ...« à Dournel de Bonnival, 1839-08-15, https://constance-de-salm.de/archiv/#/document/8092 #onthisday</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3892,17 +3892,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2029-8-16</t>
+          <t>2029-08-16</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>08:50:24</t>
+          <t>17:25:37</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>"J'ai enfin reçu de tes nouvelles, cher frère; j'en attendais depuis que je suis ici ..." à Théis, 1840-08-16, https://constance-de-salm.de/archiv/#/document/8236 #onthisday</t>
+          <t>»J'ai enfin reçu de tes nouvelles, cher frère; j'en attendais depuis que je suis ici ...« à Théis, 1840-08-16, https://constance-de-salm.de/archiv/#/document/8236 #onthisday</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3919,17 +3919,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2029-8-17</t>
+          <t>2029-08-17</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>19:57:48</t>
+          <t>09:53:02</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>"La famille Villenave que vous avez vu [sic] sans doute depuis mon départ, ma chère amie, vous aura dit ce que j'avais chargé Monsieur Drais ..." à Vanhove, 1837-08-17, https://constance-de-salm.de/archiv/#/document/7825 #onthisday</t>
+          <t>»La famille Villenave que vous avez vu [sic] sans doute depuis mon départ, ma chère amie, vous aura dit ce que j'avais chargé Monsieur Drais ...« à Vanhove, 1837-08-17, https://constance-de-salm.de/archiv/#/document/7825 #onthisday</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3946,17 +3946,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2029-8-17</t>
+          <t>2029-08-17</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>12:31:29</t>
+          <t>09:30:24</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>"Me voilà dans le grand château , mon cher voisin, bien fatiguée, bien accablée ..." à Ladoucette, 1840-08-17, https://constance-de-salm.de/archiv/#/document/8237 #onthisday</t>
+          <t>»Me voilà dans le grand château , mon cher voisin, bien fatiguée, bien accablée ...« à Ladoucette, 1840-08-17, https://constance-de-salm.de/archiv/#/document/8237 #onthisday</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3973,17 +3973,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2029-8-19</t>
+          <t>2029-08-19</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>14:14:44</t>
+          <t>11:23:35</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>"Voilà, Monsieur, l’épreuve corrigée de la petite pièce que Monsieur Drais vous avait remise de ma part ..." à Malo, 1835-08-19, https://constance-de-salm.de/archiv/#/document/9633 #onthisday</t>
+          <t>»Voilà, Monsieur, l’épreuve corrigée de la petite pièce que Monsieur Drais vous avait remise de ma part ...« à Malo, 1835-08-19, https://constance-de-salm.de/archiv/#/document/9633 #onthisday</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4000,17 +4000,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2029-8-20</t>
+          <t>2029-08-20</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>10:21:37</t>
+          <t>18:44:22</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>"Si je ne me trompe, Monsieur, vous deviez aller à la campagne lorsque j'ai quitté Paris ..." à Bignan, 1839-08-20, https://constance-de-salm.de/archiv/#/document/8097 #onthisday</t>
+          <t>»Si je ne me trompe, Monsieur, vous deviez aller à la campagne lorsque j'ai quitté Paris ...« à Bignan, 1839-08-20, https://constance-de-salm.de/archiv/#/document/8097 #onthisday</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4027,17 +4027,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2029-8-20</t>
+          <t>2029-08-20</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>13:03:41</t>
+          <t>08:09:55</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>"Je ne sais, mon cher voisin, si vous êtes encore à Paris, je ne le crois pas ..." à Ladoucette, 1839-08-20, https://constance-de-salm.de/archiv/#/document/8096 #onthisday</t>
+          <t>»Je ne sais, mon cher voisin, si vous êtes encore à Paris, je ne le crois pas ...« à Ladoucette, 1839-08-20, https://constance-de-salm.de/archiv/#/document/8096 #onthisday</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2029-8-21</t>
+          <t>2029-08-21</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>18:23:58</t>
+          <t>17:38:02</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>"Monsieur Drais a dû aller chez vous, de ma part, Monsieur, pour vous annoncer mon arrivée dans mes foyers allemands ..." à Audiffret, 1838-08-21, https://constance-de-salm.de/archiv/#/document/7945 #onthisday</t>
+          <t>»Monsieur Drais a dû aller chez vous, de ma part, Monsieur, pour vous annoncer mon arrivée dans mes foyers allemands ...« à Audiffret, 1838-08-21, https://constance-de-salm.de/archiv/#/document/7945 #onthisday</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4081,17 +4081,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2029-8-25</t>
+          <t>2029-08-25</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>18:35:18</t>
+          <t>12:00:34</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>"J’envoie aujourd’hui à Monsieur Drais, Monsieur, plusieurs billets d’amis, et je veux qu’il y en ait un pour vous ..." à Sanson de Pongerville, 1836-08-25, https://constance-de-salm.de/archiv/#/document/9837 #onthisday</t>
+          <t>»J’envoie aujourd’hui à Monsieur Drais, Monsieur, plusieurs billets d’amis, et je veux qu’il y en ait un pour vous ...« à Sanson de Pongerville, 1836-08-25, https://constance-de-salm.de/archiv/#/document/9837 #onthisday</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4108,17 +4108,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2029-8-28</t>
+          <t>2029-08-28</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>18:08:48</t>
+          <t>09:11:02</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>"Voilà le 3 et le 4 de Septembre qui approchent, ma chère voisine, je suis bien loin d'oublier que vous m'avez promis de venir passer quelque temps avec moi ..." à Hompesch, 1834-08-28, https://constance-de-salm.de/archiv/#/document/5594 #onthisday</t>
+          <t>»Voilà le 3 et le 4 de Septembre qui approchent, ma chère voisine, je suis bien loin d'oublier que vous m'avez promis de venir passer quelque temps avec moi ...« à Hompesch, 1834-08-28, https://constance-de-salm.de/archiv/#/document/5594 #onthisday</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4135,17 +4135,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2029-8-29</t>
+          <t>2029-08-29</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>13:50:33</t>
+          <t>11:22:13</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>"Je me tourmentais, Monsieur, de ne pas recevoir de vos nouvelles de Paris ..." à Drais, 1839-08-29, https://constance-de-salm.de/archiv/#/document/8099 #onthisday</t>
+          <t>»Je me tourmentais, Monsieur, de ne pas recevoir de vos nouvelles de Paris ...« à Drais, 1839-08-29, https://constance-de-salm.de/archiv/#/document/8099 #onthisday</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4162,17 +4162,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2029-8-29</t>
+          <t>2029-08-29</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>14:34:26</t>
+          <t>08:00:18</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>"Je me tourmentais, Monsieur, de ne pas recevoir de vos nouvelles de Paris, et tout à coup j'ai trouvé dans le portefeuille ..." à Drais, 1839-08-29, https://constance-de-salm.de/archiv/#/document/8101 #onthisday</t>
+          <t>»Je me tourmentais, Monsieur, de ne pas recevoir de vos nouvelles de Paris, et tout à coup j'ai trouvé dans le portefeuille ...« à Drais, 1839-08-29, https://constance-de-salm.de/archiv/#/document/8101 #onthisday</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4189,17 +4189,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2029-8-30</t>
+          <t>2029-08-30</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>08:00:31</t>
+          <t>16:27:58</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>"Quoique j'aie prié Monsieur votre père de vous lire, très aimable dame, la lettre que j’ai eu enfin la force et le temps de lui écire ..." à Waldor, 1837-08-30, https://constance-de-salm.de/archiv/#/document/7830 #onthisday</t>
+          <t>»Quoique j'aie prié Monsieur votre père de vous lire, très aimable dame, la lettre que j’ai eu enfin la force et le temps de lui écire ...« à Waldor, 1837-08-30, https://constance-de-salm.de/archiv/#/document/7830 #onthisday</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4216,17 +4216,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2029-9-1</t>
+          <t>2029-09-01</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>15:45:42</t>
+          <t>18:42:18</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>"J'ai appris hier soir en lisant le „Journal des débats“, cher frère, que Charles venait ..." à Théis, 1837-09-01, https://constance-de-salm.de/archiv/#/document/7831 #onthisday</t>
+          <t>»J'ai appris hier soir en lisant le „Journal des débats“, cher frère, que Charles venait ...« à Théis, 1837-09-01, https://constance-de-salm.de/archiv/#/document/7831 #onthisday</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4243,17 +4243,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2029-9-2</t>
+          <t>2029-09-02</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>13:29:01</t>
+          <t>11:41:56</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>"Je reçois votre lettre, ma chère amie, et je veux y répondre à l’instant pour ne pas vous laisser plus longtemps ..." à Vanhove, 1836-09-02, https://constance-de-salm.de/archiv/#/document/10364 #onthisday</t>
+          <t>»Je reçois votre lettre, ma chère amie, et je veux y répondre à l’instant pour ne pas vous laisser plus longtemps ...« à Vanhove, 1836-09-02, https://constance-de-salm.de/archiv/#/document/10364 #onthisday</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4270,17 +4270,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2029-9-2</t>
+          <t>2029-09-02</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>12:07:35</t>
+          <t>16:14:20</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>"Je veux, Monsieur, vous apprendre moi-même, comme je vous l’ai promis, mon heureuse arrivée ..." à Villenave, 1841-09-02, https://constance-de-salm.de/archiv/#/document/11038 #onthisday</t>
+          <t>»Je veux, Monsieur, vous apprendre moi-même, comme je vous l’ai promis, mon heureuse arrivée ...« à Villenave, 1841-09-02, https://constance-de-salm.de/archiv/#/document/11038 #onthisday</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4297,17 +4297,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2029-9-3</t>
+          <t>2029-09-03</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16:52:22</t>
+          <t>19:56:02</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>"Cher ami, j’ai été tourmentée ces jours-ci par l’obligation d‘écrire ces tas de lettres insignifiantes ..." à Salm-Reifferscheidt-Dyck, 1844-09-03, https://constance-de-salm.de/archiv/#/document/5359 #onthisday</t>
+          <t>»Cher ami, j’ai été tourmentée ces jours-ci par l’obligation d‘écrire ces tas de lettres insignifiantes ...« à Salm-Reifferscheidt-Dyck, 1844-09-03, https://constance-de-salm.de/archiv/#/document/5359 #onthisday</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4324,17 +4324,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2029-9-6</t>
+          <t>2029-09-06</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>18:33:28</t>
+          <t>08:40:25</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>"J'apprends avec beaucoup de plaisir, Monsieur, que vous êtes à Aix-la-Chapelle ..." à Laya, 1838-09-06, https://constance-de-salm.de/archiv/#/document/7949 #onthisday</t>
+          <t>»J'apprends avec beaucoup de plaisir, Monsieur, que vous êtes à Aix-la-Chapelle ...« à Laya, 1838-09-06, https://constance-de-salm.de/archiv/#/document/7949 #onthisday</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4351,17 +4351,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2029-9-8</t>
+          <t>2029-09-08</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>08:53:12</t>
+          <t>09:14:06</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>"En partant de Paris, Monsieur, j’avais promis au jeune Villenave dont, je crois, vous connaissez le père ..." à Reiffenberg, 1841-09-08, https://constance-de-salm.de/archiv/#/document/11246 #onthisday</t>
+          <t>»En partant de Paris, Monsieur, j’avais promis au jeune Villenave dont, je crois, vous connaissez le père ...« à Reiffenberg, 1841-09-08, https://constance-de-salm.de/archiv/#/document/11246 #onthisday</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4378,17 +4378,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2029-9-10</t>
+          <t>2029-09-10</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>19:16:07</t>
+          <t>08:29:40</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre, Monsieur, peu de jours après mon arrivée ici ..." à Bavier, 1840-09-10, https://constance-de-salm.de/archiv/#/document/8638 #onthisday</t>
+          <t>»J’ai reçu votre lettre, Monsieur, peu de jours après mon arrivée ici ...« à Bavier, 1840-09-10, https://constance-de-salm.de/archiv/#/document/8638 #onthisday</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4405,17 +4405,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2029-9-12</t>
+          <t>2029-09-12</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>08:43:33</t>
+          <t>17:48:51</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>"En arrivant ici, Monsieur, j’y ai trouvé une lettre de Monsieur de Humboldt ..." à Audouin de Géronval, 1836-09-12, https://constance-de-salm.de/archiv/#/document/9842 #onthisday</t>
+          <t>»En arrivant ici, Monsieur, j’y ai trouvé une lettre de Monsieur de Humboldt ...« à Audouin de Géronval, 1836-09-12, https://constance-de-salm.de/archiv/#/document/9842 #onthisday</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4432,17 +4432,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2029-9-14</t>
+          <t>2029-09-14</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>12:27:43</t>
+          <t>15:20:32</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>"Monsieur Drais m'a écrit, Monsieur, que vous étiez à la campagne ..." à Lamardelle, 1831-09-14, https://constance-de-salm.de/archiv/#/document/6571 #onthisday</t>
+          <t>»Monsieur Drais m'a écrit, Monsieur, que vous étiez à la campagne ...« à Lamardelle, 1831-09-14, https://constance-de-salm.de/archiv/#/document/6571 #onthisday</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4459,17 +4459,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2029-9-15</t>
+          <t>2029-09-15</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16:48:18</t>
+          <t>11:11:45</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier ta lettre, cher frère, et je me hâte d’y répondre un mot que tu recevras encore, j’espère, à Limoges; ..." à Théis, 1833-09-15, https://constance-de-salm.de/archiv/#/document/10838 #onthisday</t>
+          <t>»J’ai reçu hier ta lettre, cher frère, et je me hâte d’y répondre un mot que tu recevras encore, j’espère, à Limoges; ...« à Théis, 1833-09-15, https://constance-de-salm.de/archiv/#/document/10838 #onthisday</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4486,17 +4486,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2029-9-16</t>
+          <t>2029-09-16</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>10:45:56</t>
+          <t>12:57:12</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>"Mille remerciments, Monsieur, de l’article du Journal de Paris que vous m’avez envoyé ..." à Raboteau, 1836-09-16, https://constance-de-salm.de/archiv/#/document/9844 #onthisday</t>
+          <t>»Mille remerciments, Monsieur, de l’article du Journal de Paris que vous m’avez envoyé ...« à Raboteau, 1836-09-16, https://constance-de-salm.de/archiv/#/document/9844 #onthisday</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4513,17 +4513,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2029-9-17</t>
+          <t>2029-09-17</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16:44:58</t>
+          <t>09:09:51</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>"Je ne puis, Monsieur, vous avoir vu si souvent cet hiver, ainsi que Madame, et rester ici ..." à Mirault, 1833-09-17, https://constance-de-salm.de/archiv/#/document/9543 #onthisday</t>
+          <t>»Je ne puis, Monsieur, vous avoir vu si souvent cet hiver, ainsi que Madame, et rester ici ...« à Mirault, 1833-09-17, https://constance-de-salm.de/archiv/#/document/9543 #onthisday</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4540,17 +4540,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2029-9-18</t>
+          <t>2029-09-18</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>13:44:34</t>
+          <t>16:39:42</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>"Il y a longtemps, Madame, que je me propose de vous écrire; ..." à Maleszewski, 1836-09-18, https://constance-de-salm.de/archiv/#/document/9845 #onthisday</t>
+          <t>»Il y a longtemps, Madame, que je me propose de vous écrire; ...« à Maleszewski, 1836-09-18, https://constance-de-salm.de/archiv/#/document/9845 #onthisday</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4567,17 +4567,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2029-9-18</t>
+          <t>2029-09-18</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>09:21:45</t>
+          <t>08:22:45</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>"Jusqu’à présent, mon cher Herrmann, je n’ai pas eu le courage de vous écrire; ..." à Hompesch-Rurich, 1836-09-18, https://constance-de-salm.de/archiv/#/document/9846 #onthisday</t>
+          <t>»Jusqu’à présent, mon cher Herrmann, je n’ai pas eu le courage de vous écrire; ...« à Hompesch-Rurich, 1836-09-18, https://constance-de-salm.de/archiv/#/document/9846 #onthisday</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4594,17 +4594,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2029-9-20</t>
+          <t>2029-09-20</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>15:10:41</t>
+          <t>08:13:10</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>"J’envoie une quantité de petits billets à Monsieur Drais, Monsieur et ancien ami, et je veux aussi vous écrire ..." à Ponce, 1828-09-20, https://constance-de-salm.de/archiv/#/document/9224 #onthisday</t>
+          <t>»J’envoie une quantité de petits billets à Monsieur Drais, Monsieur et ancien ami, et je veux aussi vous écrire ...« à Ponce, 1828-09-20, https://constance-de-salm.de/archiv/#/document/9224 #onthisday</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4621,17 +4621,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2029-9-21</t>
+          <t>2029-09-21</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>14:40:52</t>
+          <t>12:44:43</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis un mois, mon ancienne amie, et projetant sans cesse ..." à Salis, 1841-09-21, https://constance-de-salm.de/archiv/#/document/10443 #onthisday</t>
+          <t>»Je suis ici depuis un mois, mon ancienne amie, et projetant sans cesse ...« à Salis, 1841-09-21, https://constance-de-salm.de/archiv/#/document/10443 #onthisday</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4648,17 +4648,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2029-9-22</t>
+          <t>2029-09-22</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>09:30:54</t>
+          <t>13:18:56</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>"Voici. Monsieur, une commission délicate que je vais vous donner ..." à Drais, 1840-09-22, https://constance-de-salm.de/archiv/#/document/11170 #onthisday</t>
+          <t>»Voici. Monsieur, une commission délicate que je vais vous donner ...« à Drais, 1840-09-22, https://constance-de-salm.de/archiv/#/document/11170 #onthisday</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4675,17 +4675,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2029-9-23</t>
+          <t>2029-09-23</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>13:22:34</t>
+          <t>15:28:22</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>"J'ai reçu avant-hier, Monsieur, le numéro du „Moniteur“ que vous m'avez adressé ..." à Sauvo, 1839-09-23, https://constance-de-salm.de/archiv/#/document/8109 #onthisday</t>
+          <t>»J'ai reçu avant-hier, Monsieur, le numéro du „Moniteur“ que vous m'avez adressé ...« à Sauvo, 1839-09-23, https://constance-de-salm.de/archiv/#/document/8109 #onthisday</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4702,17 +4702,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2029-9-26</t>
+          <t>2029-09-26</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>15:51:53</t>
+          <t>15:18:47</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>"Madame la Princesse de Salm envoie à Monsieur Evelt, comme il le lui a fait demander ..." à Evelt, 1838-09-26, https://constance-de-salm.de/archiv/#/document/7955 #onthisday</t>
+          <t>»Madame la Princesse de Salm envoie à Monsieur Evelt, comme il le lui a fait demander ...« à Evelt, 1838-09-26, https://constance-de-salm.de/archiv/#/document/7955 #onthisday</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4729,17 +4729,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2029-9-30</t>
+          <t>2029-09-30</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>19:39:25</t>
+          <t>17:14:52</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>"Nous avons appris avec le plus grand plaisir par les journaux ..." à Maison, 1830-09-30, https://constance-de-salm.de/archiv/#/document/5190 #onthisday</t>
+          <t>»Nous avons appris avec le plus grand plaisir par les journaux ...« à Maison, 1830-09-30, https://constance-de-salm.de/archiv/#/document/5190 #onthisday</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4756,17 +4756,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2029-10-2</t>
+          <t>2029-10-02</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10:21:25</t>
+          <t>19:15:41</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Monsieur, que je ne vous ai écrit; mais les temps affreux ..." à Drais, 1838-10-02, https://constance-de-salm.de/archiv/#/document/7956 #onthisday</t>
+          <t>»Il y a bien longtemps, Monsieur, que je ne vous ai écrit; mais les temps affreux ...« à Drais, 1838-10-02, https://constance-de-salm.de/archiv/#/document/7956 #onthisday</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4783,17 +4783,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2029-10-3</t>
+          <t>2029-10-03</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>15:58:55</t>
+          <t>16:39:10</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, ma chère amie, combien de fois je me suis reproché de ne vous avoir pas encore écrit ..." à Naigeon, 1836-10-03, https://constance-de-salm.de/archiv/#/document/9851 #onthisday</t>
+          <t>»Je ne puis vous dire, ma chère amie, combien de fois je me suis reproché de ne vous avoir pas encore écrit ...« à Naigeon, 1836-10-03, https://constance-de-salm.de/archiv/#/document/9851 #onthisday</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4810,17 +4810,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2029-10-4</t>
+          <t>2029-10-04</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>08:05:36</t>
+          <t>18:50:46</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps, Madame, que je vous dois une réponse ..." à Montigny, 1832-10-04, https://constance-de-salm.de/archiv/#/document/5430 #onthisday</t>
+          <t>»Il y a bien longtemps, Madame, que je vous dois une réponse ...« à Montigny, 1832-10-04, https://constance-de-salm.de/archiv/#/document/5430 #onthisday</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4837,17 +4837,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2029-10-5</t>
+          <t>2029-10-05</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>08:35:53</t>
+          <t>18:30:31</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>"J'ai à peine le courage de vous écrire quelques lignes, ma chère amie ..." à Leroy de Bacre, 1837-10-05, https://constance-de-salm.de/archiv/#/document/7840 #onthisday</t>
+          <t>»J'ai à peine le courage de vous écrire quelques lignes, ma chère amie ...« à Leroy de Bacre, 1837-10-05, https://constance-de-salm.de/archiv/#/document/7840 #onthisday</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4864,17 +4864,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2029-10-8</t>
+          <t>2029-10-08</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>19:05:56</t>
+          <t>18:43:20</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>"Je n'entends pas parler de vous, Monsieur, ce qui m'inquiète ..." à Jullien de Paris, 1839-10-08, https://constance-de-salm.de/archiv/#/document/8126 #onthisday</t>
+          <t>»Je n'entends pas parler de vous, Monsieur, ce qui m'inquiète ...« à Jullien de Paris, 1839-10-08, https://constance-de-salm.de/archiv/#/document/8126 #onthisday</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4891,17 +4891,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2029-10-8</t>
+          <t>2029-10-08</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>14:05:53</t>
+          <t>11:30:10</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre bonne et aimable lettre, Monsieur, j'y ai vu avec grand plaisir que votre santé ..." à Boucharlat, 1839-10-08, https://constance-de-salm.de/archiv/#/document/8117 #onthisday</t>
+          <t>»J'ai reçu votre bonne et aimable lettre, Monsieur, j'y ai vu avec grand plaisir que votre santé ...« à Boucharlat, 1839-10-08, https://constance-de-salm.de/archiv/#/document/8117 #onthisday</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>15:05:36</t>
+          <t>11:04:38</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>"Dans la première lettre que je vous ai écrite depuis votre retour, Monsieur, je vous ai grondé ..." à Drais, 1842-10-12, https://constance-de-salm.de/archiv/#/document/7466 #onthisday</t>
+          <t>»Dans la première lettre que je vous ai écrite depuis votre retour, Monsieur, je vous ai grondé ...« à Drais, 1842-10-12, https://constance-de-salm.de/archiv/#/document/7466 #onthisday</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>13:55:37</t>
+          <t>10:15:22</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>"Je me propose depuis longtemps de vous écrire, Monsieur le Colonel, mais ma santé, presque toujours dérangée ..." à Schepeler, 1840-10-13, https://constance-de-salm.de/archiv/#/document/8257 #onthisday</t>
+          <t>»Je me propose depuis longtemps de vous écrire, Monsieur le Colonel, mais ma santé, presque toujours dérangée ...« à Schepeler, 1840-10-13, https://constance-de-salm.de/archiv/#/document/8257 #onthisday</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>09:44:08</t>
+          <t>13:50:22</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>"Je vous ai écrit il y a peu de jours, Monsieur le baron, mais je veux cependant répondre à l’instant à la nouvelle lettre ..." à Ladoucette, 1835-10-14, https://constance-de-salm.de/archiv/#/document/9651 #onthisday</t>
+          <t>»Je vous ai écrit il y a peu de jours, Monsieur le baron, mais je veux cependant répondre à l’instant à la nouvelle lettre ...« à Ladoucette, 1835-10-14, https://constance-de-salm.de/archiv/#/document/9651 #onthisday</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5004,12 +5004,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>09:12:52</t>
+          <t>14:35:25</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>"Plus de cent fois, je crois, je voulais vous écrire, / Et toujours le hasard a su tromper mes vœux; / Je m’en plains; mais pourtant… ..." à Duval, 1832-10-15, https://constance-de-salm.de/archiv/#/document/9515 #onthisday</t>
+          <t>»Plus de cent fois, je crois, je voulais vous écrire, / Et toujours le hasard a su tromper mes vœux; / Je m’en plains; mais pourtant… ...« à Duval, 1832-10-15, https://constance-de-salm.de/archiv/#/document/9515 #onthisday</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>18:19:46</t>
+          <t>12:44:33</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre Numéro 2, Monsieur; je l'attendais depuis longtemps, et j'ai été charmée d'avoir enfin de vos nouvelles ..." à Jullien de Paris, 1834-10-16, https://constance-de-salm.de/archiv/#/document/5602 #onthisday</t>
+          <t>»J'ai reçu votre Numéro 2, Monsieur; je l'attendais depuis longtemps, et j'ai été charmée d'avoir enfin de vos nouvelles ...« à Jullien de Paris, 1834-10-16, https://constance-de-salm.de/archiv/#/document/5602 #onthisday</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5058,12 +5058,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>17:09:05</t>
+          <t>15:08:11</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>"J’envoie à Monsieur Drais une lettre remplie de billets pour mes amis, Monsieur, et je veux qu’il y ait aussi quelques lignes pour vous ..." à Jullien de Paris, 1835-10-17, https://constance-de-salm.de/archiv/#/document/9654 #onthisday</t>
+          <t>»J’envoie à Monsieur Drais une lettre remplie de billets pour mes amis, Monsieur, et je veux qu’il y ait aussi quelques lignes pour vous ...« à Jullien de Paris, 1835-10-17, https://constance-de-salm.de/archiv/#/document/9654 #onthisday</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>12:01:32</t>
+          <t>10:00:50</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>"Voilà bien longtemps, cher frère, que j’ai reçu ta dernière lettre ..." à Théis, 1836-10-18, https://constance-de-salm.de/archiv/#/document/10878 #onthisday</t>
+          <t>»Voilà bien longtemps, cher frère, que j’ai reçu ta dernière lettre ...« à Théis, 1836-10-18, https://constance-de-salm.de/archiv/#/document/10878 #onthisday</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>09:10:05</t>
+          <t>18:51:45</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>"Paris qui pourront lui être utiles; mais je m'empresse, mon cher voisin ..." à Ladoucette, 1841-10-20, https://constance-de-salm.de/archiv/#/document/7713 #onthisday</t>
+          <t>»Paris qui pourront lui être utiles; mais je m'empresse, mon cher voisin ...« à Ladoucette, 1841-10-20, https://constance-de-salm.de/archiv/#/document/7713 #onthisday</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5139,12 +5139,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>11:43:48</t>
+          <t>15:44:22</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>"Les temps horribles que nous venons d’avoir, cher frère, m’ont rendu tous mes vieux maux ..." à Théis, 1838-10-21, https://constance-de-salm.de/archiv/#/document/10908 #onthisday</t>
+          <t>»Les temps horribles que nous venons d’avoir, cher frère, m’ont rendu tous mes vieux maux ...« à Théis, 1838-10-21, https://constance-de-salm.de/archiv/#/document/10908 #onthisday</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5166,12 +5166,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>18:08:39</t>
+          <t>14:54:51</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, mon ancienne amie ..." à Salis, 1841-10-22, https://constance-de-salm.de/archiv/#/document/7714 #onthisday</t>
+          <t>»Je n'entends point parler de vous, mon ancienne amie ...« à Salis, 1841-10-22, https://constance-de-salm.de/archiv/#/document/7714 #onthisday</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5193,12 +5193,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>11:56:43</t>
+          <t>12:03:17</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de vous, mon ancienne amie ..." à Salis, 1841-10-22, https://constance-de-salm.de/archiv/#/document/10380 #onthisday</t>
+          <t>»Je n'entends point parler de vous, mon ancienne amie ...« à Salis, 1841-10-22, https://constance-de-salm.de/archiv/#/document/10380 #onthisday</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5220,12 +5220,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>14:08:10</t>
+          <t>15:26:55</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>"Si je n'ai pas encore répondu, Monsieur, à l'obligeante lettre ..." à Stassart, 1833-10-23, https://constance-de-salm.de/archiv/#/document/5279 #onthisday</t>
+          <t>»Si je n'ai pas encore répondu, Monsieur, à l'obligeante lettre ...« à Stassart, 1833-10-23, https://constance-de-salm.de/archiv/#/document/5279 #onthisday</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>18:26:52</t>
+          <t>09:07:20</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>"C’est une triste lettre que je vais t‘écrire, cher ami ..." à Salm-Reifferscheidt-Dyck, 1844-10-25, https://constance-de-salm.de/archiv/#/document/5353 #onthisday</t>
+          <t>»C’est une triste lettre que je vais t‘écrire, cher ami ...« à Salm-Reifferscheidt-Dyck, 1844-10-25, https://constance-de-salm.de/archiv/#/document/5353 #onthisday</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>18:15:33</t>
+          <t>14:13:30</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>"Je commence cette lettre, Monsieur, pour jaser avec vous jusqu’au dîner ..." à Drais, 1840-10-26, https://constance-de-salm.de/archiv/#/document/11173 #onthisday</t>
+          <t>»Je commence cette lettre, Monsieur, pour jaser avec vous jusqu’au dîner ...« à Drais, 1840-10-26, https://constance-de-salm.de/archiv/#/document/11173 #onthisday</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5301,12 +5301,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16:24:48</t>
+          <t>13:16:13</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>"La saison s’avance, Madame, je vais bientôt retourner à Paris ..." à N.N., 1836-10-27, https://constance-de-salm.de/archiv/#/document/9858 #onthisday</t>
+          <t>»La saison s’avance, Madame, je vais bientôt retourner à Paris ...« à N.N., 1836-10-27, https://constance-de-salm.de/archiv/#/document/9858 #onthisday</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>17:18:57</t>
+          <t>19:31:09</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>"Je reçois, mon cher voisin, une lettre de Monsieur Drais qui m’apprend que vous devez être à Paris ..." à Ladoucette, 1840-10-29, https://constance-de-salm.de/archiv/#/document/6194 #onthisday</t>
+          <t>»Je reçois, mon cher voisin, une lettre de Monsieur Drais qui m’apprend que vous devez être à Paris ...« à Ladoucette, 1840-10-29, https://constance-de-salm.de/archiv/#/document/6194 #onthisday</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16:30:09</t>
+          <t>12:08:10</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>"Cher frère, je n’entends point parler de toi; que deviens-tu? ..." à Théis, 1830-10-30, https://constance-de-salm.de/archiv/#/document/10789 #onthisday</t>
+          <t>»Cher frère, je n’entends point parler de toi; que deviens-tu? ...« à Théis, 1830-10-30, https://constance-de-salm.de/archiv/#/document/10789 #onthisday</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5382,12 +5382,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>11:20:03</t>
+          <t>19:55:15</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>"C’est avec un bien vif regret, ma bien chère voisine, que je vous annonce qu’il me sera impossible de m’arrêter chez vous ..." à Hompesch, 1835-10-30, https://constance-de-salm.de/archiv/#/document/9660 #onthisday</t>
+          <t>»C’est avec un bien vif regret, ma bien chère voisine, que je vous annonce qu’il me sera impossible de m’arrêter chez vous ...« à Hompesch, 1835-10-30, https://constance-de-salm.de/archiv/#/document/9660 #onthisday</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5404,17 +5404,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2029-11-6</t>
+          <t>2029-11-06</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>09:37:39</t>
+          <t>13:17:09</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>"Vous êtes bien aimable, Monsieur le colonel, d'avoir pensé à mon jour de naissance ..." à Schepeler, 1838-11-06, https://constance-de-salm.de/archiv/#/document/7961 #onthisday</t>
+          <t>»Vous êtes bien aimable, Monsieur le colonel, d'avoir pensé à mon jour de naissance ...« à Schepeler, 1838-11-06, https://constance-de-salm.de/archiv/#/document/7961 #onthisday</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2029-11-8</t>
+          <t>2029-11-08</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>15:17:15</t>
+          <t>14:34:34</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a deux jours, Monsieur, votre grande et excellente lettre (de Besançon et de Genève) n° 3 ..." à Jullien de Paris, 1840-11-08, https://constance-de-salm.de/archiv/#/document/6300 #onthisday</t>
+          <t>»J’ai reçu il y a deux jours, Monsieur, votre grande et excellente lettre (de Besançon et de Genève) n° 3 ...« à Jullien de Paris, 1840-11-08, https://constance-de-salm.de/archiv/#/document/6300 #onthisday</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16:44:45</t>
+          <t>09:19:15</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>"Vous êtes bien aimables, Monsieur et Madame, de n'avoir pas oublié mon jour de naissance ..." à Schepeler, 1837-11-10, https://constance-de-salm.de/archiv/#/document/7862 #onthisday</t>
+          <t>»Vous êtes bien aimables, Monsieur et Madame, de n'avoir pas oublié mon jour de naissance ...« à Schepeler, 1837-11-10, https://constance-de-salm.de/archiv/#/document/7862 #onthisday</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5490,12 +5490,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16:40:41</t>
+          <t>11:35:06</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>"Je suis inquiète de vous, ma chère cousine, de votre santé, de celle de votre famille ..." à Français, 1840-11-12, https://constance-de-salm.de/archiv/#/document/10022 #onthisday</t>
+          <t>»Je suis inquiète de vous, ma chère cousine, de votre santé, de celle de votre famille ...« à Français, 1840-11-12, https://constance-de-salm.de/archiv/#/document/10022 #onthisday</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5517,12 +5517,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>19:51:12</t>
+          <t>09:51:31</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>"Je retrouve dans mes papiers, Mademoiselle, une lettre que vous auriez dû recevoir ..." à Ayzac, 1833-11-16, https://constance-de-salm.de/archiv/#/document/5298 #onthisday</t>
+          <t>»Je retrouve dans mes papiers, Mademoiselle, une lettre que vous auriez dû recevoir ...« à Ayzac, 1833-11-16, https://constance-de-salm.de/archiv/#/document/5298 #onthisday</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5544,12 +5544,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>18:48:03</t>
+          <t>10:51:18</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm, qui arrive d'Aix-la-Chapelle, s'empresse de faire savoir son retour ..." à Berville, 1838-11-16, https://constance-de-salm.de/archiv/#/document/7962 #onthisday</t>
+          <t>»La Princesse de Salm, qui arrive d'Aix-la-Chapelle, s'empresse de faire savoir son retour ...« à Berville, 1838-11-16, https://constance-de-salm.de/archiv/#/document/7962 #onthisday</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13:13:15</t>
+          <t>15:58:50</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>"J’ai reçu exactement, Monsieur, vos très intéressantes lettres (dont la dernière est datée de Romans) ..." à Jullien de Paris, 1841-11-17, https://constance-de-salm.de/archiv/#/document/11265 #onthisday</t>
+          <t>»J’ai reçu exactement, Monsieur, vos très intéressantes lettres (dont la dernière est datée de Romans) ...« à Jullien de Paris, 1841-11-17, https://constance-de-salm.de/archiv/#/document/11265 #onthisday</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5598,12 +5598,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>14:57:03</t>
+          <t>13:03:27</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur, combien de fois je me suis proposé de vous écrire ..." à Châtelain, 1837-11-18, https://constance-de-salm.de/archiv/#/document/7868 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur, combien de fois je me suis proposé de vous écrire ...« à Châtelain, 1837-11-18, https://constance-de-salm.de/archiv/#/document/7868 #onthisday</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>17:16:18</t>
+          <t>12:06:37</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>"Je ne reçois point de tes nouvelles, cher frère ..." à Théis, 1839-11-19, https://constance-de-salm.de/archiv/#/document/8133 #onthisday</t>
+          <t>»Je ne reçois point de tes nouvelles, cher frère ...« à Théis, 1839-11-19, https://constance-de-salm.de/archiv/#/document/8133 #onthisday</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>13:00:20</t>
+          <t>17:58:24</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>"J'ajoute quelques lignes à cette lettre, mon très cher général, pour vous remercier ..." à Saint-Mars, 1839-11-20, https://constance-de-salm.de/archiv/#/document/8134 #onthisday</t>
+          <t>»J'ajoute quelques lignes à cette lettre, mon très cher général, pour vous remercier ...« à Saint-Mars, 1839-11-20, https://constance-de-salm.de/archiv/#/document/8134 #onthisday</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5679,12 +5679,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>19:35:41</t>
+          <t>13:01:03</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre bonne et grande lettre, Monsieur, elle m’a vivement intéressée ..." à Boucharlat, 1841-11-22, https://constance-de-salm.de/archiv/#/document/11266 #onthisday</t>
+          <t>»J’ai reçu votre bonne et grande lettre, Monsieur, elle m’a vivement intéressée ...« à Boucharlat, 1841-11-22, https://constance-de-salm.de/archiv/#/document/11266 #onthisday</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>13:23:38</t>
+          <t>08:40:38</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier 23, Monsieur, votre lettre datée ..." à Drais, 1842-11-23, https://constance-de-salm.de/archiv/#/document/7461 #onthisday</t>
+          <t>»J'ai reçu hier 23, Monsieur, votre lettre datée ...« à Drais, 1842-11-23, https://constance-de-salm.de/archiv/#/document/7461 #onthisday</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>15:47:25</t>
+          <t>13:33:18</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>"Je viens, cher frère, de recevoir ta lettre que m’a envoyé Monsieur Drais; ..." à Théis, 1841-11-24, https://constance-de-salm.de/archiv/#/document/10970 #onthisday</t>
+          <t>»Je viens, cher frère, de recevoir ta lettre que m’a envoyé Monsieur Drais; ...« à Théis, 1841-11-24, https://constance-de-salm.de/archiv/#/document/10970 #onthisday</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5760,12 +5760,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16:24:28</t>
+          <t>09:15:07</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>"Tu vois par cette lettre, mon cher Charles, que j’ai reçu la tienne il y a déjà quelque temps ..." à Théis, 1840-11-27, https://constance-de-salm.de/archiv/#/document/11177 #onthisday</t>
+          <t>»Tu vois par cette lettre, mon cher Charles, que j’ai reçu la tienne il y a déjà quelque temps ...« à Théis, 1840-11-27, https://constance-de-salm.de/archiv/#/document/11177 #onthisday</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5787,12 +5787,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>12:44:26</t>
+          <t>15:13:32</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>"Depuis que je suis ici, Monsieur et Madame, Monsieur Drais qui a été vous voir plusieurs fois de ma part ..." à Mirault, 1841-11-30, https://constance-de-salm.de/archiv/#/document/10973 #onthisday</t>
+          <t>»Depuis que je suis ici, Monsieur et Madame, Monsieur Drais qui a été vous voir plusieurs fois de ma part ...« à Mirault, 1841-11-30, https://constance-de-salm.de/archiv/#/document/10973 #onthisday</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5809,17 +5809,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2029-12-1</t>
+          <t>2029-12-01</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>09:20:37</t>
+          <t>12:51:37</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>"Je reçois à l’instant, cher frère, ta lettre du 29, qui s’est croisée avec la mienne ..." à Théis, 1838-12-01, https://constance-de-salm.de/archiv/#/document/10911 #onthisday</t>
+          <t>»Je reçois à l’instant, cher frère, ta lettre du 29, qui s’est croisée avec la mienne ...« à Théis, 1838-12-01, https://constance-de-salm.de/archiv/#/document/10911 #onthisday</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2029-12-6</t>
+          <t>2029-12-06</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>11:31:00</t>
+          <t>17:15:55</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y a quelques jours, Monsieur le colonel, et quoique le temps affreux ..." à Schepeler, 1837-12-06, https://constance-de-salm.de/archiv/#/document/7875 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y a quelques jours, Monsieur le colonel, et quoique le temps affreux ...« à Schepeler, 1837-12-06, https://constance-de-salm.de/archiv/#/document/7875 #onthisday</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5863,17 +5863,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2029-12-9</t>
+          <t>2029-12-09</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>11:05:44</t>
+          <t>16:43:14</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, Monsieur, la lettre où sont vos comptes; ils sont très clairs et dans la forme que j'avais demandé ..." à Drais, 1839-12-09, https://constance-de-salm.de/archiv/#/document/8139 #onthisday</t>
+          <t>»J'ai reçu hier, Monsieur, la lettre où sont vos comptes; ils sont très clairs et dans la forme que j'avais demandé ...« à Drais, 1839-12-09, https://constance-de-salm.de/archiv/#/document/8139 #onthisday</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5895,12 +5895,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>13:39:34</t>
+          <t>16:21:01</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>"Votre dernière lettre, Monsieur, m'est arrivée la veille du jour où je quittais la campagne ..." à Jullien de Paris, 1833-12-10, https://constance-de-salm.de/archiv/#/document/5304 #onthisday</t>
+          <t>»Votre dernière lettre, Monsieur, m'est arrivée la veille du jour où je quittais la campagne ...« à Jullien de Paris, 1833-12-10, https://constance-de-salm.de/archiv/#/document/5304 #onthisday</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5922,12 +5922,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>15:55:13</t>
+          <t>18:12:43</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>"Je me propose depuis longtemps de vous écrire, Monsieur, de répondre au moins quelques mots ..." à Montémont, 1839-12-13, https://constance-de-salm.de/archiv/#/document/8140 #onthisday</t>
+          <t>»Je me propose depuis longtemps de vous écrire, Monsieur, de répondre au moins quelques mots ...« à Montémont, 1839-12-13, https://constance-de-salm.de/archiv/#/document/8140 #onthisday</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>19:22:19</t>
+          <t>11:37:32</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>"Un de mes amis m'écrit, Monsieur, que vous êtes à Paris; ..." à Bernard de Rennes, 1833-12-15, https://constance-de-salm.de/archiv/#/document/5306 #onthisday</t>
+          <t>»Un de mes amis m'écrit, Monsieur, que vous êtes à Paris; ...« à Bernard de Rennes, 1833-12-15, https://constance-de-salm.de/archiv/#/document/5306 #onthisday</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5976,12 +5976,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>08:47:57</t>
+          <t>12:17:32</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quelques jours, Monsieur; j'y ai trouvé la lettre et le recueil de Poésies ..." à Pillet, 1838-12-21, https://constance-de-salm.de/archiv/#/document/7980 #onthisday</t>
+          <t>»Je suis ici depuis quelques jours, Monsieur; j'y ai trouvé la lettre et le recueil de Poésies ...« à Pillet, 1838-12-21, https://constance-de-salm.de/archiv/#/document/7980 #onthisday</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>15:31:11</t>
+          <t>08:35:42</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>"Tu as sans doute appris, cher frère, par Saint-Mars, que je suis ici depuis plus d’un mois ..." à Théis, 1836-12-22, https://constance-de-salm.de/archiv/#/document/10884 #onthisday</t>
+          <t>»Tu as sans doute appris, cher frère, par Saint-Mars, que je suis ici depuis plus d’un mois ...« à Théis, 1836-12-22, https://constance-de-salm.de/archiv/#/document/10884 #onthisday</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6030,12 +6030,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>17:44:37</t>
+          <t>08:37:47</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>"Je crois devoir, Monsieur, vous engager de nouveau à venir ..." à Berville, 1835-12-25, https://constance-de-salm.de/archiv/#/document/9679 #onthisday</t>
+          <t>»Je crois devoir, Monsieur, vous engager de nouveau à venir ...« à Berville, 1835-12-25, https://constance-de-salm.de/archiv/#/document/9679 #onthisday</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6057,12 +6057,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>18:56:47</t>
+          <t>16:35:41</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>"Je ne sais que vous dire, ma bien sincère amie, pour excuser mon long silence ..." à Salis, 1838-12-26, https://constance-de-salm.de/archiv/#/document/10371 #onthisday</t>
+          <t>»Je ne sais que vous dire, ma bien sincère amie, pour excuser mon long silence ...« à Salis, 1838-12-26, https://constance-de-salm.de/archiv/#/document/10371 #onthisday</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>19:17:24</t>
+          <t>14:30:49</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>"Je me suis souvent proposé, Monsieur, depuis que j’ai reçu votre dernière lettre, de vous donner de nos nouvelles ..." à Montémont, 1834-12-27, https://constance-de-salm.de/archiv/#/document/9553 #onthisday</t>
+          <t>»Je me suis souvent proposé, Monsieur, depuis que j’ai reçu votre dernière lettre, de vous donner de nos nouvelles ...« à Montémont, 1834-12-27, https://constance-de-salm.de/archiv/#/document/9553 #onthisday</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>19:55:30</t>
+          <t>11:38:12</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>"Je suis ici et avec mon mari depuis 2 jours, Monsieur, et en arrivant j'ai éprouvé la douleur la plus vive ..." à Canot / Canaux, 1842-12-28, https://constance-de-salm.de/archiv/#/document/7490 #onthisday</t>
+          <t>»Je suis ici et avec mon mari depuis 2 jours, Monsieur, et en arrivant j'ai éprouvé la douleur la plus vive ...« à Canot / Canaux, 1842-12-28, https://constance-de-salm.de/archiv/#/document/7490 #onthisday</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6138,12 +6138,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>19:57:24</t>
+          <t>12:06:24</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>"J'ai chargé Monsieur Drais il y a quelques temps, Monsieur, de vous donner de mes nouvelles ..." à Boucharlat, 1837-12-29, https://constance-de-salm.de/archiv/#/document/7878 #onthisday</t>
+          <t>»J'ai chargé Monsieur Drais il y a quelques temps, Monsieur, de vous donner de mes nouvelles ...« à Boucharlat, 1837-12-29, https://constance-de-salm.de/archiv/#/document/7878 #onthisday</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6160,17 +6160,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2030-1-1</t>
+          <t>2030-01-01</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>17:40:00</t>
+          <t>18:30:50</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>"Je m’inquiète de n’avoir point de tes nouvelles, cher frère; ..." à Théis, 1838-01-01, https://constance-de-salm.de/archiv/#/document/10900 #onthisday</t>
+          <t>»Je m’inquiète de n’avoir point de tes nouvelles, cher frère; ...« à Théis, 1838-01-01, https://constance-de-salm.de/archiv/#/document/10900 #onthisday</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6187,17 +6187,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2030-1-2</t>
+          <t>2030-01-02</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>18:20:47</t>
+          <t>11:53:44</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>"Quoique Monsieur votre père que j’ai vu hier eût dû vous dire de ma part, Madame, à quel point j’ai été sensible ..." à Waldor, 1836-01-02, https://constance-de-salm.de/archiv/#/document/9683 #onthisday</t>
+          <t>»Quoique Monsieur votre père que j’ai vu hier eût dû vous dire de ma part, Madame, à quel point j’ai été sensible ...« à Waldor, 1836-01-02, https://constance-de-salm.de/archiv/#/document/9683 #onthisday</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6214,17 +6214,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2030-1-7</t>
+          <t>2030-01-07</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>09:04:23</t>
+          <t>08:57:16</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>"Je crains, Monsieur, de ne m‘être pas expliquée suffisamment lorsque je vous ai parlé de la nécessité ..." à Malo, 1836-01-07, https://constance-de-salm.de/archiv/#/document/9687 #onthisday</t>
+          <t>»Je crains, Monsieur, de ne m‘être pas expliquée suffisamment lorsque je vous ai parlé de la nécessité ...« à Malo, 1836-01-07, https://constance-de-salm.de/archiv/#/document/9687 #onthisday</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6241,17 +6241,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2030-1-9</t>
+          <t>2030-01-09</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>17:13:24</t>
+          <t>09:34:16</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre dernière lettre, Monsieur, au moment où je venais d’en envoyer une pour vous à Monsieur Drais ..." à Jullien de Paris, 1835-01-09, https://constance-de-salm.de/archiv/#/document/9558 #onthisday</t>
+          <t>»J’ai reçu votre dernière lettre, Monsieur, au moment où je venais d’en envoyer une pour vous à Monsieur Drais ...« à Jullien de Paris, 1835-01-09, https://constance-de-salm.de/archiv/#/document/9558 #onthisday</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6268,17 +6268,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2030-1-10</t>
+          <t>2030-01-10</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>18:39:44</t>
+          <t>10:03:43</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>"J’envoie savoir de tes nouvelles, cher frère, ma santé a été si déplorable ..." à Théis, 1839-01-10, https://constance-de-salm.de/archiv/#/document/10913 #onthisday</t>
+          <t>»J’envoie savoir de tes nouvelles, cher frère, ma santé a été si déplorable ...« à Théis, 1839-01-10, https://constance-de-salm.de/archiv/#/document/10913 #onthisday</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6295,17 +6295,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2030-1-14</t>
+          <t>2030-01-14</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>09:07:21</t>
+          <t>18:39:36</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>"Comme j'espère que votre santé est rétablie, Monsieur ..." à N.N., 1837-01-14, https://constance-de-salm.de/archiv/#/document/11145 #onthisday</t>
+          <t>»Comme j'espère que votre santé est rétablie, Monsieur ...« à N.N., 1837-01-14, https://constance-de-salm.de/archiv/#/document/11145 #onthisday</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6322,17 +6322,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2030-1-15</t>
+          <t>2030-01-15</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>18:01:34</t>
+          <t>19:54:46</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>"Je reçois, Monsieur, votre toute aimable lettre, votre 3e lettre au moment où j'allais vous écrire, et vous envoyer ..." à Sanson de Pongerville, 1841-01-15, https://constance-de-salm.de/archiv/#/document/7205 #onthisday</t>
+          <t>»Je reçois, Monsieur, votre toute aimable lettre, votre 3e lettre au moment où j'allais vous écrire, et vous envoyer ...« à Sanson de Pongerville, 1841-01-15, https://constance-de-salm.de/archiv/#/document/7205 #onthisday</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6349,17 +6349,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2030-1-16</t>
+          <t>2030-01-16</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>08:44:52</t>
+          <t>14:10:24</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur le baron, les notes dont je vous ai parlé, et qui sont, comme vous le verrez, extraites de plusieurs articles ..." à Ladoucette, 1836-01-16, https://constance-de-salm.de/archiv/#/document/9690 #onthisday</t>
+          <t>»Voici, Monsieur le baron, les notes dont je vous ai parlé, et qui sont, comme vous le verrez, extraites de plusieurs articles ...« à Ladoucette, 1836-01-16, https://constance-de-salm.de/archiv/#/document/9690 #onthisday</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6376,17 +6376,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2030-1-18</t>
+          <t>2030-01-18</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>10:06:33</t>
+          <t>10:08:56</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>"J'ai reçu vos deux lettres, Monsieur, et c'est avec un bien grand plaisir que j'ai appris par la dernière l'heureux événement ..." à Mirault, 1840-01-18, https://constance-de-salm.de/archiv/#/document/8148 #onthisday</t>
+          <t>»J'ai reçu vos deux lettres, Monsieur, et c'est avec un bien grand plaisir que j'ai appris par la dernière l'heureux événement ...« à Mirault, 1840-01-18, https://constance-de-salm.de/archiv/#/document/8148 #onthisday</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6403,17 +6403,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2030-1-21</t>
+          <t>2030-01-21</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>11:19:17</t>
+          <t>11:30:32</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>"Je vous écrit un mot, Monsieur, rien qu'un mot, pour vous dire que je serai demain à Aix-la-Chapelle ..." à Sanson de Pongerville, 1838-01-21, https://constance-de-salm.de/archiv/#/document/7886 #onthisday</t>
+          <t>»Je vous écrit un mot, Monsieur, rien qu'un mot, pour vous dire que je serai demain à Aix-la-Chapelle ...« à Sanson de Pongerville, 1838-01-21, https://constance-de-salm.de/archiv/#/document/7886 #onthisday</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2030-2-5</t>
+          <t>2030-02-05</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>17:40:45</t>
+          <t>08:44:40</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur, je puis vous annoncer mon retour dans mon cher pays ..." à Sanson de Pongerville, 1840-02-05, https://constance-de-salm.de/archiv/#/document/8153 #onthisday</t>
+          <t>»Enfin, Monsieur, je puis vous annoncer mon retour dans mon cher pays ...« à Sanson de Pongerville, 1840-02-05, https://constance-de-salm.de/archiv/#/document/8153 #onthisday</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6457,17 +6457,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2030-2-8</t>
+          <t>2030-02-08</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>15:32:39</t>
+          <t>15:51:43</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>"Il y a déjà bien longtemps, Madame, que j'ai reçu votre dernière lettre toute bonne et toute amicale ..." à Maleszewski, 1839-02-08, https://constance-de-salm.de/archiv/#/document/7997 #onthisday</t>
+          <t>»Il y a déjà bien longtemps, Madame, que j'ai reçu votre dernière lettre toute bonne et toute amicale ...« à Maleszewski, 1839-02-08, https://constance-de-salm.de/archiv/#/document/7997 #onthisday</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2030-2-11</t>
+          <t>2030-02-11</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>10:15:17</t>
+          <t>11:19:03</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>"Vous m'avez dit, Monsieur, que vous deviez vous trouver aujourd'hui (je crois) ..." à Sanson de Pongerville, 1839-02-11, https://constance-de-salm.de/archiv/#/document/8002 #onthisday</t>
+          <t>»Vous m'avez dit, Monsieur, que vous deviez vous trouver aujourd'hui (je crois) ...« à Sanson de Pongerville, 1839-02-11, https://constance-de-salm.de/archiv/#/document/8002 #onthisday</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6511,17 +6511,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2030-2-15</t>
+          <t>2030-02-15</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>08:21:50</t>
+          <t>14:26:02</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire, Monsieur le baron, à quel point je regrette que l’indisposition de Madame de Ladoucette vous prive ..." à Ladoucette, 1836-02-15, https://constance-de-salm.de/archiv/#/document/9703 #onthisday</t>
+          <t>»Je ne puis vous dire, Monsieur le baron, à quel point je regrette que l’indisposition de Madame de Ladoucette vous prive ...« à Ladoucette, 1836-02-15, https://constance-de-salm.de/archiv/#/document/9703 #onthisday</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6538,17 +6538,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2030-2-19</t>
+          <t>2030-02-19</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>18:24:48</t>
+          <t>17:57:05</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>"J’ai fait part à Monsieur de Pongerville, Monsieur, du désir que vous aviez de mettre ..." à Montferrand, 1836-02-19, https://constance-de-salm.de/archiv/#/document/9708 #onthisday</t>
+          <t>»J’ai fait part à Monsieur de Pongerville, Monsieur, du désir que vous aviez de mettre ...« à Montferrand, 1836-02-19, https://constance-de-salm.de/archiv/#/document/9708 #onthisday</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6565,17 +6565,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2030-2-20</t>
+          <t>2030-02-20</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>15:01:27</t>
+          <t>11:02:04</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>"Dites-moi, Monsieur, si ce n'est pas une très grand indiscrétion (et surtout dans ce moment) de vous prier ..." à Sauvo, 1839-02-20, https://constance-de-salm.de/archiv/#/document/8005 #onthisday</t>
+          <t>»Dites-moi, Monsieur, si ce n'est pas une très grand indiscrétion (et surtout dans ce moment) de vous prier ...« à Sauvo, 1839-02-20, https://constance-de-salm.de/archiv/#/document/8005 #onthisday</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6592,17 +6592,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2030-2-21</t>
+          <t>2030-02-21</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>09:50:55</t>
+          <t>14:53:20</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>"Quoique je croie avoir bien expliqué au domestique de Monsieur de Pongerville ..." à Sanson de Pongerville, 1840-02-21, https://constance-de-salm.de/archiv/#/document/8158 #onthisday</t>
+          <t>»Quoique je croie avoir bien expliqué au domestique de Monsieur de Pongerville ...« à Sanson de Pongerville, 1840-02-21, https://constance-de-salm.de/archiv/#/document/8158 #onthisday</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6619,17 +6619,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2030-2-23</t>
+          <t>2030-02-23</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16:46:27</t>
+          <t>17:17:21</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>"Donnez moi, je vous prie, Monsieur le comte, ou venez me donner des nouvelles ..." à Maison, 1840-02-23, https://constance-de-salm.de/archiv/#/document/8161 #onthisday</t>
+          <t>»Donnez moi, je vous prie, Monsieur le comte, ou venez me donner des nouvelles ...« à Maison, 1840-02-23, https://constance-de-salm.de/archiv/#/document/8161 #onthisday</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6646,17 +6646,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2030-2-26</t>
+          <t>2030-02-26</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:08:14</t>
+          <t>18:08:26</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>"J'ai assez mal dormi cette nuit, Monsieur et Madame, et j'ai fort pensé à la petite réclamation ..." à Sanson de Pongerville, 1842-02-26, https://constance-de-salm.de/archiv/#/document/11259 #onthisday</t>
+          <t>»J'ai assez mal dormi cette nuit, Monsieur et Madame, et j'ai fort pensé à la petite réclamation ...« à Sanson de Pongerville, 1842-02-26, https://constance-de-salm.de/archiv/#/document/11259 #onthisday</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6673,17 +6673,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2030-2-27</t>
+          <t>2030-02-27</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>09:10:11</t>
+          <t>12:29:53</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>"Je n'entends point parler de mes épreuves de notes ..." à Didot, 1841-02-27, https://constance-de-salm.de/archiv/#/document/7211 #onthisday</t>
+          <t>»Je n'entends point parler de mes épreuves de notes ...« à Didot, 1841-02-27, https://constance-de-salm.de/archiv/#/document/7211 #onthisday</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6700,17 +6700,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2030-3-2</t>
+          <t>2030-03-02</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>09:00:21</t>
+          <t>09:41:44</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>"Félix, qui a été chez ma belle-sœur, il y a quelques jours, cher frère, m’a dit que ..." à Théis, 1842-03-02, https://constance-de-salm.de/archiv/#/document/10977 #onthisday</t>
+          <t>»Félix, qui a été chez ma belle-sœur, il y a quelques jours, cher frère, m’a dit que ...« à Théis, 1842-03-02, https://constance-de-salm.de/archiv/#/document/10977 #onthisday</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6727,17 +6727,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2030-3-5</t>
+          <t>2030-03-05</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>17:38:26</t>
+          <t>09:39:32</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>"Me trouvant un peu mieux portante depuis 2 jours, ma chère sœur, je suis sortie hier vers 4 heures ..." à Théis, 1842-03-05, https://constance-de-salm.de/archiv/#/document/7587 #onthisday</t>
+          <t>»Me trouvant un peu mieux portante depuis 2 jours, ma chère sœur, je suis sortie hier vers 4 heures ...« à Théis, 1842-03-05, https://constance-de-salm.de/archiv/#/document/7587 #onthisday</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6754,17 +6754,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2030-3-6</t>
+          <t>2030-03-06</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>14:16:26</t>
+          <t>16:55:17</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, le bulletin de la santé de Constant aujourd’hui ..." à Drais, 1835-03-06, https://constance-de-salm.de/archiv/#/document/9579 #onthisday</t>
+          <t>»Voici, Monsieur, le bulletin de la santé de Constant aujourd’hui ...« à Drais, 1835-03-06, https://constance-de-salm.de/archiv/#/document/9579 #onthisday</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6781,17 +6781,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2030-3-8</t>
+          <t>2030-03-08</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>10:26:29</t>
+          <t>11:43:21</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>"Lorsque vous avez été partie [sic] hier, chère et aimable dame, j’ai regrettée [sic], tout à coup ..." à Waldor, 1837-03-08, https://constance-de-salm.de/archiv/#/document/11272 #onthisday</t>
+          <t>»Lorsque vous avez été partie [sic] hier, chère et aimable dame, j’ai regrettée [sic], tout à coup ...« à Waldor, 1837-03-08, https://constance-de-salm.de/archiv/#/document/11272 #onthisday</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6808,17 +6808,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2030-3-9</t>
+          <t>2030-03-09</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>17:10:23</t>
+          <t>11:52:45</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>"Quand vous m’avez prié hier, Monsieur, d’écrire que j’accepterais volontiers votre tout honorable proposition ..." à Paillet, 1836-03-09, https://constance-de-salm.de/archiv/#/document/9717 #onthisday</t>
+          <t>»Quand vous m’avez prié hier, Monsieur, d’écrire que j’accepterais volontiers votre tout honorable proposition ...« à Paillet, 1836-03-09, https://constance-de-salm.de/archiv/#/document/9717 #onthisday</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6835,17 +6835,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2030-3-10</t>
+          <t>2030-03-10</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>10:42:21</t>
+          <t>12:50:14</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>"J'ai tellement souffert cette nuit, Monsieur, que le désir de terminer promptement mon édition ..." à Drais, 1839-03-10, https://constance-de-salm.de/archiv/#/document/8010 #onthisday</t>
+          <t>»J'ai tellement souffert cette nuit, Monsieur, que le désir de terminer promptement mon édition ...« à Drais, 1839-03-10, https://constance-de-salm.de/archiv/#/document/8010 #onthisday</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6862,17 +6862,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2030-3-12</t>
+          <t>2030-03-12</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>13:55:43</t>
+          <t>10:31:31</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>"Je n'ai pu dormir cette nuit, ma chère amie, j'ai été sans cesse agitée par la crainte que Félix ..." à Francq, 1844-03-12, https://constance-de-salm.de/archiv/#/document/7605 #onthisday</t>
+          <t>»Je n'ai pu dormir cette nuit, ma chère amie, j'ai été sans cesse agitée par la crainte que Félix ...« à Francq, 1844-03-12, https://constance-de-salm.de/archiv/#/document/7605 #onthisday</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6889,17 +6889,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2030-3-14</t>
+          <t>2030-03-14</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>15:55:35</t>
+          <t>14:23:11</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>"Je regrette vivement, Monsieur, de ne pouvoir assister demain à votre belle séance ..." à Tissot, 1836-03-14, https://constance-de-salm.de/archiv/#/document/9723 #onthisday</t>
+          <t>»Je regrette vivement, Monsieur, de ne pouvoir assister demain à votre belle séance ...« à Tissot, 1836-03-14, https://constance-de-salm.de/archiv/#/document/9723 #onthisday</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6916,17 +6916,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2030-3-15</t>
+          <t>2030-03-15</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>19:38:01</t>
+          <t>17:36:27</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>"Votre bonne, votre excellente lettre que j'ai reçue hier, Monsieur, m'a fait le plus grand plaisir ..." à Villenave, 1840-03-15, https://constance-de-salm.de/archiv/#/document/8162 #onthisday</t>
+          <t>»Votre bonne, votre excellente lettre que j'ai reçue hier, Monsieur, m'a fait le plus grand plaisir ...« à Villenave, 1840-03-15, https://constance-de-salm.de/archiv/#/document/8162 #onthisday</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6943,17 +6943,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2030-3-20</t>
+          <t>2030-03-20</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>08:44:00</t>
+          <t>09:02:13</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>"Je ne puis vous dire assez, mon cher Docteur, combien je suis fâchée de vous savoir malade et dans toutes les horreurs des consultations ..." à Gall, 1827-03-20, https://constance-de-salm.de/archiv/#/document/9062 #onthisday</t>
+          <t>»Je ne puis vous dire assez, mon cher Docteur, combien je suis fâchée de vous savoir malade et dans toutes les horreurs des consultations ...« à Gall, 1827-03-20, https://constance-de-salm.de/archiv/#/document/9062 #onthisday</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6970,17 +6970,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2030-3-24</t>
+          <t>2030-03-24</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>14:24:23</t>
+          <t>16:55:43</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>"On m’a remis ta lettre à mon arrivée ici, cher frère, elle m’a fait le plus grand plaisir ..." à Théis, 1840-03-24, https://constance-de-salm.de/archiv/#/document/10940 #onthisday</t>
+          <t>»On m’a remis ta lettre à mon arrivée ici, cher frère, elle m’a fait le plus grand plaisir ...« à Théis, 1840-03-24, https://constance-de-salm.de/archiv/#/document/10940 #onthisday</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6997,17 +6997,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2030-3-25</t>
+          <t>2030-03-25</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>15:43:53</t>
+          <t>16:19:54</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm envoye à Monsieur Boulay de la Meurthe l'exemplaire de la petite édition de ses ouvrages ..." à Boulay de la Meurthe, 1839-03-25, https://constance-de-salm.de/archiv/#/document/8016 #onthisday</t>
+          <t>»La Princesse de Salm envoye à Monsieur Boulay de la Meurthe l'exemplaire de la petite édition de ses ouvrages ...« à Boulay de la Meurthe, 1839-03-25, https://constance-de-salm.de/archiv/#/document/8016 #onthisday</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7024,17 +7024,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2030-3-29</t>
+          <t>2030-03-29</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>12:14:39</t>
+          <t>10:05:57</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>"Je me porte un peu moins mal aujourd’hui qu’hier ..." à Théis, 1842-03-29, https://constance-de-salm.de/archiv/#/document/10982 #onthisday</t>
+          <t>»Je me porte un peu moins mal aujourd’hui qu’hier ...« à Théis, 1842-03-29, https://constance-de-salm.de/archiv/#/document/10982 #onthisday</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7051,17 +7051,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2030-3-30</t>
+          <t>2030-03-30</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>14:44:00</t>
+          <t>11:10:54</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>"Rien ne peut m'être plus agréable, Monsieur, que le projet que vous avez ..." à Villenave, 1837-03-30, https://constance-de-salm.de/archiv/#/document/7748 #onthisday</t>
+          <t>»Rien ne peut m'être plus agréable, Monsieur, que le projet que vous avez ...« à Villenave, 1837-03-30, https://constance-de-salm.de/archiv/#/document/7748 #onthisday</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7078,17 +7078,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2030-3-30</t>
+          <t>2030-03-30</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>12:27:58</t>
+          <t>08:50:25</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, vos très agréables stances, et je les ai lues avec beaucoup de plaisir ..." à Fayolle, 1837-03-30, https://constance-de-salm.de/archiv/#/document/7747 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, vos très agréables stances, et je les ai lues avec beaucoup de plaisir ...« à Fayolle, 1837-03-30, https://constance-de-salm.de/archiv/#/document/7747 #onthisday</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7105,17 +7105,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2030-4-1</t>
+          <t>2030-04-01</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>17:19:00</t>
+          <t>14:04:10</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>"Je veux dire 3 choses à Monsieur et Madame de Pongerville ..." à Sanson de Pongerville, 1839-04-01, https://constance-de-salm.de/archiv/#/document/8017 #onthisday</t>
+          <t>»Je veux dire 3 choses à Monsieur et Madame de Pongerville ...« à Sanson de Pongerville, 1839-04-01, https://constance-de-salm.de/archiv/#/document/8017 #onthisday</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7132,17 +7132,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2030-4-2</t>
+          <t>2030-04-02</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>10:14:29</t>
+          <t>13:40:21</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>"D'après ce que me dit ce bon Monsieur D., très aimable dame, je crains qu'il n'ait pas bien compris ce que je l'avais chargé de vous expliquer ..." à Vien, 1837-04-02, https://constance-de-salm.de/archiv/#/document/7756 #onthisday</t>
+          <t>»D'après ce que me dit ce bon Monsieur D., très aimable dame, je crains qu'il n'ait pas bien compris ce que je l'avais chargé de vous expliquer ...« à Vien, 1837-04-02, https://constance-de-salm.de/archiv/#/document/7756 #onthisday</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7159,17 +7159,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2030-4-3</t>
+          <t>2030-04-03</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>18:46:09</t>
+          <t>16:58:35</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>"Voulez vous bien, Monsieur, demander de ma part à Roosmalen 2 nouveaux billets du cercle ..." à Jullien de Paris, 1839-04-03, https://constance-de-salm.de/archiv/#/document/8019 #onthisday</t>
+          <t>»Voulez vous bien, Monsieur, demander de ma part à Roosmalen 2 nouveaux billets du cercle ...« à Jullien de Paris, 1839-04-03, https://constance-de-salm.de/archiv/#/document/8019 #onthisday</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7186,17 +7186,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2030-4-4</t>
+          <t>2030-04-04</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>10:22:25</t>
+          <t>10:04:25</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, ma chère amie, votre bonne grande lettre du 30 mars, et je l’ai lue avec un bien vif intérêt ..." à Francq, 1844-04-04, https://constance-de-salm.de/archiv/#/document/5314 #onthisday</t>
+          <t>»J’ai reçu hier, ma chère amie, votre bonne grande lettre du 30 mars, et je l’ai lue avec un bien vif intérêt ...« à Francq, 1844-04-04, https://constance-de-salm.de/archiv/#/document/5314 #onthisday</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7213,17 +7213,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2030-4-5</t>
+          <t>2030-04-05</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>15:47:38</t>
+          <t>08:24:01</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>"J’ai repensé ce matin, mon cher voisin, à ce que vous me disiez hier sur une pétition que l’on vous propose de faire en faveur de l’éducation des femmes ..." à Ladoucette, 1842-04-05, https://constance-de-salm.de/archiv/#/document/11252 #onthisday</t>
+          <t>»J’ai repensé ce matin, mon cher voisin, à ce que vous me disiez hier sur une pétition que l’on vous propose de faire en faveur de l’éducation des femmes ...« à Ladoucette, 1842-04-05, https://constance-de-salm.de/archiv/#/document/11252 #onthisday</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7240,17 +7240,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2030-4-6</t>
+          <t>2030-04-06</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>14:56:33</t>
+          <t>14:46:41</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>"J'étais encore au lit, et fort souffrante Monsieur, lorsque l'on m'a remis votre lettre ..." à Roguet. comte Christophe Michel (Schwiegersohn von Jean Charles François de Ladoucette), 1840-04-06, https://constance-de-salm.de/archiv/#/document/8165 #onthisday</t>
+          <t>»J'étais encore au lit, et fort souffrante Monsieur, lorsque l'on m'a remis votre lettre ...« à Roguet. comte Christophe Michel (Schwiegersohn von Jean Charles François de Ladoucette), 1840-04-06, https://constance-de-salm.de/archiv/#/document/8165 #onthisday</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7267,17 +7267,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2030-4-7</t>
+          <t>2030-04-07</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>11:55:50</t>
+          <t>15:29:12</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>"J’étais si souffrante et, en même temps, si près de mon départ lorsque j’ai reçu votre aimable lettre, Madame la comtesse, que j’ai remis à mon arrivée ici d’y répondre ..." à Arnim-Boitzenburg, 1835-04-07, https://constance-de-salm.de/archiv/#/document/9593 #onthisday</t>
+          <t>»J’étais si souffrante et, en même temps, si près de mon départ lorsque j’ai reçu votre aimable lettre, Madame la comtesse, que j’ai remis à mon arrivée ici d’y répondre ...« à Arnim-Boitzenburg, 1835-04-07, https://constance-de-salm.de/archiv/#/document/9593 #onthisday</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7294,17 +7294,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2030-4-8</t>
+          <t>2030-04-08</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>12:19:56</t>
+          <t>17:01:33</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier ta lettre du 4, mon cher Félix, et j’ai été charmée d’avoir de vos nouvelles qui me paraissent bonnes: ..." à Francq, 1844-04-08, https://constance-de-salm.de/archiv/#/document/5315 #onthisday</t>
+          <t>»J’ai reçu hier ta lettre du 4, mon cher Félix, et j’ai été charmée d’avoir de vos nouvelles qui me paraissent bonnes: ...« à Francq, 1844-04-08, https://constance-de-salm.de/archiv/#/document/5315 #onthisday</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7321,17 +7321,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2030-4-9</t>
+          <t>2030-04-09</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>15:17:44</t>
+          <t>18:58:47</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>"Monsieur Jomard m'a dit hier que Monsieur et Madame de Pongerville se proposaient de partir bientôt pour Nanterre ..." à Sanson de Pongerville, 1841-04-09, https://constance-de-salm.de/archiv/#/document/7229 #onthisday</t>
+          <t>»Monsieur Jomard m'a dit hier que Monsieur et Madame de Pongerville se proposaient de partir bientôt pour Nanterre ...« à Sanson de Pongerville, 1841-04-09, https://constance-de-salm.de/archiv/#/document/7229 #onthisday</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7348,17 +7348,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2030-4-11</t>
+          <t>2030-04-11</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>19:09:08</t>
+          <t>17:45:17</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre lettre, Monsieur, quelque tems [sic] après mon arrivée ici ..." à Fayolle, 1842-04-11, https://constance-de-salm.de/archiv/#/document/11245 #onthisday</t>
+          <t>»J’ai reçu votre lettre, Monsieur, quelque tems [sic] après mon arrivée ici ...« à Fayolle, 1842-04-11, https://constance-de-salm.de/archiv/#/document/11245 #onthisday</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7375,17 +7375,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2030-4-12</t>
+          <t>2030-04-12</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>11:28:55</t>
+          <t>10:07:25</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>"C’est à toi, mon cher Félix, que j’écris aujourd’hui pour vous tenir tous deux au courant de ce que nous faisons et surtout de mes projets de départ ..." à Francq, 1844-04-12, https://constance-de-salm.de/archiv/#/document/5316 #onthisday</t>
+          <t>»C’est à toi, mon cher Félix, que j’écris aujourd’hui pour vous tenir tous deux au courant de ce que nous faisons et surtout de mes projets de départ ...« à Francq, 1844-04-12, https://constance-de-salm.de/archiv/#/document/5316 #onthisday</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7402,17 +7402,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2030-4-13</t>
+          <t>2030-04-13</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>08:48:09</t>
+          <t>13:45:14</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>"Je vous ai fait envoyer hier, Monsieur, la signification du jugement que j’ai reçue à Dyck ..." à Pailliet, 1837-04-13, https://constance-de-salm.de/archiv/#/document/11373 #onthisday</t>
+          <t>»Je vous ai fait envoyer hier, Monsieur, la signification du jugement que j’ai reçue à Dyck ...« à Pailliet, 1837-04-13, https://constance-de-salm.de/archiv/#/document/11373 #onthisday</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7429,17 +7429,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2030-4-13</t>
+          <t>2030-04-13</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>12:12:18</t>
+          <t>10:14:42</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>"Je m'empresse d'envoyer au général Saint-Mars une note qui m'est adressée par un de mes amis, le baron de Ladoucette ..." à Saint-Mars, 1839-04-13, https://constance-de-salm.de/archiv/#/document/8023 #onthisday</t>
+          <t>»Je m'empresse d'envoyer au général Saint-Mars une note qui m'est adressée par un de mes amis, le baron de Ladoucette ...« à Saint-Mars, 1839-04-13, https://constance-de-salm.de/archiv/#/document/8023 #onthisday</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7456,17 +7456,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2030-4-14</t>
+          <t>2030-04-14</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>19:07:51</t>
+          <t>11:25:31</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>"Je reçois votre seconde lettre, mon ancienne amie, et j'y réponds à l'instant; je me reproche bien ..." à Salis, 1841-04-14, https://constance-de-salm.de/archiv/#/document/10375 #onthisday</t>
+          <t>»Je reçois votre seconde lettre, mon ancienne amie, et j'y réponds à l'instant; je me reproche bien ...« à Salis, 1841-04-14, https://constance-de-salm.de/archiv/#/document/10375 #onthisday</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7483,17 +7483,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2030-4-15</t>
+          <t>2030-04-15</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>15:34:06</t>
+          <t>09:40:22</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>"J’ai reçu votre bonne lettre, mon ancienne amie, je me la suis fait lire; ..." à Salis, 1843-04-15, https://constance-de-salm.de/archiv/#/document/10447 #onthisday</t>
+          <t>»J’ai reçu votre bonne lettre, mon ancienne amie, je me la suis fait lire; ...« à Salis, 1843-04-15, https://constance-de-salm.de/archiv/#/document/10447 #onthisday</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7510,17 +7510,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2030-4-16</t>
+          <t>2030-04-16</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>17:43:49</t>
+          <t>14:20:42</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>"Si vous êtes libre demain à 7 heures Monsieur, je vous engage à venir dîner 7avec nous ..." à Villenave, 1841-04-16, https://constance-de-salm.de/archiv/#/document/7232 #onthisday</t>
+          <t>»Si vous êtes libre demain à 7 heures Monsieur, je vous engage à venir dîner 7avec nous ...« à Villenave, 1841-04-16, https://constance-de-salm.de/archiv/#/document/7232 #onthisday</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7537,17 +7537,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2030-4-17</t>
+          <t>2030-04-17</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>19:19:21</t>
+          <t>16:52:04</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>"Lorsque vous êtes venu hier, Monsieur, j'étais si occupée des petites erreurs de l'article ..." à Sanson de Pongerville, 1839-04-17, https://constance-de-salm.de/archiv/#/document/8026 #onthisday</t>
+          <t>»Lorsque vous êtes venu hier, Monsieur, j'étais si occupée des petites erreurs de l'article ...« à Sanson de Pongerville, 1839-04-17, https://constance-de-salm.de/archiv/#/document/8026 #onthisday</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7564,17 +7564,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2030-4-20</t>
+          <t>2030-04-20</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>13:49:44</t>
+          <t>14:22:17</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>"Je veux vous dire moi-même, Monsieur, que je pars enfin ..." à Jullien de Paris, 1831-04-20, https://constance-de-salm.de/archiv/#/document/6350 #onthisday</t>
+          <t>»Je veux vous dire moi-même, Monsieur, que je pars enfin ...« à Jullien de Paris, 1831-04-20, https://constance-de-salm.de/archiv/#/document/6350 #onthisday</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7591,17 +7591,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2030-4-20</t>
+          <t>2030-04-20</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>14:49:53</t>
+          <t>13:12:23</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>"Pour qu'il ne soit pas dit, Monsieur, que je n'ai rien répondu à la toute aimable lettre que vous m'avez adressée dans ce pays ..." à Sanson de Pongerville, 1832-04-20, https://constance-de-salm.de/archiv/#/document/5405 #onthisday</t>
+          <t>»Pour qu'il ne soit pas dit, Monsieur, que je n'ai rien répondu à la toute aimable lettre que vous m'avez adressée dans ce pays ...« à Sanson de Pongerville, 1832-04-20, https://constance-de-salm.de/archiv/#/document/5405 #onthisday</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7618,17 +7618,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2030-4-23</t>
+          <t>2030-04-23</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>08:32:33</t>
+          <t>09:14:45</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>"Enfin, Monsieur et véritable ami, je peux vous écrire, au moins, quelques lignes, non encore pour vous annoncer le jour de mon départ ..." à Villenave, 1844-04-23, https://constance-de-salm.de/archiv/#/document/7535 #onthisday</t>
+          <t>»Enfin, Monsieur et véritable ami, je peux vous écrire, au moins, quelques lignes, non encore pour vous annoncer le jour de mon départ ...« à Villenave, 1844-04-23, https://constance-de-salm.de/archiv/#/document/7535 #onthisday</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7645,17 +7645,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2030-4-24</t>
+          <t>2030-04-24</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>18:12:12</t>
+          <t>18:30:07</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>"J’apprends par plusieurs personnes, cher frère, que tu vas venir à Paris ..." à Théis, 1841-04-24, https://constance-de-salm.de/archiv/#/document/10950 #onthisday</t>
+          <t>»J’apprends par plusieurs personnes, cher frère, que tu vas venir à Paris ...« à Théis, 1841-04-24, https://constance-de-salm.de/archiv/#/document/10950 #onthisday</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7672,17 +7672,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2030-4-25</t>
+          <t>2030-04-25</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>09:11:46</t>
+          <t>11:30:14</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>"Si vous voulez pécher avec nous vendredi, j'entends pécher comme les douze apôtres ..." à Ladoucette, 1838-04-25, https://constance-de-salm.de/archiv/#/document/7907 #onthisday</t>
+          <t>»Si vous voulez pécher avec nous vendredi, j'entends pécher comme les douze apôtres ...« à Ladoucette, 1838-04-25, https://constance-de-salm.de/archiv/#/document/7907 #onthisday</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7699,17 +7699,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2030-4-26</t>
+          <t>2030-04-26</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>12:03:15</t>
+          <t>10:11:25</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>"Vous aurez à peine aujourd’hui le temps de lire ce billet, très aimable dame ..." à Waldor, 1841-04-26, https://constance-de-salm.de/archiv/#/document/8421 #onthisday</t>
+          <t>»Vous aurez à peine aujourd’hui le temps de lire ce billet, très aimable dame ...« à Waldor, 1841-04-26, https://constance-de-salm.de/archiv/#/document/8421 #onthisday</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7726,17 +7726,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2030-4-27</t>
+          <t>2030-04-27</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>17:35:07</t>
+          <t>12:45:08</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>"J’ai été bien longems, Monsieur, sans vous annoncer que j’avais reçu le journal allemand que vous m’avez envoyé ..." à Ritz, 1842-04-27, https://constance-de-salm.de/archiv/#/document/11297 #onthisday</t>
+          <t>»J’ai été bien longems, Monsieur, sans vous annoncer que j’avais reçu le journal allemand que vous m’avez envoyé ...« à Ritz, 1842-04-27, https://constance-de-salm.de/archiv/#/document/11297 #onthisday</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7753,17 +7753,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2030-4-29</t>
+          <t>2030-04-29</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>08:27:02</t>
+          <t>10:00:03</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, mon cher Félix, ta dernière lettre du 25; tu m'y paraissais un peu triste ..." à Francq, 1844-04-29, https://constance-de-salm.de/archiv/#/document/5318 #onthisday</t>
+          <t>»J'ai reçu hier, mon cher Félix, ta dernière lettre du 25; tu m'y paraissais un peu triste ...« à Francq, 1844-04-29, https://constance-de-salm.de/archiv/#/document/5318 #onthisday</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7780,17 +7780,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2030-5-1</t>
+          <t>2030-05-01</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>17:52:19</t>
+          <t>09:12:41</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>"Quoique je sois encore fort souffrante, Monsieur, je commence pourtant à me mieux porter ..." à Barbier, 1840-05-01, https://constance-de-salm.de/archiv/#/document/8173 #onthisday</t>
+          <t>»Quoique je sois encore fort souffrante, Monsieur, je commence pourtant à me mieux porter ...« à Barbier, 1840-05-01, https://constance-de-salm.de/archiv/#/document/8173 #onthisday</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7807,17 +7807,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2030-5-2</t>
+          <t>2030-05-02</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>14:49:46</t>
+          <t>19:16:12</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>"Si Monsieur Barbier pouvait me prêter, pour un ou deux jours, Les Pensées de La Rochefoucauld ..." à Barbier, 1841-05-02, https://constance-de-salm.de/archiv/#/document/7237 #onthisday</t>
+          <t>»Si Monsieur Barbier pouvait me prêter, pour un ou deux jours, Les Pensées de La Rochefoucauld ...« à Barbier, 1841-05-02, https://constance-de-salm.de/archiv/#/document/7237 #onthisday</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7834,17 +7834,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2030-5-3</t>
+          <t>2030-05-03</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>16:11:55</t>
+          <t>09:48:24</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>"Ma chère cousine, le fils de Monsieur de Ladoucette, jeune homme très intéressant, qui se trouve, dans ce moment, en garnison ..." à Méricourt, 1836-05-03, https://constance-de-salm.de/archiv/#/document/9740 #onthisday</t>
+          <t>»Ma chère cousine, le fils de Monsieur de Ladoucette, jeune homme très intéressant, qui se trouve, dans ce moment, en garnison ...« à Méricourt, 1836-05-03, https://constance-de-salm.de/archiv/#/document/9740 #onthisday</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7861,17 +7861,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2030-5-5</t>
+          <t>2030-05-05</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>19:12:16</t>
+          <t>16:05:35</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>"Nous nous perdons tout à fait de vue, Madame et ancienne amie, et il est si peu dans mon caractère ..." à Salis, 1829-05-05, https://constance-de-salm.de/archiv/#/document/10344 #onthisday</t>
+          <t>»Nous nous perdons tout à fait de vue, Madame et ancienne amie, et il est si peu dans mon caractère ...« à Salis, 1829-05-05, https://constance-de-salm.de/archiv/#/document/10344 #onthisday</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7888,17 +7888,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2030-5-6</t>
+          <t>2030-05-06</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>18:25:18</t>
+          <t>12:20:40</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>"Je me hâte de t'écrire, mon cher Félix, pour te parler d'une nouvelle circonstance qui nous force à retarder encore notre départ d'un jour ou d'un jour et demi ..." à Francq, 1844-05-06, https://constance-de-salm.de/archiv/#/document/5319 #onthisday</t>
+          <t>»Je me hâte de t'écrire, mon cher Félix, pour te parler d'une nouvelle circonstance qui nous force à retarder encore notre départ d'un jour ou d'un jour et demi ...« à Francq, 1844-05-06, https://constance-de-salm.de/archiv/#/document/5319 #onthisday</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7915,17 +7915,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2030-5-7</t>
+          <t>2030-05-07</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>08:58:13</t>
+          <t>17:28:34</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>"Vous ne venez point, Monsieur; je n'entends point parler de vous ..." à Sanson de Pongerville, 1840-05-07, https://constance-de-salm.de/archiv/#/document/8176 #onthisday</t>
+          <t>»Vous ne venez point, Monsieur; je n'entends point parler de vous ...« à Sanson de Pongerville, 1840-05-07, https://constance-de-salm.de/archiv/#/document/8176 #onthisday</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7942,17 +7942,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2030-5-8</t>
+          <t>2030-05-08</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>18:47:40</t>
+          <t>11:58:48</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>"Si Monsieur le comte de Comminges est libre lundi prochain ..." à Comminges, 1840-05-08, https://constance-de-salm.de/archiv/#/document/8177 #onthisday</t>
+          <t>»Si Monsieur le comte de Comminges est libre lundi prochain ...« à Comminges, 1840-05-08, https://constance-de-salm.de/archiv/#/document/8177 #onthisday</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7969,17 +7969,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2030-5-10</t>
+          <t>2030-05-10</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>14:44:21</t>
+          <t>15:49:45</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>"En me rappelant ce que je vous avais dit hier, Monsieur, sur la personne dont vous m'avez parlé ..." à Jomard, 1841-05-10, https://constance-de-salm.de/archiv/#/document/7240 #onthisday</t>
+          <t>»En me rappelant ce que je vous avais dit hier, Monsieur, sur la personne dont vous m'avez parlé ...« à Jomard, 1841-05-10, https://constance-de-salm.de/archiv/#/document/7240 #onthisday</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7996,17 +7996,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2030-5-12</t>
+          <t>2030-05-12</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>08:03:35</t>
+          <t>12:32:21</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>"Je suis si souffrante aujourd'hui, mon cher voisin, qu'en vous envoyant mes biographies j'ai oublié net d'y joindre les citations ..." à Ladoucette, 1842-05-12, https://constance-de-salm.de/archiv/#/document/11260 #onthisday</t>
+          <t>»Je suis si souffrante aujourd'hui, mon cher voisin, qu'en vous envoyant mes biographies j'ai oublié net d'y joindre les citations ...« à Ladoucette, 1842-05-12, https://constance-de-salm.de/archiv/#/document/11260 #onthisday</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8023,17 +8023,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2030-5-13</t>
+          <t>2030-05-13</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>12:18:55</t>
+          <t>17:15:07</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>"Sire, j'ai l'honneur d'offrir à Votre Majesté une notice que je viens de publier sur un de mes plus dignes amis ..." à Friedrich Wilhelm III., 1840-05-13, https://constance-de-salm.de/archiv/#/document/8179 #onthisday</t>
+          <t>»Sire, j'ai l'honneur d'offrir à Votre Majesté une notice que je viens de publier sur un de mes plus dignes amis ...« à Friedrich Wilhelm III., 1840-05-13, https://constance-de-salm.de/archiv/#/document/8179 #onthisday</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8050,17 +8050,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2030-5-14</t>
+          <t>2030-05-14</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16:35:54</t>
+          <t>10:42:38</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>"Je me suis levée à 5 heures, Monsieur, pour dicter à la hâte, et à travers les embarras du départ ..." à Berville, 1829-05-14, https://constance-de-salm.de/archiv/#/document/9385 #onthisday</t>
+          <t>»Je me suis levée à 5 heures, Monsieur, pour dicter à la hâte, et à travers les embarras du départ ...« à Berville, 1829-05-14, https://constance-de-salm.de/archiv/#/document/9385 #onthisday</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8077,17 +8077,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2030-5-15</t>
+          <t>2030-05-15</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>19:02:36</t>
+          <t>16:10:41</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>"Je suis chargée par un de mes vieux amis, mon cher voisin, d'une toute petite négociation ..." à Ladoucette, 1840-05-15, https://constance-de-salm.de/archiv/#/document/8180 #onthisday</t>
+          <t>»Je suis chargée par un de mes vieux amis, mon cher voisin, d'une toute petite négociation ...« à Ladoucette, 1840-05-15, https://constance-de-salm.de/archiv/#/document/8180 #onthisday</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8104,17 +8104,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2030-5-16</t>
+          <t>2030-05-16</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>11:18:08</t>
+          <t>17:30:42</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>"On me dit, mon ancien voisin et ami, que vous êtes fâché de n'avoir pas entendu parler de moi depuis mon arrivée ici ..." à Alibert, 1834-05-16, https://constance-de-salm.de/archiv/#/document/5565 #onthisday</t>
+          <t>»On me dit, mon ancien voisin et ami, que vous êtes fâché de n'avoir pas entendu parler de moi depuis mon arrivée ici ...« à Alibert, 1834-05-16, https://constance-de-salm.de/archiv/#/document/5565 #onthisday</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8131,17 +8131,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2030-5-16</t>
+          <t>2030-05-16</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>19:34:52</t>
+          <t>16:09:08</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>"Il y a déjà quelque temps que j'ai reçu votre excellente lettre, Monsieur ..." à Pailliet, 1837-05-16, https://constance-de-salm.de/archiv/#/document/7761 #onthisday</t>
+          <t>»Il y a déjà quelque temps que j'ai reçu votre excellente lettre, Monsieur ...« à Pailliet, 1837-05-16, https://constance-de-salm.de/archiv/#/document/7761 #onthisday</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8158,17 +8158,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2030-5-18</t>
+          <t>2030-05-18</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>19:15:30</t>
+          <t>10:06:44</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>"Mille remerciements pour le bon Villenave, mon cher voisin, et, aussi pour moi, d'après ce que vous me dites ..." à Ladoucette, 1840-05-18, https://constance-de-salm.de/archiv/#/document/8182 #onthisday</t>
+          <t>»Mille remerciements pour le bon Villenave, mon cher voisin, et, aussi pour moi, d'après ce que vous me dites ...« à Ladoucette, 1840-05-18, https://constance-de-salm.de/archiv/#/document/8182 #onthisday</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8185,17 +8185,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2030-5-19</t>
+          <t>2030-05-19</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>12:04:54</t>
+          <t>17:54:58</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>"J’envoie à Monsieur de Pongerville mes quatre petits volumes ..." à Sanson de Pongerville, 1836-05-19, https://constance-de-salm.de/archiv/#/document/9745 #onthisday</t>
+          <t>»J’envoie à Monsieur de Pongerville mes quatre petits volumes ...« à Sanson de Pongerville, 1836-05-19, https://constance-de-salm.de/archiv/#/document/9745 #onthisday</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8212,17 +8212,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2030-5-20</t>
+          <t>2030-05-20</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>19:58:41</t>
+          <t>16:45:17</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>"Madame, que vous dire de mon silence ? / Comment l’expliquer ? Je n’en sais rien ..." à Thurn und Taxis, 1825-05-20, https://constance-de-salm.de/archiv/#/document/3814 #onthisday</t>
+          <t>»Madame, que vous dire de mon silence ? / Comment l’expliquer ? Je n’en sais rien ...« à Thurn und Taxis, 1825-05-20, https://constance-de-salm.de/archiv/#/document/3814 #onthisday</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8239,17 +8239,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2030-5-20</t>
+          <t>2030-05-20</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>10:26:43</t>
+          <t>08:12:27</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>"J’ai reçu vos deux lettres, Monsieur, et je vous en fais tous mes remerciments [sic] ..." à Mirault, 1827-05-20, https://constance-de-salm.de/archiv/#/document/9080 #onthisday</t>
+          <t>»J’ai reçu vos deux lettres, Monsieur, et je vous en fais tous mes remerciments [sic] ...« à Mirault, 1827-05-20, https://constance-de-salm.de/archiv/#/document/9080 #onthisday</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8266,17 +8266,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2030-5-23</t>
+          <t>2030-05-23</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>12:34:18</t>
+          <t>15:49:16</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>"Un cousin de mes enfants a été chez vous de ma part, Monsieur, pour avoir de vos nouvelles et de celles de votre famille ..." à Audiffret, 1841-05-23, https://constance-de-salm.de/archiv/#/document/7417 #onthisday</t>
+          <t>»Un cousin de mes enfants a été chez vous de ma part, Monsieur, pour avoir de vos nouvelles et de celles de votre famille ...« à Audiffret, 1841-05-23, https://constance-de-salm.de/archiv/#/document/7417 #onthisday</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8293,17 +8293,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2030-5-24</t>
+          <t>2030-05-24</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>12:54:08</t>
+          <t>14:57:48</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>"La dame (secrétaire) que vous m'avez envoyée est venue hier, Madame: j'étais attendue par une visite ..." à Thurot, 1841-05-24, https://constance-de-salm.de/archiv/#/document/7418 #onthisday</t>
+          <t>»La dame (secrétaire) que vous m'avez envoyée est venue hier, Madame: j'étais attendue par une visite ...« à Thurot, 1841-05-24, https://constance-de-salm.de/archiv/#/document/7418 #onthisday</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8320,17 +8320,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2030-5-25</t>
+          <t>2030-05-25</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>08:23:39</t>
+          <t>16:07:46</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>"La Princesse de Salm envoie à Monsieur de Candolle un exemplaire de ses Oeuvres qu'elle destine ..." à Candolle, 1839-05-25, https://constance-de-salm.de/archiv/#/document/8034 #onthisday</t>
+          <t>»La Princesse de Salm envoie à Monsieur de Candolle un exemplaire de ses Oeuvres qu'elle destine ...« à Candolle, 1839-05-25, https://constance-de-salm.de/archiv/#/document/8034 #onthisday</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8347,17 +8347,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2030-5-26</t>
+          <t>2030-05-26</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>14:50:47</t>
+          <t>15:06:36</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>"Le temps s'avance et le moment arrive / Où je devrai quitter mon cher pays ..." à Sanson de Pongerville, 1841-05-26, https://constance-de-salm.de/archiv/#/document/7419 #onthisday</t>
+          <t>»Le temps s'avance et le moment arrive / Où je devrai quitter mon cher pays ...« à Sanson de Pongerville, 1841-05-26, https://constance-de-salm.de/archiv/#/document/7419 #onthisday</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8374,17 +8374,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2030-5-27</t>
+          <t>2030-05-27</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>17:11:30</t>
+          <t>15:26:36</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>"Je ne puis résister, Monsieur, au désir de vous répéter aujourd'hui une partie de ce que je vous ai dit hier ..." à Villenave, 1837-05-27, https://constance-de-salm.de/archiv/#/document/7768 #onthisday</t>
+          <t>»Je ne puis résister, Monsieur, au désir de vous répéter aujourd'hui une partie de ce que je vous ai dit hier ...« à Villenave, 1837-05-27, https://constance-de-salm.de/archiv/#/document/7768 #onthisday</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8401,17 +8401,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2030-5-28</t>
+          <t>2030-05-28</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>17:24:01</t>
+          <t>11:07:23</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>"Je vous remercie beaucoup, Monsieur, de l'ouvrage que vous m'avez fait le plaisir de m'envoyer ..." à Roosmalen, 1840-05-28, https://constance-de-salm.de/archiv/#/document/8188 #onthisday</t>
+          <t>»Je vous remercie beaucoup, Monsieur, de l'ouvrage que vous m'avez fait le plaisir de m'envoyer ...« à Roosmalen, 1840-05-28, https://constance-de-salm.de/archiv/#/document/8188 #onthisday</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8428,17 +8428,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2030-5-29</t>
+          <t>2030-05-29</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>19:20:11</t>
+          <t>17:27:26</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>"Monsieur le baron, j’ai eu l’honneur de vous écrire il y a deux jours pour vous donner des nouvelles ..." à Théis, 1839-05-29, https://constance-de-salm.de/archiv/#/document/10928 #onthisday</t>
+          <t>»Monsieur le baron, j’ai eu l’honneur de vous écrire il y a deux jours pour vous donner des nouvelles ...« à Théis, 1839-05-29, https://constance-de-salm.de/archiv/#/document/10928 #onthisday</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8455,17 +8455,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2030-5-29</t>
+          <t>2030-05-29</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>17:38:43</t>
+          <t>11:44:46</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>"Une lettre que je reçois à l'instant, mon cher voisin, m'apprend que j'aurai ce soir ..." à Ladoucette, 1840-05-29, https://constance-de-salm.de/archiv/#/document/8193 #onthisday</t>
+          <t>»Une lettre que je reçois à l'instant, mon cher voisin, m'apprend que j'aurai ce soir ...« à Ladoucette, 1840-05-29, https://constance-de-salm.de/archiv/#/document/8193 #onthisday</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8482,17 +8482,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2030-5-30</t>
+          <t>2030-05-30</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>17:41:46</t>
+          <t>14:57:42</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>"Je compte sur vous mardi Monsieur, et je vous prie de me rapporter sans faute non seulement le dernier exemplaire ..." à Jullien de Paris, 1839-05-30, https://constance-de-salm.de/archiv/#/document/8038 #onthisday</t>
+          <t>»Je compte sur vous mardi Monsieur, et je vous prie de me rapporter sans faute non seulement le dernier exemplaire ...« à Jullien de Paris, 1839-05-30, https://constance-de-salm.de/archiv/#/document/8038 #onthisday</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8509,17 +8509,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2030-5-31</t>
+          <t>2030-05-31</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>18:49:51</t>
+          <t>18:07:10</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier soir, Monsieur, votre lettre du 28; Félix vous avait envoyé celle où je lui parlais des embarras ..." à Drais, 1844-05-31, https://constance-de-salm.de/archiv/#/document/5320 #onthisday</t>
+          <t>»J'ai reçu hier soir, Monsieur, votre lettre du 28; Félix vous avait envoyé celle où je lui parlais des embarras ...« à Drais, 1844-05-31, https://constance-de-salm.de/archiv/#/document/5320 #onthisday</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8536,17 +8536,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2030-6-1</t>
+          <t>2030-06-01</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>12:09:00</t>
+          <t>19:16:27</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>"Le Constitutionnel ayant enfin annoncé mon Épître, je ne veux pas tarder ..." à Villenave, 1831-06-01, https://constance-de-salm.de/archiv/#/document/11026 #onthisday</t>
+          <t>»Le Constitutionnel ayant enfin annoncé mon Épître, je ne veux pas tarder ...« à Villenave, 1831-06-01, https://constance-de-salm.de/archiv/#/document/11026 #onthisday</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8563,17 +8563,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2030-6-1</t>
+          <t>2030-06-01</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>10:05:52</t>
+          <t>15:28:22</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>"Je m'empresse, Monsieur, de profiter de l'obligeance ..." à Ursin, 1831-06-01, https://constance-de-salm.de/archiv/#/document/6328 #onthisday</t>
+          <t>»Je m'empresse, Monsieur, de profiter de l'obligeance ...« à Ursin, 1831-06-01, https://constance-de-salm.de/archiv/#/document/6328 #onthisday</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8590,17 +8590,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2030-6-2</t>
+          <t>2030-06-02</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>09:13:47</t>
+          <t>08:23:34</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>"Je ne vais t'écrire que quelques mots, mon cher Félix, j'ai été si occupée ce matin de mes paquets ..." à Francq, 1844-06-02, https://constance-de-salm.de/archiv/#/document/5321 #onthisday</t>
+          <t>»Je ne vais t'écrire que quelques mots, mon cher Félix, j'ai été si occupée ce matin de mes paquets ...« à Francq, 1844-06-02, https://constance-de-salm.de/archiv/#/document/5321 #onthisday</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8617,17 +8617,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2030-6-3</t>
+          <t>2030-06-03</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>18:55:15</t>
+          <t>11:56:44</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>"Je me suis trompée, Monsieur et Madame, en rectifiant ce que je vous avais dit sur certain journal ..." à Sanson de Pongerville, 1839-06-03, https://constance-de-salm.de/archiv/#/document/8045 #onthisday</t>
+          <t>»Je me suis trompée, Monsieur et Madame, en rectifiant ce que je vous avais dit sur certain journal ...« à Sanson de Pongerville, 1839-06-03, https://constance-de-salm.de/archiv/#/document/8045 #onthisday</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8644,17 +8644,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2030-6-3</t>
+          <t>2030-06-03</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>15:05:50</t>
+          <t>12:26:32</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>"Vous êtes parti si vite, hier, Monsieur, que je n'ai pu vous parler de rien de ce que j'aurais voulu vous dire ..." à Sanson de Pongerville, 1840-06-03, https://constance-de-salm.de/archiv/#/document/8197 #onthisday</t>
+          <t>»Vous êtes parti si vite, hier, Monsieur, que je n'ai pu vous parler de rien de ce que j'aurais voulu vous dire ...« à Sanson de Pongerville, 1840-06-03, https://constance-de-salm.de/archiv/#/document/8197 #onthisday</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8671,17 +8671,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2030-6-5</t>
+          <t>2030-06-05</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>14:30:54</t>
+          <t>11:17:40</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>"J'étais malade, Monsieur, lorsque j'ai reçu le portrait (bas-relief) de Béranger ..." à Salomon, 1840-06-05, https://constance-de-salm.de/archiv/#/document/8198 #onthisday</t>
+          <t>»J'étais malade, Monsieur, lorsque j'ai reçu le portrait (bas-relief) de Béranger ...« à Salomon, 1840-06-05, https://constance-de-salm.de/archiv/#/document/8198 #onthisday</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8698,17 +8698,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2030-6-6</t>
+          <t>2030-06-06</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>12:51:53</t>
+          <t>12:41:22</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>"Monsieur de Ladoucette m'a remis de votre part, Madame, votre Musée de Versailles; je l'ai lu avec un vif intérêt ..." à Colet, 1839-06-06, https://constance-de-salm.de/archiv/#/document/8047 #onthisday</t>
+          <t>»Monsieur de Ladoucette m'a remis de votre part, Madame, votre Musée de Versailles; je l'ai lu avec un vif intérêt ...« à Colet, 1839-06-06, https://constance-de-salm.de/archiv/#/document/8047 #onthisday</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8725,17 +8725,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2030-6-7</t>
+          <t>2030-06-07</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>14:17:57</t>
+          <t>19:12:46</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>"C'est encore moi, Monsieur et Madame. Je veux vous dire ..." à Sanson de Pongerville, 1839-06-07, https://constance-de-salm.de/archiv/#/document/8048 #onthisday</t>
+          <t>»C'est encore moi, Monsieur et Madame. Je veux vous dire ...« à Sanson de Pongerville, 1839-06-07, https://constance-de-salm.de/archiv/#/document/8048 #onthisday</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8752,17 +8752,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2030-6-8</t>
+          <t>2030-06-08</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>11:40:38</t>
+          <t>09:19:25</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>"Votre bonne petite lettre que j'ai reçue ces jours-ci, mon ancienne amie, m'a fait un bien grand plaisir ..." à Salis, 1841-06-08, https://constance-de-salm.de/archiv/#/document/10378 #onthisday</t>
+          <t>»Votre bonne petite lettre que j'ai reçue ces jours-ci, mon ancienne amie, m'a fait un bien grand plaisir ...« à Salis, 1841-06-08, https://constance-de-salm.de/archiv/#/document/10378 #onthisday</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8779,17 +8779,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2030-6-9</t>
+          <t>2030-06-09</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>09:57:00</t>
+          <t>18:58:13</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>"Eh bien, mon cher Félix, j’ai le chagrin de t’apprendre que mon éternel départ est encore retardé d’un jour ..." à Francq, 1844-06-09, https://constance-de-salm.de/archiv/#/document/5383 #onthisday</t>
+          <t>»Eh bien, mon cher Félix, j’ai le chagrin de t’apprendre que mon éternel départ est encore retardé d’un jour ...« à Francq, 1844-06-09, https://constance-de-salm.de/archiv/#/document/5383 #onthisday</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8806,17 +8806,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2030-6-10</t>
+          <t>2030-06-10</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>08:36:00</t>
+          <t>10:21:37</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>"J'étais si souffrante en t'écrivant hier, mon cher Félix, que je crains de t'avoir allarmé sur ma santé ..." à Francq, 1844-06-10, https://constance-de-salm.de/archiv/#/document/5322 #onthisday</t>
+          <t>»J'étais si souffrante en t'écrivant hier, mon cher Félix, que je crains de t'avoir allarmé sur ma santé ...« à Francq, 1844-06-10, https://constance-de-salm.de/archiv/#/document/5322 #onthisday</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8833,17 +8833,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2030-6-11</t>
+          <t>2030-06-11</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>16:07:03</t>
+          <t>13:22:43</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>"Si Monsieur et Madame de Paganel sont libres lundi prochain, la Princesse de Salm les engage à venir ..." à Paganel, 1840-06-11, https://constance-de-salm.de/archiv/#/document/8199 #onthisday</t>
+          <t>»Si Monsieur et Madame de Paganel sont libres lundi prochain, la Princesse de Salm les engage à venir ...« à Paganel, 1840-06-11, https://constance-de-salm.de/archiv/#/document/8199 #onthisday</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8860,17 +8860,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2030-6-12</t>
+          <t>2030-06-12</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>19:08:23</t>
+          <t>10:49:33</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>"Je veux vous remercier, Monsieur, de m'avoir envoyé la demoiselle dont vous m'aviez parlé ..." à Barbier, 1840-06-12, https://constance-de-salm.de/archiv/#/document/8200 #onthisday</t>
+          <t>»Je veux vous remercier, Monsieur, de m'avoir envoyé la demoiselle dont vous m'aviez parlé ...« à Barbier, 1840-06-12, https://constance-de-salm.de/archiv/#/document/8200 #onthisday</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8887,17 +8887,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2030-6-14</t>
+          <t>2030-06-14</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>19:03:14</t>
+          <t>14:06:02</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>"Encore, Monsieur, je m'éveille mieux (ou plutôt moins mal) portante qu'hier, et surtout qu'avant-hier ..." à Drais, 1841-06-14, https://constance-de-salm.de/archiv/#/document/7432 #onthisday</t>
+          <t>»Encore, Monsieur, je m'éveille mieux (ou plutôt moins mal) portante qu'hier, et surtout qu'avant-hier ...« à Drais, 1841-06-14, https://constance-de-salm.de/archiv/#/document/7432 #onthisday</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8914,17 +8914,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2030-6-16</t>
+          <t>2030-06-16</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>09:17:15</t>
+          <t>14:09:14</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>"J'apprends avec peine, Monsieur, que vous croyez devoir craindre les dispositions de Monsieur Cherubini à votre égard ..." à Colet, 1839-06-16, https://constance-de-salm.de/archiv/#/document/8052 #onthisday</t>
+          <t>»J'apprends avec peine, Monsieur, que vous croyez devoir craindre les dispositions de Monsieur Cherubini à votre égard ...« à Colet, 1839-06-16, https://constance-de-salm.de/archiv/#/document/8052 #onthisday</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8941,17 +8941,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2030-6-17</t>
+          <t>2030-06-17</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>10:10:29</t>
+          <t>11:33:32</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>"Voici, mon cher voisin, une belle épingle que l'on vient de trouver à la place où était ..." à Ladoucette, 1840-06-17, https://constance-de-salm.de/archiv/#/document/8201 #onthisday</t>
+          <t>»Voici, mon cher voisin, une belle épingle que l'on vient de trouver à la place où était ...« à Ladoucette, 1840-06-17, https://constance-de-salm.de/archiv/#/document/8201 #onthisday</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8968,17 +8968,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2030-6-18</t>
+          <t>2030-06-18</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>08:41:44</t>
+          <t>10:25:45</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>"Monsieur Drais était à peine partie [sic] hier pour vous porter ma notice ..." à Montémont, 1837-06-18, https://constance-de-salm.de/archiv/#/document/7784 #onthisday</t>
+          <t>»Monsieur Drais était à peine partie [sic] hier pour vous porter ma notice ...« à Montémont, 1837-06-18, https://constance-de-salm.de/archiv/#/document/7784 #onthisday</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8995,17 +8995,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2030-6-20</t>
+          <t>2030-06-20</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>13:48:07</t>
+          <t>14:02:14</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>"Je me proposais depuis longtemps de vous écrire, Monsieur, et c'est pour moi, dans ce moment, un véritable besoin ..." à Mirault, 1832-06-20, https://constance-de-salm.de/archiv/#/document/5409 #onthisday</t>
+          <t>»Je me proposais depuis longtemps de vous écrire, Monsieur, et c'est pour moi, dans ce moment, un véritable besoin ...« à Mirault, 1832-06-20, https://constance-de-salm.de/archiv/#/document/5409 #onthisday</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9022,17 +9022,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2030-6-22</t>
+          <t>2030-06-22</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>17:16:16</t>
+          <t>16:40:01</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>"Voici, Monsieur, mes petites observations sur votre excellente, votre honorable note ..." à Villenave, 1840-06-22, https://constance-de-salm.de/archiv/#/document/8203 #onthisday</t>
+          <t>»Voici, Monsieur, mes petites observations sur votre excellente, votre honorable note ...« à Villenave, 1840-06-22, https://constance-de-salm.de/archiv/#/document/8203 #onthisday</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9049,17 +9049,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2030-6-23</t>
+          <t>2030-06-23</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>18:50:00</t>
+          <t>09:10:03</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant, cher ami, ta lettre de Dyck ..." à Salm-Reifferscheidt-Dyck, 1841-06-23, https://constance-de-salm.de/archiv/#/document/7436 #onthisday</t>
+          <t>»Je reçois à l'instant, cher ami, ta lettre de Dyck ...« à Salm-Reifferscheidt-Dyck, 1841-06-23, https://constance-de-salm.de/archiv/#/document/7436 #onthisday</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9076,17 +9076,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2030-6-24</t>
+          <t>2030-06-24</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>10:08:44</t>
+          <t>10:40:05</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>"À Monsieur le baron de Théis, Madame la Princesse étant très occupée dans ce moment, je commence ..." à Théis, 1839-06-24, https://constance-de-salm.de/archiv/#/document/10931 #onthisday</t>
+          <t>»À Monsieur le baron de Théis, Madame la Princesse étant très occupée dans ce moment, je commence ...« à Théis, 1839-06-24, https://constance-de-salm.de/archiv/#/document/10931 #onthisday</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9103,17 +9103,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2030-6-25</t>
+          <t>2030-06-25</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>14:28:54</t>
+          <t>15:04:27</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>"Je veux vous annoncer moi-même, Monsieur et ancien ami, ce que peut-être vous savez déjà; ..." à Duval, 1836-06-25, https://constance-de-salm.de/archiv/#/document/9806 #onthisday</t>
+          <t>»Je veux vous annoncer moi-même, Monsieur et ancien ami, ce que peut-être vous savez déjà; ...« à Duval, 1836-06-25, https://constance-de-salm.de/archiv/#/document/9806 #onthisday</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9130,17 +9130,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2030-6-25</t>
+          <t>2030-06-25</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>14:15:57</t>
+          <t>08:27:43</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>"J’étais sur le point de quitter Paris, Monsieur, lorsque j’ai reçu votre dernière lettre ..." à N.N., 1836-06-25, https://constance-de-salm.de/archiv/#/document/9486 #onthisday</t>
+          <t>»J’étais sur le point de quitter Paris, Monsieur, lorsque j’ai reçu votre dernière lettre ...« à N.N., 1836-06-25, https://constance-de-salm.de/archiv/#/document/9486 #onthisday</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9157,17 +9157,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2030-6-26</t>
+          <t>2030-06-26</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>12:10:06</t>
+          <t>12:30:49</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>"Depuis longtemps, Monsieur, je me propose de vous engager à remercier de ma part ..." à Jomard, 1837-06-26, https://constance-de-salm.de/archiv/#/document/7788 #onthisday</t>
+          <t>»Depuis longtemps, Monsieur, je me propose de vous engager à remercier de ma part ...« à Jomard, 1837-06-26, https://constance-de-salm.de/archiv/#/document/7788 #onthisday</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9184,17 +9184,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2030-6-27</t>
+          <t>2030-06-27</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>13:54:42</t>
+          <t>13:07:58</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>"Je pars dimanche matin, Monsieur, je ne puis comprendre que je quitte Paris sans avoir revu mes chers voisins ..." à Sanson de Pongerville, 1837-06-27, https://constance-de-salm.de/archiv/#/document/7791 #onthisday</t>
+          <t>»Je pars dimanche matin, Monsieur, je ne puis comprendre que je quitte Paris sans avoir revu mes chers voisins ...« à Sanson de Pongerville, 1837-06-27, https://constance-de-salm.de/archiv/#/document/7791 #onthisday</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9211,17 +9211,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2030-6-28</t>
+          <t>2030-06-28</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>13:10:36</t>
+          <t>19:01:23</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>"Je veux vous faire une querelle, Monsieur, vous êtes venu à Paris jeudi, vous avez vu ..." à Sanson de Pongerville, 1840-06-28, https://constance-de-salm.de/archiv/#/document/8207 #onthisday</t>
+          <t>»Je veux vous faire une querelle, Monsieur, vous êtes venu à Paris jeudi, vous avez vu ...« à Sanson de Pongerville, 1840-06-28, https://constance-de-salm.de/archiv/#/document/8207 #onthisday</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9238,17 +9238,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2030-6-29</t>
+          <t>2030-06-29</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>16:19:09</t>
+          <t>13:37:37</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, les deux ouvrages que vous m'avez envoyés, et je vous en fais tous mes remerciments ..." à Pinet, 1838-06-29, https://constance-de-salm.de/archiv/#/document/7927 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, les deux ouvrages que vous m'avez envoyés, et je vous en fais tous mes remerciments ...« à Pinet, 1838-06-29, https://constance-de-salm.de/archiv/#/document/7927 #onthisday</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9265,17 +9265,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2030-6-29</t>
+          <t>2030-06-29</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>16:40:41</t>
+          <t>18:08:25</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>"Je dois bientôt partir; j'ai, après demain lundi, quelques amis à dîner ..." à Berville, 1839-06-29, https://constance-de-salm.de/archiv/#/document/8057 #onthisday</t>
+          <t>»Je dois bientôt partir; j'ai, après demain lundi, quelques amis à dîner ...« à Berville, 1839-06-29, https://constance-de-salm.de/archiv/#/document/8057 #onthisday</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9292,17 +9292,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2030-6-30</t>
+          <t>2030-06-30</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>16:10:44</t>
+          <t>09:26:49</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>"Encore une petite observation sur votre excellent ouvrage, Monsieur ..." à Villenave, 1841-06-30, https://constance-de-salm.de/archiv/#/document/7441 #onthisday</t>
+          <t>»Encore une petite observation sur votre excellent ouvrage, Monsieur ...« à Villenave, 1841-06-30, https://constance-de-salm.de/archiv/#/document/7441 #onthisday</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9319,17 +9319,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2030-7-1</t>
+          <t>2030-07-01</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>19:34:57</t>
+          <t>12:31:46</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>"Je regrette beaucoup, Monsieur le baron, de n’avoir pas été chez moi, lorsque vous y êtes venu ..." à Humboldt, 1841-07-01, https://constance-de-salm.de/archiv/#/document/7442 #onthisday</t>
+          <t>»Je regrette beaucoup, Monsieur le baron, de n’avoir pas été chez moi, lorsque vous y êtes venu ...« à Humboldt, 1841-07-01, https://constance-de-salm.de/archiv/#/document/7442 #onthisday</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9346,17 +9346,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2030-7-2</t>
+          <t>2030-07-02</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>19:44:33</t>
+          <t>13:06:30</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>"En y repensant mieux ce matin, Monsieur, il m'a paru, tout à coup, que ce dont nous avons parlé hier ..." à Barbier, 1839-07-02, https://constance-de-salm.de/archiv/#/document/8064 #onthisday</t>
+          <t>»En y repensant mieux ce matin, Monsieur, il m'a paru, tout à coup, que ce dont nous avons parlé hier ...« à Barbier, 1839-07-02, https://constance-de-salm.de/archiv/#/document/8064 #onthisday</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -9373,17 +9373,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2030-7-3</t>
+          <t>2030-07-03</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>12:26:28</t>
+          <t>13:51:45</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>"Si Monsieur et Madame de Pongerville sont libres lundi prochain, et si rien ne s'oppose ..." à Sanson de Pongerville, 1841-07-03, https://constance-de-salm.de/archiv/#/document/7444 #onthisday</t>
+          <t>»Si Monsieur et Madame de Pongerville sont libres lundi prochain, et si rien ne s'oppose ...« à Sanson de Pongerville, 1841-07-03, https://constance-de-salm.de/archiv/#/document/7444 #onthisday</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -9400,17 +9400,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2030-7-4</t>
+          <t>2030-07-04</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>16:19:23</t>
+          <t>10:52:04</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>"Je fais écrire à Funke par Godding, cher ami, au sujet de nos armes qu’on me demande pour une biographie, et je joins sa lettre à celle-ci que je me hâte de t’écrire ..." à Salm-Reifferscheidt-Dyck, 1844-07-04, https://constance-de-salm.de/archiv/#/document/5378 #onthisday</t>
+          <t>»Je fais écrire à Funke par Godding, cher ami, au sujet de nos armes qu’on me demande pour une biographie, et je joins sa lettre à celle-ci que je me hâte de t’écrire ...« à Salm-Reifferscheidt-Dyck, 1844-07-04, https://constance-de-salm.de/archiv/#/document/5378 #onthisday</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -9427,17 +9427,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2030-7-8</t>
+          <t>2030-07-08</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>12:28:04</t>
+          <t>13:45:21</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>"Cher ami, il est près d’une heure, je déjeunerai bientôt ; mais je veux commencer cette lettre que je ferai partir demain ou après ..." à Salm-Reifferscheidt-Dyck, 1844-07-08, https://constance-de-salm.de/archiv/#/document/5377 #onthisday</t>
+          <t>»Cher ami, il est près d’une heure, je déjeunerai bientôt ; mais je veux commencer cette lettre que je ferai partir demain ou après ...« à Salm-Reifferscheidt-Dyck, 1844-07-08, https://constance-de-salm.de/archiv/#/document/5377 #onthisday</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -9454,17 +9454,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2030-7-11</t>
+          <t>2030-07-11</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>12:10:02</t>
+          <t>12:34:52</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>"Voilà, Monsieur, deux articles sur mes „Pensées“; un long et un court; veuillez ne garder ..." à Sauvo, 1839-07-11, https://constance-de-salm.de/archiv/#/document/8069 #onthisday</t>
+          <t>»Voilà, Monsieur, deux articles sur mes „Pensées“; un long et un court; veuillez ne garder ...« à Sauvo, 1839-07-11, https://constance-de-salm.de/archiv/#/document/8069 #onthisday</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9481,17 +9481,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2030-7-12</t>
+          <t>2030-07-12</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>12:54:28</t>
+          <t>17:09:07</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>"Que voilà de temps, monsieur et ancien ami, que je me propose de vous écrire! ..." à Raboteau, 1822-07-12, https://constance-de-salm.de/archiv/#/document/33 #onthisday</t>
+          <t>»Que voilà de temps, monsieur et ancien ami, que je me propose de vous écrire! ...« à Raboteau, 1822-07-12, https://constance-de-salm.de/archiv/#/document/33 #onthisday</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9508,17 +9508,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2030-7-12</t>
+          <t>2030-07-12</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>15:44:56</t>
+          <t>16:58:32</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>"Que voilà de temps, Monsieur et ancien ami, que je me propose de vous écrire; ..." à Raboteau, 1822-07-12, https://constance-de-salm.de/archiv/#/document/3994 #onthisday</t>
+          <t>»Que voilà de temps, Monsieur et ancien ami, que je me propose de vous écrire; ...« à Raboteau, 1822-07-12, https://constance-de-salm.de/archiv/#/document/3994 #onthisday</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9535,17 +9535,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2030-7-14</t>
+          <t>2030-07-14</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>11:34:28</t>
+          <t>10:04:50</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>"Au moment où j’ai fait porter ma lettre d’hier, cher ami ..." à Salm-Reifferscheidt-Dyck, 1844-07-14, https://constance-de-salm.de/archiv/#/document/5380 #onthisday</t>
+          <t>»Au moment où j’ai fait porter ma lettre d’hier, cher ami ...« à Salm-Reifferscheidt-Dyck, 1844-07-14, https://constance-de-salm.de/archiv/#/document/5380 #onthisday</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9562,17 +9562,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2030-7-15</t>
+          <t>2030-07-15</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>16:22:04</t>
+          <t>19:19:01</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>"Je suis encore ici, Monsieur et Madame; une nouvelle rechute de mon vieux mal de poitrine ..." à Sanson de Pongerville, 1840-07-15, https://constance-de-salm.de/archiv/#/document/8225 #onthisday</t>
+          <t>»Je suis encore ici, Monsieur et Madame; une nouvelle rechute de mon vieux mal de poitrine ...« à Sanson de Pongerville, 1840-07-15, https://constance-de-salm.de/archiv/#/document/8225 #onthisday</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9589,17 +9589,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2030-7-16</t>
+          <t>2030-07-16</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>17:21:34</t>
+          <t>15:13:04</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>"Comme vous ne m'avez pas envoyé hier, mon cher voisin, ce certain rapport, je crois devoir vous prier ..." à Ladoucette, 1839-07-16, https://constance-de-salm.de/archiv/#/document/8072 #onthisday</t>
+          <t>»Comme vous ne m'avez pas envoyé hier, mon cher voisin, ce certain rapport, je crois devoir vous prier ...« à Ladoucette, 1839-07-16, https://constance-de-salm.de/archiv/#/document/8072 #onthisday</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9616,17 +9616,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2030-7-17</t>
+          <t>2030-07-17</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>18:47:23</t>
+          <t>15:13:42</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>"Je pars dans huit à dix jours pour aller retrouver mon mari qui sera alors à Dyck ..." à Humboldt, 1841-07-17, https://constance-de-salm.de/archiv/#/document/7446 #onthisday</t>
+          <t>»Je pars dans huit à dix jours pour aller retrouver mon mari qui sera alors à Dyck ...« à Humboldt, 1841-07-17, https://constance-de-salm.de/archiv/#/document/7446 #onthisday</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9643,17 +9643,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2030-7-18</t>
+          <t>2030-07-18</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>10:44:04</t>
+          <t>17:10:40</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>"Depuis que vous avez quitté Paris, Madame, j’ai projeté bien souvent de vous écrire ..." à Mathon de Fogères, 1843-07-18, https://constance-de-salm.de/archiv/#/document/8832 #onthisday</t>
+          <t>»Depuis que vous avez quitté Paris, Madame, j’ai projeté bien souvent de vous écrire ...« à Mathon de Fogères, 1843-07-18, https://constance-de-salm.de/archiv/#/document/8832 #onthisday</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9670,17 +9670,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2030-7-19</t>
+          <t>2030-07-19</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>10:24:14</t>
+          <t>13:45:13</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>"Cher ami, je reçois à l’instant ta petite lettre du 17 ..." à Salm-Reifferscheidt-Dyck, 1844-07-19, https://constance-de-salm.de/archiv/#/document/5381 #onthisday</t>
+          <t>»Cher ami, je reçois à l’instant ta petite lettre du 17 ...« à Salm-Reifferscheidt-Dyck, 1844-07-19, https://constance-de-salm.de/archiv/#/document/5381 #onthisday</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9697,17 +9697,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2030-7-20</t>
+          <t>2030-07-20</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>11:00:07</t>
+          <t>17:05:02</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>"Mlle Sobri [sic] s'est chargée, Madame, de vous faire passer ..." à Morgan, 1831-07-20, https://constance-de-salm.de/archiv/#/document/6526 #onthisday</t>
+          <t>»Mlle Sobri [sic] s'est chargée, Madame, de vous faire passer ...« à Morgan, 1831-07-20, https://constance-de-salm.de/archiv/#/document/6526 #onthisday</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9724,17 +9724,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2030-7-20</t>
+          <t>2030-07-20</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>16:58:36</t>
+          <t>15:51:07</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>"Il m'est impossible, Monsieur et Madame, d'aller vous dire adieu à Nanterre, comme je me le proposais ..." à Sanson de Pongerville, 1834-07-20, https://constance-de-salm.de/archiv/#/document/5585 #onthisday</t>
+          <t>»Il m'est impossible, Monsieur et Madame, d'aller vous dire adieu à Nanterre, comme je me le proposais ...« à Sanson de Pongerville, 1834-07-20, https://constance-de-salm.de/archiv/#/document/5585 #onthisday</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9751,17 +9751,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2030-7-22</t>
+          <t>2030-07-22</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>18:35:52</t>
+          <t>13:23:19</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>"Vous aurez été surprise, Madame, de ne pas recevoir de réponse à la lettre que vous m'avez adressée ..." à Maleszewski, 1840-07-22, https://constance-de-salm.de/archiv/#/document/8231 #onthisday</t>
+          <t>»Vous aurez été surprise, Madame, de ne pas recevoir de réponse à la lettre que vous m'avez adressée ...« à Maleszewski, 1840-07-22, https://constance-de-salm.de/archiv/#/document/8231 #onthisday</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9778,17 +9778,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2030-7-23</t>
+          <t>2030-07-23</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>17:57:40</t>
+          <t>17:28:16</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>"Il y a longtemps que je ne t’ai écrit, cher ami, outre que je n’avais rien de nouveau à t’apprendre ..." à Salm-Reifferscheidt-Dyck, 1844-07-23, https://constance-de-salm.de/archiv/#/document/5382 #onthisday</t>
+          <t>»Il y a longtemps que je ne t’ai écrit, cher ami, outre que je n’avais rien de nouveau à t’apprendre ...« à Salm-Reifferscheidt-Dyck, 1844-07-23, https://constance-de-salm.de/archiv/#/document/5382 #onthisday</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9805,17 +9805,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2030-7-25</t>
+          <t>2030-07-25</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>10:08:47</t>
+          <t>13:20:27</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier ta lettre, cher frère, et je me hâte de te dire que quelque désir que j'aie de me retrouver avec vous tous ..." à Théis, 1841-07-25, https://constance-de-salm.de/archiv/#/document/7455 #onthisday</t>
+          <t>»J'ai reçu hier ta lettre, cher frère, et je me hâte de te dire que quelque désir que j'aie de me retrouver avec vous tous ...« à Théis, 1841-07-25, https://constance-de-salm.de/archiv/#/document/7455 #onthisday</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9832,17 +9832,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2030-7-26</t>
+          <t>2030-07-26</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>12:38:49</t>
+          <t>18:23:04</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, cher ami, ta seconde petite lettre dans laquelle tu m’expliques ce que tu crois qu’on peut faire pour les armes; ..." à Salm-Reifferscheidt-Dyck, 1844-07-26, https://constance-de-salm.de/archiv/#/document/5374 #onthisday</t>
+          <t>»J’ai reçu hier, cher ami, ta seconde petite lettre dans laquelle tu m’expliques ce que tu crois qu’on peut faire pour les armes; ...« à Salm-Reifferscheidt-Dyck, 1844-07-26, https://constance-de-salm.de/archiv/#/document/5374 #onthisday</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9859,17 +9859,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2030-7-27</t>
+          <t>2030-07-27</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>10:56:20</t>
+          <t>14:12:20</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>"Je veux t'apprendre, cher frère, que je suis ici depuis huit à dix jours ..." à Théis, 1837-07-27, https://constance-de-salm.de/archiv/#/document/10894 #onthisday</t>
+          <t>»Je veux t'apprendre, cher frère, que je suis ici depuis huit à dix jours ...« à Théis, 1837-07-27, https://constance-de-salm.de/archiv/#/document/10894 #onthisday</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9886,17 +9886,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2030-7-29</t>
+          <t>2030-07-29</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>15:27:28</t>
+          <t>17:25:29</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, cher ami, ta lettre du 26; elle m’est arrivée à propos; car il m’ennuyait fort de ne pas avoir de tes nouvelles; et même je m’en inquiétais ..." à Salm-Reifferscheidt-Dyck, 1844-07-29, https://constance-de-salm.de/archiv/#/document/5375 #onthisday</t>
+          <t>»J’ai reçu hier, cher ami, ta lettre du 26; elle m’est arrivée à propos; car il m’ennuyait fort de ne pas avoir de tes nouvelles; et même je m’en inquiétais ...« à Salm-Reifferscheidt-Dyck, 1844-07-29, https://constance-de-salm.de/archiv/#/document/5375 #onthisday</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9913,17 +9913,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2030-8-2</t>
+          <t>2030-08-02</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>15:17:35</t>
+          <t>09:49:54</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis peu de jours, ma chère cousine, et je m'empresse de vous demander ..." à Novakowsky, 1833-08-02, https://constance-de-salm.de/archiv/#/document/5242 #onthisday</t>
+          <t>»Je suis ici depuis peu de jours, ma chère cousine, et je m'empresse de vous demander ...« à Novakowsky, 1833-08-02, https://constance-de-salm.de/archiv/#/document/5242 #onthisday</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9940,17 +9940,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2030-8-3</t>
+          <t>2030-08-03</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>16:33:47</t>
+          <t>10:26:27</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>"Au moment de mon départ, mon cher Général, j’ai appris par une lettre de mon frère ..." à Saint-Mars, 1833-08-03, https://constance-de-salm.de/archiv/#/document/10834 #onthisday</t>
+          <t>»Au moment de mon départ, mon cher Général, j’ai appris par une lettre de mon frère ...« à Saint-Mars, 1833-08-03, https://constance-de-salm.de/archiv/#/document/10834 #onthisday</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9967,17 +9967,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2030-8-4</t>
+          <t>2030-08-04</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>11:08:38</t>
+          <t>12:23:32</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a 2 jours, cher ami, la lettre où tu me parles de l’attentat commis sur le roi ..." à Salm-Reifferscheidt-Dyck, 1844-08-04, https://constance-de-salm.de/archiv/#/document/5366 #onthisday</t>
+          <t>»J’ai reçu il y a 2 jours, cher ami, la lettre où tu me parles de l’attentat commis sur le roi ...« à Salm-Reifferscheidt-Dyck, 1844-08-04, https://constance-de-salm.de/archiv/#/document/5366 #onthisday</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9994,17 +9994,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2030-8-5</t>
+          <t>2030-08-05</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>12:37:29</t>
+          <t>19:47:06</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>"Cher ami, j’attends Monsieur Drais qui doit venir me rendre réponse d’une chose dont je l’ai chargé ; ..." à Salm-Reifferscheidt-Dyck, 1844-08-05, https://constance-de-salm.de/archiv/#/document/5367 #onthisday</t>
+          <t>»Cher ami, j’attends Monsieur Drais qui doit venir me rendre réponse d’une chose dont je l’ai chargé ; ...« à Salm-Reifferscheidt-Dyck, 1844-08-05, https://constance-de-salm.de/archiv/#/document/5367 #onthisday</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10021,17 +10021,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2030-8-7</t>
+          <t>2030-08-07</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>15:31:51</t>
+          <t>18:57:03</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>"J'ai enfin reçu hier votre lettre, Monsieur, et quoique, sans reproche, je vous aie déjà écrit trois fois ..." à Drais, 1839-08-07, https://constance-de-salm.de/archiv/#/document/8084 #onthisday</t>
+          <t>»J'ai enfin reçu hier votre lettre, Monsieur, et quoique, sans reproche, je vous aie déjà écrit trois fois ...« à Drais, 1839-08-07, https://constance-de-salm.de/archiv/#/document/8084 #onthisday</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10048,17 +10048,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2030-8-8</t>
+          <t>2030-08-08</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>14:32:27</t>
+          <t>19:11:40</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>"Me voilà dans le grand château, Monsieur et Madame; je puis enfin donner de mes nouvelles ..." à Sanson de Pongerville, 1839-08-08, https://constance-de-salm.de/archiv/#/document/8086 #onthisday</t>
+          <t>»Me voilà dans le grand château, Monsieur et Madame; je puis enfin donner de mes nouvelles ...« à Sanson de Pongerville, 1839-08-08, https://constance-de-salm.de/archiv/#/document/8086 #onthisday</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10075,17 +10075,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2030-8-9</t>
+          <t>2030-08-09</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>08:31:20</t>
+          <t>08:20:53</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>"J'ai reçu, Monsieur, peu de jours après mon arrivée ici, votre lettre et le fragment ..." à Montémont, 1839-08-09, https://constance-de-salm.de/archiv/#/document/8088 #onthisday</t>
+          <t>»J'ai reçu, Monsieur, peu de jours après mon arrivée ici, votre lettre et le fragment ...« à Montémont, 1839-08-09, https://constance-de-salm.de/archiv/#/document/8088 #onthisday</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10102,17 +10102,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2030-8-10</t>
+          <t>2030-08-10</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>12:02:55</t>
+          <t>16:48:57</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>"Cher ami, je suis bien triste aujourd’hui, et pour une chose qui t’attristera aussi ..." à Salm-Reifferscheidt-Dyck, 1844-08-10, https://constance-de-salm.de/archiv/#/document/5368 #onthisday</t>
+          <t>»Cher ami, je suis bien triste aujourd’hui, et pour une chose qui t’attristera aussi ...« à Salm-Reifferscheidt-Dyck, 1844-08-10, https://constance-de-salm.de/archiv/#/document/5368 #onthisday</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10129,17 +10129,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2030-8-11</t>
+          <t>2030-08-11</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>17:39:53</t>
+          <t>14:58:19</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>"Il y a bien longtemps que nous n'avons entendu parler l'une de l'autre, mon ancienne amie ..." à Salis, 1839-08-11, https://constance-de-salm.de/archiv/#/document/10372 #onthisday</t>
+          <t>»Il y a bien longtemps que nous n'avons entendu parler l'une de l'autre, mon ancienne amie ...« à Salis, 1839-08-11, https://constance-de-salm.de/archiv/#/document/10372 #onthisday</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10156,17 +10156,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2030-8-15</t>
+          <t>2030-08-15</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>14:54:30</t>
+          <t>18:28:47</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre lettre il y a quelques jours, Monsieur ..." à Jullien de Paris, 1840-08-15, https://constance-de-salm.de/archiv/#/document/8235 #onthisday</t>
+          <t>»J'ai reçu votre lettre il y a quelques jours, Monsieur ...« à Jullien de Paris, 1840-08-15, https://constance-de-salm.de/archiv/#/document/8235 #onthisday</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10183,17 +10183,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2030-8-16</t>
+          <t>2030-08-16</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>11:03:07</t>
+          <t>10:52:44</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>"Il est près [de] 7 heures, cher ami, j'ai mal dormi ..." à Salm-Reifferscheidt-Dyck, 1844-08-16, https://constance-de-salm.de/archiv/#/document/5370 #onthisday</t>
+          <t>»Il est près [de] 7 heures, cher ami, j'ai mal dormi ...« à Salm-Reifferscheidt-Dyck, 1844-08-16, https://constance-de-salm.de/archiv/#/document/5370 #onthisday</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10210,17 +10210,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2030-8-17</t>
+          <t>2030-08-17</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>13:58:40</t>
+          <t>16:12:27</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>"Je reçois à l'instant ton second billet, mon cher Félix, et ayant un moment à moi, je me hâte de t'écrire ..." à Francq, 1843-08-17, https://constance-de-salm.de/archiv/#/document/5313 #onthisday</t>
+          <t>»Je reçois à l'instant ton second billet, mon cher Félix, et ayant un moment à moi, je me hâte de t'écrire ...« à Francq, 1843-08-17, https://constance-de-salm.de/archiv/#/document/5313 #onthisday</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10237,17 +10237,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2030-8-19</t>
+          <t>2030-08-19</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>13:17:07</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>"Je ne t’écrirai qu’un mot aujourd’hui, cher ami; ..." à Salm-Reifferscheidt-Dyck, 1844-08-19, https://constance-de-salm.de/archiv/#/document/5371 #onthisday</t>
+          <t>»Je ne t’écrirai qu’un mot aujourd’hui, cher ami; ...« à Salm-Reifferscheidt-Dyck, 1844-08-19, https://constance-de-salm.de/archiv/#/document/5371 #onthisday</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10264,17 +10264,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2030-8-20</t>
+          <t>2030-08-20</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>09:15:26</t>
+          <t>13:11:48</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>"Félix vous a écrit un mot, Monsieur, pour vous annoncer mon arrivée à Dyck ..." à Jullien de Paris, 1839-08-20, https://constance-de-salm.de/archiv/#/document/8095 #onthisday</t>
+          <t>»Félix vous a écrit un mot, Monsieur, pour vous annoncer mon arrivée à Dyck ...« à Jullien de Paris, 1839-08-20, https://constance-de-salm.de/archiv/#/document/8095 #onthisday</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -10291,17 +10291,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2030-8-21</t>
+          <t>2030-08-21</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>18:25:00</t>
+          <t>16:44:33</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis quinze jours, Monsieur, mais encore si fatiguée du voyage ..." à Sandt, 1838-08-21, https://constance-de-salm.de/archiv/#/document/7944 #onthisday</t>
+          <t>»Je suis ici depuis quinze jours, Monsieur, mais encore si fatiguée du voyage ...« à Sandt, 1838-08-21, https://constance-de-salm.de/archiv/#/document/7944 #onthisday</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -10318,17 +10318,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2030-8-25</t>
+          <t>2030-08-25</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>11:58:35</t>
+          <t>10:55:28</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>"C'est aujourd'hui dimanche, mon cher Félix, je viens de recevoir ta seconde lettre, je me suis levée de bonne heure: ..." à Francq, 1844-08-25, https://constance-de-salm.de/archiv/#/document/5326 #onthisday</t>
+          <t>»C'est aujourd'hui dimanche, mon cher Félix, je viens de recevoir ta seconde lettre, je me suis levée de bonne heure: ...« à Francq, 1844-08-25, https://constance-de-salm.de/archiv/#/document/5326 #onthisday</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -10345,17 +10345,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2030-8-28</t>
+          <t>2030-08-28</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>14:13:07</t>
+          <t>17:24:40</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>"Je suis ici depuis 3 semaines, Madame et ancienne amie, et si souffrante que je n’ai pu encore ..." à Salis, 1842-08-28, https://constance-de-salm.de/archiv/#/document/10446 #onthisday</t>
+          <t>»Je suis ici depuis 3 semaines, Madame et ancienne amie, et si souffrante que je n’ai pu encore ...« à Salis, 1842-08-28, https://constance-de-salm.de/archiv/#/document/10446 #onthisday</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10372,17 +10372,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2030-8-29</t>
+          <t>2030-08-29</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>15:37:44</t>
+          <t>12:20:48</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>"Cher ami, j’ai reçu ce matin ta petite lettre du 27 ..." à Salm-Reifferscheidt-Dyck, 1844-08-29, https://constance-de-salm.de/archiv/#/document/5373 #onthisday</t>
+          <t>»Cher ami, j’ai reçu ce matin ta petite lettre du 27 ...« à Salm-Reifferscheidt-Dyck, 1844-08-29, https://constance-de-salm.de/archiv/#/document/5373 #onthisday</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10399,17 +10399,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2030-8-30</t>
+          <t>2030-08-30</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>10:47:57</t>
+          <t>14:46:06</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>"Vous aurez peut-être été surpris, Monsieur, de ne pas entendre parler de moi ..." à Bavier, 1838-08-30, https://constance-de-salm.de/archiv/#/document/7947 #onthisday</t>
+          <t>»Vous aurez peut-être été surpris, Monsieur, de ne pas entendre parler de moi ...« à Bavier, 1838-08-30, https://constance-de-salm.de/archiv/#/document/7947 #onthisday</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10426,17 +10426,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2030-9-1</t>
+          <t>2030-09-01</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>16:04:54</t>
+          <t>09:24:02</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>"Depuis un mois déjà je suis ici / Et chaque jour j'ai voulu vous écrire ..." à N.N., 1840-09-01, https://constance-de-salm.de/archiv/#/document/7206 #onthisday</t>
+          <t>»Depuis un mois déjà je suis ici / Et chaque jour j'ai voulu vous écrire ...« à N.N., 1840-09-01, https://constance-de-salm.de/archiv/#/document/7206 #onthisday</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10453,17 +10453,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2030-9-2</t>
+          <t>2030-09-02</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>19:55:19</t>
+          <t>08:10:34</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>"Nous avons reçu ces jours-ci, cher frère, la lettre que tu as adressée à Félix ..." à Théis, 1842-09-02, https://constance-de-salm.de/archiv/#/document/10985 #onthisday</t>
+          <t>»Nous avons reçu ces jours-ci, cher frère, la lettre que tu as adressée à Félix ...« à Théis, 1842-09-02, https://constance-de-salm.de/archiv/#/document/10985 #onthisday</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10480,17 +10480,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2030-9-6</t>
+          <t>2030-09-06</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>12:06:13</t>
+          <t>13:39:43</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>"Eh bien, cher ami, voilà mon affaire du „Corsaire“ terminée, pas très mal, mais pas très mal comme tu vas le voir ..." à Salm-Reifferscheidt-Dyck, 1844-09-06, https://constance-de-salm.de/archiv/#/document/5360 #onthisday</t>
+          <t>»Eh bien, cher ami, voilà mon affaire du „Corsaire“ terminée, pas très mal, mais pas très mal comme tu vas le voir ...« à Salm-Reifferscheidt-Dyck, 1844-09-06, https://constance-de-salm.de/archiv/#/document/5360 #onthisday</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10507,17 +10507,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2030-9-8</t>
+          <t>2030-09-08</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>13:50:50</t>
+          <t>16:51:30</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>"J'ai reçu ta dernière lettre il y a déjà quelques jours, mon cher Félix, et il m'a été bien impossible de t'écrire ..." à Francq, 1844-09-08, https://constance-de-salm.de/archiv/#/document/5324 #onthisday</t>
+          <t>»J'ai reçu ta dernière lettre il y a déjà quelques jours, mon cher Félix, et il m'a été bien impossible de t'écrire ...« à Francq, 1844-09-08, https://constance-de-salm.de/archiv/#/document/5324 #onthisday</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10534,17 +10534,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2030-9-10</t>
+          <t>2030-09-10</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>10:01:06</t>
+          <t>08:50:36</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>"En arrivant ici, Monsieur, j'ai envoyé une lettre pour vous à Aix, en recommandant ..." à Schepeler, 1841-09-10, https://constance-de-salm.de/archiv/#/document/7567 #onthisday</t>
+          <t>»En arrivant ici, Monsieur, j'ai envoyé une lettre pour vous à Aix, en recommandant ...« à Schepeler, 1841-09-10, https://constance-de-salm.de/archiv/#/document/7567 #onthisday</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -10561,17 +10561,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2030-9-12</t>
+          <t>2030-09-12</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>08:19:30</t>
+          <t>18:34:24</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, Monsieur, votre dernière lettre non datée (car depuis quelque temps vous ne datez plus vos lettres) ..." à Drais, 1839-09-12, https://constance-de-salm.de/archiv/#/document/8106 #onthisday</t>
+          <t>»J'ai reçu hier, Monsieur, votre dernière lettre non datée (car depuis quelque temps vous ne datez plus vos lettres) ...« à Drais, 1839-09-12, https://constance-de-salm.de/archiv/#/document/8106 #onthisday</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10588,17 +10588,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2030-9-14</t>
+          <t>2030-09-14</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>08:53:23</t>
+          <t>09:46:16</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier votre lettre, Monsieur, et, vous supposant encore dans vos vacances et à Amiens, je m’empresse de répondre ..." à Berville, 1835-09-14, https://constance-de-salm.de/archiv/#/document/9645 #onthisday</t>
+          <t>»J’ai reçu hier votre lettre, Monsieur, et, vous supposant encore dans vos vacances et à Amiens, je m’empresse de répondre ...« à Berville, 1835-09-14, https://constance-de-salm.de/archiv/#/document/9645 #onthisday</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10615,17 +10615,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2030-9-15</t>
+          <t>2030-09-15</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>14:39:28</t>
+          <t>19:52:07</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>"Il y a déjà huit à dix jours, Monsieur, que j'ai reçu la lettre par laquelle vous m'annoncez le mariage ..." à Jullien de Paris, 1837-09-15, https://constance-de-salm.de/archiv/#/document/7836 #onthisday</t>
+          <t>»Il y a déjà huit à dix jours, Monsieur, que j'ai reçu la lettre par laquelle vous m'annoncez le mariage ...« à Jullien de Paris, 1837-09-15, https://constance-de-salm.de/archiv/#/document/7836 #onthisday</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10642,17 +10642,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2030-9-16</t>
+          <t>2030-09-16</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>08:44:48</t>
+          <t>09:34:27</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>"J’ai reçu ta lettre hier, cher ami, et j’y réponds aujourd’hui pour m’adoucir autant que possible l’ennui ..." à Salm-Reifferscheidt-Dyck, 1844-09-16, https://constance-de-salm.de/archiv/#/document/5363 #onthisday</t>
+          <t>»J’ai reçu ta lettre hier, cher ami, et j’y réponds aujourd’hui pour m’adoucir autant que possible l’ennui ...« à Salm-Reifferscheidt-Dyck, 1844-09-16, https://constance-de-salm.de/archiv/#/document/5363 #onthisday</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10669,17 +10669,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2030-9-17</t>
+          <t>2030-09-17</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>16:24:29</t>
+          <t>12:01:24</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>"Je reçois, Monsieur, le journal de Bruxelles où se trouve votre article ..." à Sanson de Pongerville, 1838-09-17, https://constance-de-salm.de/archiv/#/document/7953 #onthisday</t>
+          <t>»Je reçois, Monsieur, le journal de Bruxelles où se trouve votre article ...« à Sanson de Pongerville, 1838-09-17, https://constance-de-salm.de/archiv/#/document/7953 #onthisday</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -10696,17 +10696,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2030-9-18</t>
+          <t>2030-09-18</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>14:37:07</t>
+          <t>17:16:03</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>"J'apprends à l'instant, Monsieur, la perte douloureuse que vous venez de faire et je m'empresse de vous dire à quel point j'y suis sensible ..." à Sanson de Pongerville, 1837-09-18, https://constance-de-salm.de/archiv/#/document/7837 #onthisday</t>
+          <t>»J'apprends à l'instant, Monsieur, la perte douloureuse que vous venez de faire et je m'empresse de vous dire à quel point j'y suis sensible ...« à Sanson de Pongerville, 1837-09-18, https://constance-de-salm.de/archiv/#/document/7837 #onthisday</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -10723,17 +10723,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2030-9-20</t>
+          <t>2030-09-20</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>08:39:14</t>
+          <t>15:44:31</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>"On vient de me renvoyer ici, Madame, la lettre que vous m’avez adressée à Paris, il y a déjà quelque temps ..." à Jobey de Ligny, 1840-09-20, https://constance-de-salm.de/archiv/#/document/6207 #onthisday</t>
+          <t>»On vient de me renvoyer ici, Madame, la lettre que vous m’avez adressée à Paris, il y a déjà quelque temps ...« à Jobey de Ligny, 1840-09-20, https://constance-de-salm.de/archiv/#/document/6207 #onthisday</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -10750,17 +10750,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2030-9-21</t>
+          <t>2030-09-21</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>12:40:57</t>
+          <t>14:55:46</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>"Je suis aujourd’hui fort souffrante, cher ami; il pleut; il fait presque froid, et hier il faisait chaud on ne comprend rien à ces changements continuels de température; ..." à Salm-Reifferscheidt-Dyck, 1844-09-21, https://constance-de-salm.de/archiv/#/document/5364 #onthisday</t>
+          <t>»Je suis aujourd’hui fort souffrante, cher ami; il pleut; il fait presque froid, et hier il faisait chaud on ne comprend rien à ces changements continuels de température; ...« à Salm-Reifferscheidt-Dyck, 1844-09-21, https://constance-de-salm.de/archiv/#/document/5364 #onthisday</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10777,17 +10777,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2030-9-22</t>
+          <t>2030-09-22</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>09:44:23</t>
+          <t>19:53:02</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>"J'ai reçu hier, Monsieur, une lettre de Monsieur Drais que j'avais prié d'aller chez vous de ma part ..." à Villenave, 1841-09-22, https://constance-de-salm.de/archiv/#/document/4841 #onthisday</t>
+          <t>»J'ai reçu hier, Monsieur, une lettre de Monsieur Drais que j'avais prié d'aller chez vous de ma part ...« à Villenave, 1841-09-22, https://constance-de-salm.de/archiv/#/document/4841 #onthisday</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10804,17 +10804,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2030-9-23</t>
+          <t>2030-09-23</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>14:24:01</t>
+          <t>19:35:15</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>"C'est encore moi, Monsieur, et moi, vous priant de me rendre un nouveau petit service ..." à Barbier, 1839-09-23, https://constance-de-salm.de/archiv/#/document/8110 #onthisday</t>
+          <t>»C'est encore moi, Monsieur, et moi, vous priant de me rendre un nouveau petit service ...« à Barbier, 1839-09-23, https://constance-de-salm.de/archiv/#/document/8110 #onthisday</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10831,17 +10831,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2030-9-26</t>
+          <t>2030-09-26</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>14:31:03</t>
+          <t>16:10:20</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>"J’ai reçu il y a quelques jours, mon cher voisin, votre lettre du 17 septembre ..." à Ladoucette, 1840-09-26, https://constance-de-salm.de/archiv/#/document/8838 #onthisday</t>
+          <t>»J’ai reçu il y a quelques jours, mon cher voisin, votre lettre du 17 septembre ...« à Ladoucette, 1840-09-26, https://constance-de-salm.de/archiv/#/document/8838 #onthisday</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10858,17 +10858,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2030-9-30</t>
+          <t>2030-09-30</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>17:25:30</t>
+          <t>18:01:25</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>"J’ai reçu de vous, Monsieur, plusieurs bonnes lettres et je me reprocherais fort de n’y avoir pas encore répondu ..." à Schepeler, 1835-09-30, https://constance-de-salm.de/archiv/#/document/9647 #onthisday</t>
+          <t>»J’ai reçu de vous, Monsieur, plusieurs bonnes lettres et je me reprocherais fort de n’y avoir pas encore répondu ...« à Schepeler, 1835-09-30, https://constance-de-salm.de/archiv/#/document/9647 #onthisday</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10885,17 +10885,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2030-10-2</t>
+          <t>2030-10-02</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>11:11:44</t>
+          <t>13:01:38</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>"Cher ami, j’ai reçu hier ta lettre du 28, j’ai été, je te l’assure, fort surprise d’y trouver mon „Bouton de rose“ traduit en italien ..." à Salm-Reifferscheidt-Dyck, 1844-10-02, https://constance-de-salm.de/archiv/#/document/5357 #onthisday</t>
+          <t>»Cher ami, j’ai reçu hier ta lettre du 28, j’ai été, je te l’assure, fort surprise d’y trouver mon „Bouton de rose“ traduit en italien ...« à Salm-Reifferscheidt-Dyck, 1844-10-02, https://constance-de-salm.de/archiv/#/document/5357 #onthisday</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10912,17 +10912,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2030-10-3</t>
+          <t>2030-10-03</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>08:29:46</t>
+          <t>15:33:56</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>"Qu'il y a longtemps, Monsieur, que je n'ai jasé avec vous ..." à Drais, 1839-10-03, https://constance-de-salm.de/archiv/#/document/8115 #onthisday</t>
+          <t>»Qu'il y a longtemps, Monsieur, que je n'ai jasé avec vous ...« à Drais, 1839-10-03, https://constance-de-salm.de/archiv/#/document/8115 #onthisday</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10939,17 +10939,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2030-10-5</t>
+          <t>2030-10-05</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>19:52:37</t>
+          <t>13:05:49</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>"J’ai reçu hier, cher ami, une toute petite lettre de toi: ..." à Salm-Reifferscheidt-Dyck, 1844-10-05, https://constance-de-salm.de/archiv/#/document/5356 #onthisday</t>
+          <t>»J’ai reçu hier, cher ami, une toute petite lettre de toi: ...« à Salm-Reifferscheidt-Dyck, 1844-10-05, https://constance-de-salm.de/archiv/#/document/5356 #onthisday</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10966,17 +10966,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2030-10-8</t>
+          <t>2030-10-08</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>19:16:04</t>
+          <t>08:18:32</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>"Je n'entends pas parler de vous, Monsieur, ce qui m'inquiète ..." à Jullien de Paris, 1839-10-08, https://constance-de-salm.de/archiv/#/document/8116 #onthisday</t>
+          <t>»Je n'entends pas parler de vous, Monsieur, ce qui m'inquiète ...« à Jullien de Paris, 1839-10-08, https://constance-de-salm.de/archiv/#/document/8116 #onthisday</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10998,12 +10998,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>12:14:31</t>
+          <t>10:02:38</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>"Cher ami, j’ai reçu il y a 2 jours la lettre dans laquelle tu me disais que tu attendez [sic] les Maison et les Goudenau ..." à Salm-Reifferscheidt-Dyck, 1844-10-12, https://constance-de-salm.de/archiv/#/document/5355 #onthisday</t>
+          <t>»Cher ami, j’ai reçu il y a 2 jours la lettre dans laquelle tu me disais que tu attendez [sic] les Maison et les Goudenau ...« à Salm-Reifferscheidt-Dyck, 1844-10-12, https://constance-de-salm.de/archiv/#/document/5355 #onthisday</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11025,12 +11025,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>16:39:47</t>
+          <t>16:02:55</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>"J'envoie savoir comment se portent Madame la maréchale, Monsieur le comte et Madame la comtesse qui, comme je l'ai appris ici ..." à Maison, 1841-10-13, https://constance-de-salm.de/archiv/#/document/7546 #onthisday</t>
+          <t>»J'envoie savoir comment se portent Madame la maréchale, Monsieur le comte et Madame la comtesse qui, comme je l'ai appris ici ...« à Maison, 1841-10-13, https://constance-de-salm.de/archiv/#/document/7546 #onthisday</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11052,12 +11052,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>17:35:26</t>
+          <t>11:42:14</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>"Nous avons aujourd’hui un tems affreux, cher ami, il pleut; il fait un vent terrible, et tellement froid que beaucoup de personnes font déjà du feu ; ..." à Salm-Reifferscheidt-Dyck, 1844-10-14, https://constance-de-salm.de/archiv/#/document/5358 #onthisday</t>
+          <t>»Nous avons aujourd’hui un tems affreux, cher ami, il pleut; il fait un vent terrible, et tellement froid que beaucoup de personnes font déjà du feu ; ...« à Salm-Reifferscheidt-Dyck, 1844-10-14, https://constance-de-salm.de/archiv/#/document/5358 #onthisday</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11079,12 +11079,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>14:57:36</t>
+          <t>18:48:39</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>"La lune m'a paru belle et brillante hier au soir; j'espère qu'elle le sera encore plus aujourd'hui et demain ..." à Maison, 1839-10-15, https://constance-de-salm.de/archiv/#/document/8119 #onthisday</t>
+          <t>»La lune m'a paru belle et brillante hier au soir; j'espère qu'elle le sera encore plus aujourd'hui et demain ...« à Maison, 1839-10-15, https://constance-de-salm.de/archiv/#/document/8119 #onthisday</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11106,12 +11106,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>09:41:09</t>
+          <t>16:08:07</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>"La quadruple lettre que m’a envoyée Monsieur de Ladoucette, Monsieur, m’a fait le plus grand plaisir ..." à Montémont, 1836-10-16, https://constance-de-salm.de/archiv/#/document/9854 #onthisday</t>
+          <t>»La quadruple lettre que m’a envoyée Monsieur de Ladoucette, Monsieur, m’a fait le plus grand plaisir ...« à Montémont, 1836-10-16, https://constance-de-salm.de/archiv/#/document/9854 #onthisday</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11133,12 +11133,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>14:43:18</t>
+          <t>17:32:45</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>"Madame de Novakovsky qui est ici, Madame, m'a donné de vos nouvelles ..." à Sandt, 1839-10-17, https://constance-de-salm.de/archiv/#/document/8120 #onthisday</t>
+          <t>»Madame de Novakovsky qui est ici, Madame, m'a donné de vos nouvelles ...« à Sandt, 1839-10-17, https://constance-de-salm.de/archiv/#/document/8120 #onthisday</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11160,12 +11160,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>12:51:08</t>
+          <t>19:35:07</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>"Sire, c'est avec un vif regret que je me suis vue privée par une maladie grave que j'ai eue à mon arrivée ..." à Friedrich Wilhelm IV., 1842-10-18, https://constance-de-salm.de/archiv/#/document/7467 #onthisday</t>
+          <t>»Sire, c'est avec un vif regret que je me suis vue privée par une maladie grave que j'ai eue à mon arrivée ...« à Friedrich Wilhelm IV., 1842-10-18, https://constance-de-salm.de/archiv/#/document/7467 #onthisday</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11187,12 +11187,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>14:06:11</t>
+          <t>14:53:07</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>"C’est aujourd’hui dimanche, cher ami, une partie de mon monde est à la messe: l’autre ne tardera pas à y aller ..." à Salm-Reifferscheidt-Dyck, 1844-10-20, https://constance-de-salm.de/archiv/#/document/5354 #onthisday</t>
+          <t>»C’est aujourd’hui dimanche, cher ami, une partie de mon monde est à la messe: l’autre ne tardera pas à y aller ...« à Salm-Reifferscheidt-Dyck, 1844-10-20, https://constance-de-salm.de/archiv/#/document/5354 #onthisday</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11214,12 +11214,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>18:42:19</t>
+          <t>18:11:07</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>"Cette lettre part aujourd'hui (22) Monsieur, elle vous arrivera le 25, jour qui, m'avez vous dit, sera celui de votre retour à Paris ..." à Drais, 1842-10-22, https://constance-de-salm.de/archiv/#/document/7469 #onthisday</t>
+          <t>»Cette lettre part aujourd'hui (22) Monsieur, elle vous arrivera le 25, jour qui, m'avez vous dit, sera celui de votre retour à Paris ...« à Drais, 1842-10-22, https://constance-de-salm.de/archiv/#/document/7469 #onthisday</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>17:55:58</t>
+          <t>17:18:19</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>"J’ai remis de jour en jour à vous écrire, Monsieur, parce que je voulais vous dire positivement ..." à Mirault, 1836-10-23, https://constance-de-salm.de/archiv/#/document/9855 #onthisday</t>
+          <t>»J’ai remis de jour en jour à vous écrire, Monsieur, parce que je voulais vous dire positivement ...« à Mirault, 1836-10-23, https://constance-de-salm.de/archiv/#/document/9855 #onthisday</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -11268,12 +11268,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>09:52:15</t>
+          <t>13:52:03</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>"C'est une triste lettre que je vais t'écrire, cher ami ..." à Salm-Reifferscheidt-Dyck, 1844-10-25, https://constance-de-salm.de/archiv/#/document/5347 #onthisday</t>
+          <t>»C'est une triste lettre que je vais t'écrire, cher ami ...« à Salm-Reifferscheidt-Dyck, 1844-10-25, https://constance-de-salm.de/archiv/#/document/5347 #onthisday</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -11295,12 +11295,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>11:46:48</t>
+          <t>08:29:31</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>"J'ai reçu votre bonne et aimable lettre, ma chère amie, peu de jours avant de quitter Paris ..." à Naigeon, 1841-10-26, https://constance-de-salm.de/archiv/#/document/7715 #onthisday</t>
+          <t>»J'ai reçu votre bonne et aimable lettre, ma chère amie, peu de jours avant de quitter Paris ...« à Naigeon, 1841-10-26, https://constance-de-salm.de/archiv/#/document/7715 #onthisday</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
